--- a/inputdata/MRT.xlsx
+++ b/inputdata/MRT.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangnanqing/Dropbox/project/busstoppy/inputdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27792" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="588">
   <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,10 +644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？兰站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30 Woodlands Avenue 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2272,6 +2278,81 @@
   <si>
     <t>60 Sengkang E Ave</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT13</t>
+  </si>
+  <si>
+    <t>DT12</t>
+  </si>
+  <si>
+    <t>DT1</t>
+  </si>
+  <si>
+    <t>DT2</t>
+  </si>
+  <si>
+    <t>DT3</t>
+  </si>
+  <si>
+    <t>DT5</t>
+  </si>
+  <si>
+    <t>DT6</t>
+  </si>
+  <si>
+    <t>DT7</t>
+  </si>
+  <si>
+    <t>DT8</t>
+  </si>
+  <si>
+    <t>DT9</t>
+  </si>
+  <si>
+    <t>DT10</t>
+  </si>
+  <si>
+    <t>DT11</t>
+  </si>
+  <si>
+    <t>Bukit Panjang</t>
+  </si>
+  <si>
+    <t>Cashew</t>
+  </si>
+  <si>
+    <t>Hillview</t>
+  </si>
+  <si>
+    <t>Beauty World</t>
+  </si>
+  <si>
+    <t>King Albert Park</t>
+  </si>
+  <si>
+    <t>Sixth Avenue</t>
+  </si>
+  <si>
+    <t>Tan Kah Kee</t>
+  </si>
+  <si>
+    <t>Botanic Gardens</t>
+  </si>
+  <si>
+    <t>Stevens</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>Little India</t>
+  </si>
+  <si>
+    <t>Rochor</t>
+  </si>
+  <si>
+    <t>兀兰站</t>
   </si>
 </sst>
 </file>
@@ -2281,7 +2362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2348,7 +2429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2396,6 +2477,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2454,12 +2538,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2489,12 +2573,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2698,24 +2782,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2741,7 +2826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2764,7 +2849,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2787,7 +2872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2807,7 +2892,7 @@
         <v>649846</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2830,7 +2915,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2853,7 +2938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2876,7 +2961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2899,7 +2984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2920,7 +3005,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2943,7 +3028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2966,7 +3051,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -2987,7 +3072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -3010,7 +3095,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -3033,7 +3118,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -3056,7 +3141,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -3076,7 +3161,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -3099,7 +3184,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -3122,7 +3207,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -3145,7 +3230,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -3162,7 +3247,7 @@
         <v>103.86299099999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -3179,7 +3264,7 @@
         <v>103.871392</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -3196,7 +3281,7 @@
         <v>103.882893</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -3216,7 +3301,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -3239,7 +3324,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -3262,7 +3347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -3279,7 +3364,7 @@
         <v>103.930025</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -3302,7 +3387,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -3322,7 +3407,7 @@
         <v>489480</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -3342,7 +3427,7 @@
         <v>529538</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -3359,7 +3444,7 @@
         <v>103.949504</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -3379,7 +3464,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -3399,7 +3484,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -3419,7 +3504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -3439,7 +3524,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>134</v>
       </c>
@@ -3462,7 +3547,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -3485,7 +3570,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -3508,7 +3593,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -3525,7 +3610,7 @@
         <v>103.76190099999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -3545,15 +3630,15 @@
         <v>739044</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>152</v>
       </c>
       <c r="B40" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>154</v>
+      <c r="C40" s="16" t="s">
+        <v>587</v>
       </c>
       <c r="D40">
         <v>1.4371970000000001</v>
@@ -3565,18 +3650,18 @@
         <v>738343</v>
       </c>
       <c r="G40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>156</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="D41">
         <v>1.440715</v>
@@ -3588,18 +3673,18 @@
         <v>738344</v>
       </c>
       <c r="G41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>160</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>162</v>
       </c>
       <c r="D42">
         <v>1.4490810000000001</v>
@@ -3611,18 +3696,18 @@
         <v>759775</v>
       </c>
       <c r="G42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>164</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="D43">
         <v>1.4295610000000001</v>
@@ -3631,32 +3716,32 @@
         <v>103.83524300000001</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" t="s">
         <v>167</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="D44">
         <v>1.417548</v>
       </c>
       <c r="E44" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>171</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="D45">
         <v>1.3820790000000001</v>
@@ -3668,18 +3753,18 @@
         <v>569813</v>
       </c>
       <c r="G45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>175</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>177</v>
       </c>
       <c r="D46">
         <v>1.3700349999999999</v>
@@ -3691,18 +3776,18 @@
         <v>569811</v>
       </c>
       <c r="G46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>179</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>181</v>
       </c>
       <c r="D47">
         <v>1.350803</v>
@@ -3714,18 +3799,18 @@
         <v>579827</v>
       </c>
       <c r="G47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>183</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>185</v>
       </c>
       <c r="D48">
         <v>1.340292</v>
@@ -3737,18 +3822,18 @@
         <v>319758</v>
       </c>
       <c r="G48" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>187</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="D49">
         <v>1.3327260000000001</v>
@@ -3760,18 +3845,18 @@
         <v>310190</v>
       </c>
       <c r="G49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
         <v>191</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>193</v>
       </c>
       <c r="D50">
         <v>1.320038</v>
@@ -3783,18 +3868,18 @@
         <v>307683</v>
       </c>
       <c r="G50" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>195</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="D51">
         <v>1.312487</v>
@@ -3806,18 +3891,18 @@
         <v>228234</v>
       </c>
       <c r="G51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>199</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="D52">
         <v>1.304324</v>
@@ -3829,15 +3914,15 @@
         <v>238801</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" t="s">
         <v>202</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>204</v>
       </c>
       <c r="D53">
         <v>1.300125</v>
@@ -3849,18 +3934,18 @@
         <v>238162</v>
       </c>
       <c r="G53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
         <v>206</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="D54">
         <v>1.2985910000000001</v>
@@ -3872,18 +3957,18 @@
         <v>238826</v>
       </c>
       <c r="G54" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
         <v>210</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="D55">
         <v>1.293239</v>
@@ -3895,18 +3980,18 @@
         <v>179100</v>
       </c>
       <c r="G55" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
         <v>214</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="D56">
         <v>1.2839389999999999</v>
@@ -3915,64 +4000,64 @@
         <v>103.851642</v>
       </c>
       <c r="F56" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
         <v>218</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="D57" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E57" s="7">
         <v>103.85480699999999</v>
       </c>
       <c r="F57" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G57" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>223</v>
+      </c>
+      <c r="B58" t="s">
         <v>224</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="D58">
         <v>1.2709710000000001</v>
       </c>
       <c r="E58" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>229</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
         <v>230</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="10" t="s">
         <v>231</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>232</v>
       </c>
       <c r="D59">
         <v>1.2652969999999999</v>
@@ -3981,21 +4066,21 @@
         <v>103.82118199999999</v>
       </c>
       <c r="F59" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G59" s="7" t="s">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
         <v>235</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="D60">
         <v>1.281344</v>
@@ -4004,15 +4089,15 @@
         <v>103.839765</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>237</v>
+      </c>
+      <c r="B61" t="s">
         <v>238</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>240</v>
       </c>
       <c r="D61">
         <v>1.284446</v>
@@ -4022,18 +4107,18 @@
       </c>
       <c r="F61" s="13"/>
       <c r="G61" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>261</v>
+      </c>
+      <c r="B62" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>262</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C62" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>243</v>
       </c>
       <c r="D62">
         <v>1.2885009999999999</v>
@@ -4042,18 +4127,18 @@
         <v>103.846778</v>
       </c>
       <c r="G62" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B63" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="D63">
         <v>1.298594</v>
@@ -4065,18 +4150,18 @@
         <v>238826</v>
       </c>
       <c r="G63" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B64" t="s">
+        <v>244</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>246</v>
       </c>
       <c r="D64" s="10">
         <v>1.3072280000000001</v>
@@ -4085,38 +4170,38 @@
         <v>103.849847</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B65" t="s">
+        <v>246</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>247</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>248</v>
       </c>
       <c r="D65" s="10">
         <v>1.3124089999999999</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F65">
         <v>217562</v>
       </c>
       <c r="G65" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B66" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>252</v>
       </c>
       <c r="D66" s="10">
         <v>1.319596</v>
@@ -4128,15 +4213,15 @@
         <v>328260</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D67" s="10">
         <v>1.3313619999999999</v>
@@ -4148,18 +4233,18 @@
         <v>347663</v>
       </c>
       <c r="G67" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B68" t="s">
+        <v>255</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="D68" s="10">
         <v>1.3393630000000001</v>
@@ -4168,18 +4253,18 @@
         <v>103.870757</v>
       </c>
       <c r="G68" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>269</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C69" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="D69" s="10">
         <v>1.3492420000000001</v>
@@ -4191,18 +4276,18 @@
         <v>534801</v>
       </c>
       <c r="G69" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>269</v>
+      </c>
+      <c r="B70" t="s">
         <v>270</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="10" t="s">
         <v>271</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>272</v>
       </c>
       <c r="D70" s="10">
         <v>1.3605149999999999</v>
@@ -4211,18 +4296,18 @@
         <v>103.885209</v>
       </c>
       <c r="G70" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
         <v>274</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" s="10" t="s">
         <v>275</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>276</v>
       </c>
       <c r="D71" s="10">
         <v>1.370919</v>
@@ -4234,18 +4319,18 @@
         <v>538757</v>
       </c>
       <c r="G71" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
         <v>278</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="10" t="s">
         <v>279</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>280</v>
       </c>
       <c r="D72" s="10">
         <v>1.382449</v>
@@ -4257,15 +4342,15 @@
         <v>549927</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>280</v>
+      </c>
+      <c r="B73" t="s">
+        <v>282</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>281</v>
-      </c>
-      <c r="B73" t="s">
-        <v>283</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>282</v>
       </c>
       <c r="D73" s="10">
         <v>1.3912659999999999</v>
@@ -4277,18 +4362,18 @@
         <v>545062</v>
       </c>
       <c r="G73" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
         <v>285</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>287</v>
       </c>
       <c r="D74" s="10">
         <v>1.4045449999999999</v>
@@ -4300,18 +4385,18 @@
         <v>828868</v>
       </c>
       <c r="G74" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>289</v>
-      </c>
       <c r="B75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="D75" s="10">
         <v>1.298746</v>
@@ -4320,15 +4405,15 @@
         <v>103.844688</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>289</v>
+      </c>
+      <c r="B76" t="s">
         <v>290</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="10" t="s">
         <v>291</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>292</v>
       </c>
       <c r="D76" s="10">
         <v>1.2969440000000001</v>
@@ -4340,18 +4425,18 @@
         <v>189561</v>
       </c>
       <c r="G76" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
         <v>294</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>296</v>
       </c>
       <c r="D77" s="10">
         <v>1.2934680000000001</v>
@@ -4360,21 +4445,21 @@
         <v>103.855352</v>
       </c>
       <c r="F77" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G77" s="7" t="s">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
         <v>299</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="10" t="s">
         <v>300</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>301</v>
       </c>
       <c r="D78" s="10">
         <v>1.293147</v>
@@ -4383,21 +4468,21 @@
         <v>103.86082399999999</v>
       </c>
       <c r="F78" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>303</v>
       </c>
-      <c r="G78" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
         <v>304</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>306</v>
       </c>
       <c r="D79" s="10">
         <v>1.2997540000000001</v>
@@ -4406,21 +4491,21 @@
         <v>103.863699</v>
       </c>
       <c r="F79" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G79" s="7" t="s">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
         <v>309</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="10" t="s">
         <v>310</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>311</v>
       </c>
       <c r="D80" s="10">
         <v>1.302929</v>
@@ -4432,18 +4517,18 @@
         <v>397692</v>
       </c>
       <c r="G80" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
         <v>313</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="D81" s="10">
         <v>1.3064039999999999</v>
@@ -4452,18 +4537,18 @@
         <v>103.882582</v>
       </c>
       <c r="G81" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
         <v>317</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" s="10" t="s">
         <v>318</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>319</v>
       </c>
       <c r="D82" s="10">
         <v>1.308292</v>
@@ -4472,18 +4557,18 @@
         <v>103.88824700000001</v>
       </c>
       <c r="G82" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
         <v>321</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="10" t="s">
         <v>322</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>323</v>
       </c>
       <c r="D83" s="10">
         <v>1.318074</v>
@@ -4492,18 +4577,18 @@
         <v>103.89245200000001</v>
       </c>
       <c r="G83" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
         <v>325</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="10" t="s">
         <v>326</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>327</v>
       </c>
       <c r="D84" s="10">
         <v>1.3265690000000001</v>
@@ -4515,18 +4600,18 @@
         <v>378961</v>
       </c>
       <c r="G84" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
         <v>329</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>331</v>
       </c>
       <c r="D85" s="10">
         <v>1.335836</v>
@@ -4538,18 +4623,18 @@
         <v>369522</v>
       </c>
       <c r="G85" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
         <v>333</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" s="10" t="s">
         <v>334</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>335</v>
       </c>
       <c r="D86" s="10">
         <v>1.3427009999999999</v>
@@ -4561,18 +4646,18 @@
         <v>539788</v>
       </c>
       <c r="G86" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
-        <v>337</v>
-      </c>
       <c r="B87" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="D87" s="10">
         <v>1.3491789999999999</v>
@@ -4584,18 +4669,18 @@
         <v>534801</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>337</v>
+      </c>
+      <c r="B88" t="s">
         <v>338</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" s="10" t="s">
         <v>339</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>340</v>
       </c>
       <c r="D88" s="10">
         <v>1.352182</v>
@@ -4607,18 +4692,18 @@
         <v>556743</v>
       </c>
       <c r="G88" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s">
-        <v>342</v>
-      </c>
       <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>181</v>
       </c>
       <c r="D89" s="10">
         <v>1.3507670000000001</v>
@@ -4630,18 +4715,18 @@
         <v>579827</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>342</v>
+      </c>
+      <c r="B90" t="s">
         <v>343</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="D90" s="10">
         <v>1.3490869999999999</v>
@@ -4653,18 +4738,18 @@
         <v>573993</v>
       </c>
       <c r="G90" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
         <v>347</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="10" t="s">
         <v>348</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>349</v>
       </c>
       <c r="D91" s="10">
         <v>1.337804</v>
@@ -4676,18 +4761,18 @@
         <v>298113</v>
       </c>
       <c r="G91" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
         <v>351</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="D92" s="10">
         <v>1.3225089999999999</v>
@@ -4696,15 +4781,15 @@
         <v>103.815376</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>353</v>
+      </c>
+      <c r="B93" t="s">
         <v>354</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" s="10" t="s">
         <v>355</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>356</v>
       </c>
       <c r="D93" s="10">
         <v>1.3173170000000001</v>
@@ -4716,18 +4801,18 @@
         <v>268857</v>
       </c>
       <c r="G93" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
         <v>358</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" s="10" t="s">
         <v>359</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>360</v>
       </c>
       <c r="D94" s="10">
         <v>1.3121259999999999</v>
@@ -4739,15 +4824,15 @@
         <v>268585</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>360</v>
+      </c>
+      <c r="B95" t="s">
         <v>361</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" s="10" t="s">
         <v>362</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>363</v>
       </c>
       <c r="D95" s="10">
         <v>1.3074490000000001</v>
@@ -4759,18 +4844,18 @@
         <v>139237</v>
       </c>
       <c r="G95" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
         <v>365</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" s="10" t="s">
         <v>366</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>367</v>
       </c>
       <c r="D96" s="10">
         <v>1.2992969999999999</v>
@@ -4779,18 +4864,18 @@
         <v>103.78709499999999</v>
       </c>
       <c r="G96" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
         <v>369</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" s="10" t="s">
         <v>370</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>371</v>
       </c>
       <c r="D97" s="10">
         <v>1.293377</v>
@@ -4799,18 +4884,18 @@
         <v>103.78434799999999</v>
       </c>
       <c r="G97" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
         <v>373</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" s="10" t="s">
         <v>374</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>375</v>
       </c>
       <c r="D98" s="10">
         <v>1.2823770000000001</v>
@@ -4819,18 +4904,18 @@
         <v>103.78187699999999</v>
       </c>
       <c r="G98" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
         <v>377</v>
       </c>
-      <c r="B99" t="s">
-        <v>378</v>
-      </c>
       <c r="C99" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D99" s="10">
         <v>1.2760640000000001</v>
@@ -4842,18 +4927,18 @@
         <v>118543</v>
       </c>
       <c r="G99" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
         <v>380</v>
       </c>
-      <c r="B100" t="s">
-        <v>381</v>
-      </c>
       <c r="C100" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D100" s="10">
         <v>1.272289</v>
@@ -4865,18 +4950,18 @@
         <v>109029</v>
       </c>
       <c r="G100" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
         <v>385</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" s="10" t="s">
         <v>386</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>387</v>
       </c>
       <c r="D101" s="10">
         <v>1.2705630000000001</v>
@@ -4885,18 +4970,18 @@
         <v>103.809577</v>
       </c>
       <c r="F101" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" t="s">
+      <c r="B102" t="s">
         <v>389</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" s="10" t="s">
         <v>390</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>391</v>
       </c>
       <c r="D102" s="10">
         <v>1.2653719999999999</v>
@@ -4905,21 +4990,21 @@
         <v>103.82032700000001</v>
       </c>
       <c r="F102" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="G102" s="7" t="s">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
         <v>394</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" s="10" t="s">
         <v>395</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>396</v>
       </c>
       <c r="D103" s="10">
         <v>1.282362</v>
@@ -4928,21 +5013,21 @@
         <v>103.858994</v>
       </c>
       <c r="F103" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="G103" s="7" t="s">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
         <v>399</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" s="10" t="s">
         <v>400</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>401</v>
       </c>
       <c r="D104" s="10">
         <v>1.276162</v>
@@ -4951,21 +5036,21 @@
         <v>103.854316</v>
       </c>
       <c r="F104" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G104" s="7" t="s">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
         <v>404</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" s="10" t="s">
         <v>405</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>406</v>
       </c>
       <c r="D105" s="10">
         <v>1.300799</v>
@@ -4974,18 +5059,18 @@
         <v>103.85553400000001</v>
       </c>
       <c r="G105" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
         <v>408</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" s="10" t="s">
         <v>409</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>410</v>
       </c>
       <c r="D106" s="10">
         <v>1.2932049999999999</v>
@@ -4994,21 +5079,21 @@
         <v>103.861628</v>
       </c>
       <c r="F106" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>412</v>
       </c>
-      <c r="G106" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" t="s">
+      <c r="B107" t="s">
         <v>413</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" s="10" t="s">
         <v>414</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>415</v>
       </c>
       <c r="D107" s="10">
         <v>1.2824340000000001</v>
@@ -5017,21 +5102,21 @@
         <v>103.859549</v>
       </c>
       <c r="F107" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="G107" t="s">
         <v>416</v>
       </c>
-      <c r="G107" t="s">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>420</v>
+      </c>
+      <c r="B108" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" t="s">
-        <v>421</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="C108" s="10" t="s">
         <v>418</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>419</v>
       </c>
       <c r="D108" s="10">
         <v>1.279401</v>
@@ -5040,18 +5125,18 @@
         <v>103.852964</v>
       </c>
       <c r="G108" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>421</v>
+      </c>
+      <c r="B109" t="s">
         <v>422</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" s="10" t="s">
         <v>423</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>424</v>
       </c>
       <c r="D109" s="10">
         <v>1.2820450000000001</v>
@@ -5060,21 +5145,21 @@
         <v>103.848457</v>
       </c>
       <c r="F109" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="G109" s="7" t="s">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" t="s">
+      <c r="B110" t="s">
         <v>427</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" s="10" t="s">
         <v>428</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>429</v>
       </c>
       <c r="D110" s="10">
         <v>1.2844370000000001</v>
@@ -5083,21 +5168,21 @@
         <v>103.843264</v>
       </c>
       <c r="F110" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="G110" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="G110" s="7" t="s">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" t="s">
+      <c r="B111" t="s">
         <v>432</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" s="10" t="s">
         <v>433</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>434</v>
       </c>
       <c r="D111" s="10">
         <v>1.385521</v>
@@ -5109,18 +5194,18 @@
         <v>689811</v>
       </c>
       <c r="G111" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" t="s">
+      <c r="B112" t="s">
         <v>436</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" s="10" t="s">
         <v>437</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>438</v>
       </c>
       <c r="D112" s="10">
         <v>1.3803289999999999</v>
@@ -5132,18 +5217,18 @@
         <v>688265</v>
       </c>
       <c r="G112" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" t="s">
+      <c r="B113" t="s">
         <v>440</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" s="10" t="s">
         <v>441</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>442</v>
       </c>
       <c r="D113" s="10">
         <v>1.3786560000000001</v>
@@ -5155,18 +5240,18 @@
         <v>688266</v>
       </c>
       <c r="G113" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" t="s">
+      <c r="B114" t="s">
         <v>444</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" s="10" t="s">
         <v>445</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>446</v>
       </c>
       <c r="D114" s="10">
         <v>1.376811</v>
@@ -5178,18 +5263,18 @@
         <v>688267</v>
       </c>
       <c r="G114" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" t="s">
+      <c r="B115" t="s">
         <v>448</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" s="10" t="s">
         <v>449</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>450</v>
       </c>
       <c r="D115" s="10">
         <v>1.3784419999999999</v>
@@ -5201,18 +5286,18 @@
         <v>689483</v>
       </c>
       <c r="G115" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" t="s">
+      <c r="B116" t="s">
         <v>452</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" s="10" t="s">
         <v>453</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>454</v>
       </c>
       <c r="D116" s="10">
         <v>1.3781969999999999</v>
@@ -5224,18 +5309,18 @@
         <v>678270</v>
       </c>
       <c r="G116" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" t="s">
+      <c r="B117" t="s">
         <v>456</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" s="10" t="s">
         <v>457</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>458</v>
       </c>
       <c r="D117" s="10">
         <v>1.377291</v>
@@ -5244,18 +5329,18 @@
         <v>103.767376</v>
       </c>
       <c r="G117" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
         <v>460</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" s="10" t="s">
         <v>461</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>462</v>
       </c>
       <c r="D118" s="10">
         <v>1.376261</v>
@@ -5264,18 +5349,18 @@
         <v>103.77131300000001</v>
       </c>
       <c r="G118" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" t="s">
+      <c r="B119" t="s">
         <v>464</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" s="10" t="s">
         <v>465</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>466</v>
       </c>
       <c r="D119" s="10">
         <v>1.3803909999999999</v>
@@ -5287,18 +5372,18 @@
         <v>679939</v>
       </c>
       <c r="G119" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" t="s">
+      <c r="B120" t="s">
         <v>468</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" s="10" t="s">
         <v>469</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>470</v>
       </c>
       <c r="D120" s="10">
         <v>1.3847449999999999</v>
@@ -5310,18 +5395,18 @@
         <v>679004</v>
       </c>
       <c r="G120" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" t="s">
+      <c r="B121" t="s">
         <v>472</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" s="10" t="s">
         <v>473</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>474</v>
       </c>
       <c r="D121" s="10">
         <v>1.387491</v>
@@ -5333,18 +5418,18 @@
         <v>679940</v>
       </c>
       <c r="G121" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" t="s">
+      <c r="B122" t="s">
         <v>476</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" s="10" t="s">
         <v>477</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>478</v>
       </c>
       <c r="D122" s="10">
         <v>1.3868050000000001</v>
@@ -5356,18 +5441,18 @@
         <v>679941</v>
       </c>
       <c r="G122" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" t="s">
+      <c r="B123" t="s">
         <v>480</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" s="10" t="s">
         <v>481</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>482</v>
       </c>
       <c r="D123" s="10">
         <v>1.383211</v>
@@ -5376,18 +5461,18 @@
         <v>103.76216100000001</v>
       </c>
       <c r="G123" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" t="s">
+      <c r="B124" t="s">
         <v>484</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>485</v>
-      </c>
-      <c r="C124" t="s">
-        <v>486</v>
       </c>
       <c r="D124">
         <v>1.4047289999999999</v>
@@ -5399,18 +5484,18 @@
         <v>828868</v>
       </c>
       <c r="G124" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" t="s">
+      <c r="B125" t="s">
         <v>488</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>489</v>
-      </c>
-      <c r="C125" t="s">
-        <v>490</v>
       </c>
       <c r="D125">
         <v>1.3993370000000001</v>
@@ -5422,18 +5507,18 @@
         <v>820198</v>
       </c>
       <c r="G125" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" t="s">
+      <c r="B126" t="s">
         <v>492</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>493</v>
-      </c>
-      <c r="C126" t="s">
-        <v>494</v>
       </c>
       <c r="D126">
         <v>1.3969780000000001</v>
@@ -5442,18 +5527,18 @@
         <v>103.909177</v>
       </c>
       <c r="G126" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" t="s">
+      <c r="B127" t="s">
         <v>496</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>497</v>
-      </c>
-      <c r="C127" t="s">
-        <v>498</v>
       </c>
       <c r="D127">
         <v>1.393448</v>
@@ -5462,18 +5547,18 @@
         <v>103.91209600000001</v>
       </c>
       <c r="G127" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" t="s">
+      <c r="B128" t="s">
         <v>500</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>501</v>
-      </c>
-      <c r="C128" t="s">
-        <v>502</v>
       </c>
       <c r="D128">
         <v>1.3946190000000001</v>
@@ -5485,18 +5570,18 @@
         <v>828852</v>
       </c>
       <c r="G128" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" t="s">
+      <c r="B129" t="s">
         <v>504</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>505</v>
-      </c>
-      <c r="C129" t="s">
-        <v>506</v>
       </c>
       <c r="D129">
         <v>1.399338</v>
@@ -5508,18 +5593,18 @@
         <v>828853</v>
       </c>
       <c r="G129" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" t="s">
+      <c r="B130" t="s">
         <v>508</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>509</v>
-      </c>
-      <c r="C130" t="s">
-        <v>510</v>
       </c>
       <c r="D130">
         <v>1.4016120000000001</v>
@@ -5528,18 +5613,18 @@
         <v>103.913605</v>
       </c>
       <c r="G130" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" t="s">
+      <c r="B131" t="s">
         <v>512</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>513</v>
-      </c>
-      <c r="C131" t="s">
-        <v>514</v>
       </c>
       <c r="D131">
         <v>1.4053450000000001</v>
@@ -5551,18 +5636,18 @@
         <v>822612</v>
       </c>
       <c r="G131" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" t="s">
+      <c r="B132" t="s">
         <v>516</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>517</v>
-      </c>
-      <c r="C132" t="s">
-        <v>518</v>
       </c>
       <c r="D132">
         <v>1.391745</v>
@@ -5574,18 +5659,18 @@
         <v>545062</v>
       </c>
       <c r="G132" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" t="s">
+      <c r="B133" t="s">
         <v>520</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>521</v>
-      </c>
-      <c r="C133" t="s">
-        <v>522</v>
       </c>
       <c r="D133">
         <v>1.3946190000000001</v>
@@ -5597,18 +5682,18 @@
         <v>540250</v>
       </c>
       <c r="G133" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" t="s">
+      <c r="B134" t="s">
         <v>524</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>525</v>
-      </c>
-      <c r="C134" t="s">
-        <v>526</v>
       </c>
       <c r="D134">
         <v>1.3911009999999999</v>
@@ -5617,18 +5702,18 @@
         <v>103.90622399999999</v>
       </c>
       <c r="G134" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" t="s">
+      <c r="B135" t="s">
         <v>528</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>529</v>
-      </c>
-      <c r="C135" t="s">
-        <v>530</v>
       </c>
       <c r="D135">
         <v>1.387883</v>
@@ -5640,18 +5725,18 @@
         <v>545053</v>
       </c>
       <c r="G135" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" t="s">
+      <c r="B136" t="s">
         <v>532</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>533</v>
-      </c>
-      <c r="C136" t="s">
-        <v>534</v>
       </c>
       <c r="D136">
         <v>1.3837219999999999</v>
@@ -5663,18 +5748,18 @@
         <v>545052</v>
       </c>
       <c r="G136" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" t="s">
+      <c r="B137" t="s">
         <v>536</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>537</v>
-      </c>
-      <c r="C137" t="s">
-        <v>538</v>
       </c>
       <c r="D137">
         <v>1.3836360000000001</v>
@@ -5683,18 +5768,18 @@
         <v>103.89764099999999</v>
       </c>
       <c r="G137" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" t="s">
+      <c r="B138" t="s">
         <v>540</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>541</v>
-      </c>
-      <c r="C138" t="s">
-        <v>542</v>
       </c>
       <c r="D138">
         <v>1.397295</v>
@@ -5706,18 +5791,18 @@
         <v>545048</v>
       </c>
       <c r="G138" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" t="s">
+      <c r="B139" t="s">
         <v>544</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>545</v>
-      </c>
-      <c r="C139" t="s">
-        <v>546</v>
       </c>
       <c r="D139">
         <v>1.397348</v>
@@ -5729,18 +5814,18 @@
         <v>797699</v>
       </c>
       <c r="G139" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" t="s">
+      <c r="B140" t="s">
         <v>548</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>549</v>
-      </c>
-      <c r="C140" t="s">
-        <v>550</v>
       </c>
       <c r="D140">
         <v>1.391921</v>
@@ -5752,18 +5837,18 @@
         <v>797698</v>
       </c>
       <c r="G140" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" t="s">
+      <c r="B141" t="s">
         <v>552</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>553</v>
-      </c>
-      <c r="C141" t="s">
-        <v>554</v>
       </c>
       <c r="D141">
         <v>1.3921570000000001</v>
@@ -5775,18 +5860,18 @@
         <v>797700</v>
       </c>
       <c r="G141" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" t="s">
+      <c r="B142" t="s">
         <v>556</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>557</v>
-      </c>
-      <c r="C142" t="s">
-        <v>558</v>
       </c>
       <c r="D142">
         <v>1.3892610000000001</v>
@@ -5798,18 +5883,18 @@
         <v>545050</v>
       </c>
       <c r="G142" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" t="s">
+      <c r="B143" t="s">
         <v>560</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>561</v>
-      </c>
-      <c r="C143" t="s">
-        <v>562</v>
       </c>
       <c r="D143">
         <v>1.386644</v>
@@ -5821,7 +5906,199 @@
         <v>545049</v>
       </c>
       <c r="G143" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>565</v>
+      </c>
+      <c r="B144" t="s">
+        <v>575</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D144" s="10">
+        <v>1.3781969999999999</v>
+      </c>
+      <c r="E144" s="7">
+        <v>103.76354499999999</v>
+      </c>
+      <c r="F144">
+        <v>678270</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>566</v>
+      </c>
+      <c r="B145" t="s">
+        <v>576</v>
+      </c>
+      <c r="D145" s="16">
+        <v>1.3689750000000001</v>
+      </c>
+      <c r="E145" s="7">
+        <v>103.764803</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>567</v>
+      </c>
+      <c r="B146" t="s">
+        <v>577</v>
+      </c>
+      <c r="D146" s="16">
+        <v>1.3624719999999999</v>
+      </c>
+      <c r="E146" s="7">
+        <v>103.76738899999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>568</v>
+      </c>
+      <c r="B147" t="s">
+        <v>578</v>
+      </c>
+      <c r="D147" s="16">
+        <v>1.3411329999999999</v>
+      </c>
+      <c r="E147" s="7">
+        <v>103.775797</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>569</v>
+      </c>
+      <c r="B148" t="s">
+        <v>579</v>
+      </c>
+      <c r="D148" s="16">
+        <v>1.335628</v>
+      </c>
+      <c r="E148" s="7">
+        <v>103.78398300000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>570</v>
+      </c>
+      <c r="B149" t="s">
+        <v>580</v>
+      </c>
+      <c r="D149" s="16">
+        <v>1.330714</v>
+      </c>
+      <c r="E149" s="7">
+        <v>103.797633</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>571</v>
+      </c>
+      <c r="B150" t="s">
+        <v>581</v>
+      </c>
+      <c r="D150" s="16">
+        <v>1.326039</v>
+      </c>
+      <c r="E150" s="7">
+        <v>103.807169</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>572</v>
+      </c>
+      <c r="B151" t="s">
+        <v>582</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="D151" s="10">
+        <v>1.3225089999999999</v>
+      </c>
+      <c r="E151" s="7">
+        <v>103.815376</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>573</v>
+      </c>
+      <c r="B152" t="s">
+        <v>583</v>
+      </c>
+      <c r="D152" s="16">
+        <v>1.3200689999999999</v>
+      </c>
+      <c r="E152" s="7">
+        <v>103.825997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>574</v>
+      </c>
+      <c r="B153" t="s">
+        <v>584</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D153">
+        <v>1.312487</v>
+      </c>
+      <c r="E153" s="7">
+        <v>103.837924</v>
+      </c>
+      <c r="F153">
+        <v>228234</v>
+      </c>
+      <c r="G153" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>564</v>
+      </c>
+      <c r="B154" t="s">
+        <v>585</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D154" s="10">
+        <v>1.3072280000000001</v>
+      </c>
+      <c r="E154" s="7">
+        <v>103.849847</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>563</v>
+      </c>
+      <c r="B155" t="s">
+        <v>586</v>
+      </c>
+      <c r="D155" s="16">
+        <v>1.3037639999999999</v>
+      </c>
+      <c r="E155" s="7">
+        <v>103.852581</v>
       </c>
     </row>
   </sheetData>
@@ -5837,7 +6114,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5850,7 +6127,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputdata/MRT.xlsx
+++ b/inputdata/MRT.xlsx
@@ -2401,7 +2401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2411,6 +2411,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2429,7 +2465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2479,6 +2515,24 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2785,8 +2839,8 @@
   <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2827,7 +2881,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -2850,7 +2904,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -2873,7 +2927,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -2893,7 +2947,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
@@ -2916,7 +2970,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
@@ -2939,7 +2993,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -2962,7 +3016,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
@@ -2985,7 +3039,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
@@ -3006,7 +3060,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
@@ -3029,7 +3083,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B11" t="s">
@@ -3052,7 +3106,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B12" t="s">
@@ -3073,7 +3127,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B13" t="s">
@@ -3096,7 +3150,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B14" t="s">
@@ -3119,7 +3173,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B15" t="s">
@@ -3142,7 +3196,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B16" t="s">
@@ -3162,7 +3216,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B17" t="s">
@@ -3185,7 +3239,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="18" t="s">
         <v>72</v>
       </c>
       <c r="B18" t="s">
@@ -3208,7 +3262,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="18" t="s">
         <v>76</v>
       </c>
       <c r="B19" t="s">
@@ -3231,7 +3285,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="18" t="s">
         <v>79</v>
       </c>
       <c r="B20" t="s">
@@ -3248,7 +3302,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B21" t="s">
@@ -3265,7 +3319,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B22" t="s">
@@ -3282,7 +3336,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="18" t="s">
         <v>88</v>
       </c>
       <c r="B23" t="s">
@@ -3302,7 +3356,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B24" t="s">
@@ -3325,7 +3379,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="18" t="s">
         <v>97</v>
       </c>
       <c r="B25" t="s">
@@ -3348,7 +3402,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B26" t="s">
@@ -3365,7 +3419,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="18" t="s">
         <v>104</v>
       </c>
       <c r="B27" t="s">
@@ -3388,7 +3442,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="18" t="s">
         <v>108</v>
       </c>
       <c r="B28" t="s">
@@ -3408,7 +3462,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="18" t="s">
         <v>111</v>
       </c>
       <c r="B29" t="s">
@@ -3428,7 +3482,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="18" t="s">
         <v>115</v>
       </c>
       <c r="B30" t="s">
@@ -3485,7 +3539,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="19" t="s">
         <v>126</v>
       </c>
       <c r="B33" t="s">
@@ -3505,7 +3559,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="19" t="s">
         <v>130</v>
       </c>
       <c r="B34" t="s">
@@ -3525,7 +3579,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="19" t="s">
         <v>134</v>
       </c>
       <c r="B35" t="s">
@@ -3548,7 +3602,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="19" t="s">
         <v>138</v>
       </c>
       <c r="B36" t="s">
@@ -3571,7 +3625,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="19" t="s">
         <v>142</v>
       </c>
       <c r="B37" t="s">
@@ -3594,7 +3648,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B38" t="s">
@@ -3611,7 +3665,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="19" t="s">
         <v>149</v>
       </c>
       <c r="B39" t="s">
@@ -3631,7 +3685,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="19" t="s">
         <v>152</v>
       </c>
       <c r="B40" t="s">
@@ -3654,7 +3708,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="19" t="s">
         <v>155</v>
       </c>
       <c r="B41" t="s">
@@ -3677,7 +3731,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="19" t="s">
         <v>159</v>
       </c>
       <c r="B42" t="s">
@@ -3700,7 +3754,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="19" t="s">
         <v>163</v>
       </c>
       <c r="B43" t="s">
@@ -3717,7 +3771,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="19" t="s">
         <v>166</v>
       </c>
       <c r="B44" t="s">
@@ -3734,7 +3788,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B45" t="s">
@@ -3757,7 +3811,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="19" t="s">
         <v>174</v>
       </c>
       <c r="B46" t="s">
@@ -3780,7 +3834,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="19" t="s">
         <v>178</v>
       </c>
       <c r="B47" t="s">
@@ -3803,7 +3857,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="19" t="s">
         <v>182</v>
       </c>
       <c r="B48" t="s">
@@ -3826,7 +3880,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="19" t="s">
         <v>186</v>
       </c>
       <c r="B49" t="s">
@@ -3849,7 +3903,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="19" t="s">
         <v>190</v>
       </c>
       <c r="B50" t="s">
@@ -3872,7 +3926,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="19" t="s">
         <v>194</v>
       </c>
       <c r="B51" t="s">
@@ -3895,7 +3949,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="19" t="s">
         <v>198</v>
       </c>
       <c r="B52" t="s">
@@ -3915,7 +3969,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="19" t="s">
         <v>201</v>
       </c>
       <c r="B53" t="s">
@@ -3938,7 +3992,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="19" t="s">
         <v>205</v>
       </c>
       <c r="B54" t="s">
@@ -3961,7 +4015,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="19" t="s">
         <v>209</v>
       </c>
       <c r="B55" t="s">
@@ -3984,7 +4038,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="19" t="s">
         <v>213</v>
       </c>
       <c r="B56" t="s">
@@ -4004,7 +4058,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="19" t="s">
         <v>217</v>
       </c>
       <c r="B57" t="s">
@@ -4027,7 +4081,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="19" t="s">
         <v>223</v>
       </c>
       <c r="B58" t="s">
@@ -4050,7 +4104,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="20" t="s">
         <v>229</v>
       </c>
       <c r="B59" t="s">
@@ -4073,7 +4127,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="20" t="s">
         <v>234</v>
       </c>
       <c r="B60" t="s">
@@ -4090,7 +4144,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="20" t="s">
         <v>237</v>
       </c>
       <c r="B61" t="s">
@@ -4111,7 +4165,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="20" t="s">
         <v>261</v>
       </c>
       <c r="B62" t="s">
@@ -4131,7 +4185,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="20" t="s">
         <v>262</v>
       </c>
       <c r="B63" t="s">
@@ -4154,7 +4208,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="20" t="s">
         <v>263</v>
       </c>
       <c r="B64" t="s">
@@ -4171,7 +4225,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="20" t="s">
         <v>264</v>
       </c>
       <c r="B65" t="s">
@@ -4194,7 +4248,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="20" t="s">
         <v>265</v>
       </c>
       <c r="B66" t="s">
@@ -4214,7 +4268,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="20" t="s">
         <v>266</v>
       </c>
       <c r="B67" t="s">
@@ -4237,7 +4291,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="20" t="s">
         <v>267</v>
       </c>
       <c r="B68" t="s">
@@ -4257,7 +4311,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="20" t="s">
         <v>268</v>
       </c>
       <c r="B69" t="s">
@@ -4280,7 +4334,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="20" t="s">
         <v>269</v>
       </c>
       <c r="B70" t="s">
@@ -4300,7 +4354,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="20" t="s">
         <v>273</v>
       </c>
       <c r="B71" t="s">
@@ -4323,7 +4377,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="20" t="s">
         <v>277</v>
       </c>
       <c r="B72" t="s">
@@ -4343,7 +4397,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="20" t="s">
         <v>280</v>
       </c>
       <c r="B73" t="s">
@@ -4366,7 +4420,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="20" t="s">
         <v>284</v>
       </c>
       <c r="B74" t="s">
@@ -4389,7 +4443,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="21" t="s">
         <v>288</v>
       </c>
       <c r="B75" t="s">
@@ -4406,7 +4460,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="21" t="s">
         <v>289</v>
       </c>
       <c r="B76" t="s">
@@ -4429,7 +4483,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="21" t="s">
         <v>293</v>
       </c>
       <c r="B77" t="s">
@@ -4452,7 +4506,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="21" t="s">
         <v>298</v>
       </c>
       <c r="B78" t="s">
@@ -4475,7 +4529,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="21" t="s">
         <v>303</v>
       </c>
       <c r="B79" t="s">
@@ -4498,7 +4552,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="21" t="s">
         <v>308</v>
       </c>
       <c r="B80" t="s">
@@ -4521,7 +4575,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="21" t="s">
         <v>312</v>
       </c>
       <c r="B81" t="s">
@@ -4541,7 +4595,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="21" t="s">
         <v>316</v>
       </c>
       <c r="B82" t="s">
@@ -4561,7 +4615,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="21" t="s">
         <v>320</v>
       </c>
       <c r="B83" t="s">
@@ -4581,7 +4635,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="A84" s="21" t="s">
         <v>324</v>
       </c>
       <c r="B84" t="s">
@@ -4604,7 +4658,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="21" t="s">
         <v>328</v>
       </c>
       <c r="B85" t="s">
@@ -4627,7 +4681,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="21" t="s">
         <v>332</v>
       </c>
       <c r="B86" t="s">
@@ -4650,7 +4704,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="21" t="s">
         <v>336</v>
       </c>
       <c r="B87" t="s">
@@ -4673,7 +4727,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="21" t="s">
         <v>337</v>
       </c>
       <c r="B88" t="s">
@@ -4696,7 +4750,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="A89" s="21" t="s">
         <v>341</v>
       </c>
       <c r="B89" t="s">
@@ -4719,7 +4773,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="21" t="s">
         <v>342</v>
       </c>
       <c r="B90" t="s">
@@ -4742,7 +4796,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="21" t="s">
         <v>346</v>
       </c>
       <c r="B91" t="s">
@@ -4765,7 +4819,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="A92" s="21" t="s">
         <v>350</v>
       </c>
       <c r="B92" t="s">
@@ -4782,7 +4836,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="21" t="s">
         <v>353</v>
       </c>
       <c r="B93" t="s">
@@ -4805,7 +4859,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="A94" s="21" t="s">
         <v>357</v>
       </c>
       <c r="B94" t="s">
@@ -4825,7 +4879,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="21" t="s">
         <v>360</v>
       </c>
       <c r="B95" t="s">
@@ -4848,7 +4902,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="21" t="s">
         <v>364</v>
       </c>
       <c r="B96" t="s">
@@ -4868,7 +4922,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="21" t="s">
         <v>368</v>
       </c>
       <c r="B97" t="s">
@@ -4888,7 +4942,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="21" t="s">
         <v>372</v>
       </c>
       <c r="B98" t="s">
@@ -4908,7 +4962,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="21" t="s">
         <v>376</v>
       </c>
       <c r="B99" t="s">
@@ -4931,7 +4985,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="21" t="s">
         <v>379</v>
       </c>
       <c r="B100" t="s">
@@ -4954,7 +5008,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="A101" s="21" t="s">
         <v>384</v>
       </c>
       <c r="B101" t="s">
@@ -4974,7 +5028,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="A102" s="21" t="s">
         <v>388</v>
       </c>
       <c r="B102" t="s">
@@ -5043,7 +5097,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="A105" s="22" t="s">
         <v>403</v>
       </c>
       <c r="B105" t="s">
@@ -5063,7 +5117,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="A106" s="22" t="s">
         <v>407</v>
       </c>
       <c r="B106" t="s">
@@ -5086,7 +5140,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="A107" s="22" t="s">
         <v>412</v>
       </c>
       <c r="B107" t="s">
@@ -5109,7 +5163,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="A108" s="22" t="s">
         <v>420</v>
       </c>
       <c r="B108" t="s">
@@ -5129,7 +5183,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="A109" s="22" t="s">
         <v>421</v>
       </c>
       <c r="B109" t="s">
@@ -5152,7 +5206,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="A110" s="22" t="s">
         <v>426</v>
       </c>
       <c r="B110" t="s">
@@ -5910,7 +5964,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="A144" s="17" t="s">
         <v>565</v>
       </c>
       <c r="B144" t="s">
@@ -5933,7 +5987,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="A145" s="17" t="s">
         <v>566</v>
       </c>
       <c r="B145" t="s">
@@ -5947,7 +6001,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="A146" s="17" t="s">
         <v>567</v>
       </c>
       <c r="B146" t="s">
@@ -5961,7 +6015,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="A147" s="17" t="s">
         <v>568</v>
       </c>
       <c r="B147" t="s">
@@ -5975,7 +6029,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="A148" s="17" t="s">
         <v>569</v>
       </c>
       <c r="B148" t="s">
@@ -5989,7 +6043,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="A149" s="17" t="s">
         <v>570</v>
       </c>
       <c r="B149" t="s">
@@ -6003,7 +6057,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="A150" s="17" t="s">
         <v>571</v>
       </c>
       <c r="B150" t="s">
@@ -6017,7 +6071,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="A151" s="17" t="s">
         <v>572</v>
       </c>
       <c r="B151" t="s">
@@ -6034,7 +6088,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="A152" s="17" t="s">
         <v>573</v>
       </c>
       <c r="B152" t="s">
@@ -6048,7 +6102,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="A153" s="17" t="s">
         <v>574</v>
       </c>
       <c r="B153" t="s">
@@ -6071,7 +6125,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="A154" s="17" t="s">
         <v>564</v>
       </c>
       <c r="B154" t="s">
@@ -6088,7 +6142,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+      <c r="A155" s="17" t="s">
         <v>563</v>
       </c>
       <c r="B155" t="s">

--- a/inputdata/MRT.xlsx
+++ b/inputdata/MRT.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangnanqing/Dropbox/project/busstoppy/inputdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiang\Dropbox\project\busstoppy\inputdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -260,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中 ？鲁站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EW16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2353,16 +2349,19 @@
   </si>
   <si>
     <t>兀兰站</t>
+  </si>
+  <si>
+    <t>中巴鲁站</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2381,14 +2380,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2465,14 +2456,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -2496,7 +2484,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2544,6 +2532,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2839,22 +2830,22 @@
   <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.83203125" customWidth="1"/>
+    <col min="2" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="30.625" customWidth="1"/>
+    <col min="8" max="8" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2880,8 +2871,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -2903,8 +2894,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -2926,8 +2917,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -2946,8 +2937,8 @@
         <v>649846</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
@@ -2969,8 +2960,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
@@ -2992,8 +2983,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -3015,8 +3006,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
@@ -3038,8 +3029,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
@@ -3048,25 +3039,25 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>1.31134</v>
       </c>
       <c r="E9">
         <v>103.77868100000001</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="3"/>
       <c r="G9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D10">
@@ -3075,21 +3066,21 @@
       <c r="E10">
         <v>103.789861</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>139345</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D11">
@@ -3098,21 +3089,21 @@
       <c r="E11">
         <v>103.79822900000001</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>149735</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D12">
@@ -3121,19 +3112,19 @@
       <c r="E12">
         <v>103.80611500000001</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
       <c r="G12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D13">
@@ -3142,2391 +3133,2391 @@
       <c r="E13">
         <v>103.816715</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>158792</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>58</v>
+      <c r="C14" s="9" t="s">
+        <v>587</v>
       </c>
       <c r="D14">
         <v>1.286133</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>103.827079</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>168732</v>
       </c>
       <c r="G14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="D15" s="1">
         <v>1.28135</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>103.838838</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>169037</v>
       </c>
       <c r="G15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="D16">
         <v>1.276491</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>103.845726</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="B17" t="s">
         <v>67</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="D17">
         <v>1.283952</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>103.851281</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="7" t="s">
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="B18" t="s">
         <v>72</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="D18">
         <v>1.2932410000000001</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>103.852054</v>
       </c>
       <c r="F18">
         <v>179100</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="17" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="D19">
         <v>1.3007280000000001</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>103.856409</v>
       </c>
       <c r="F19">
         <v>188062</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="B20" t="s">
         <v>79</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="D20">
         <v>1.307191</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>103.86299099999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="D21">
         <v>1.311482</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>103.871392</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
         <v>85</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="D22">
         <v>1.3165119999999999</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>103.882893</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
         <v>88</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="D23">
         <v>1.3181210000000001</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>103.89313900000001</v>
       </c>
       <c r="G23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="17" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="B24" t="s">
         <v>93</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="D24">
         <v>1.3197509999999999</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>103.90310599999999</v>
       </c>
       <c r="F24">
         <v>409423</v>
       </c>
       <c r="G24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="17" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="B25" t="s">
         <v>97</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="D25">
         <v>1.3209630000000001</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>103.912826</v>
       </c>
       <c r="F25">
         <v>416551</v>
       </c>
       <c r="G25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="B26" t="s">
         <v>101</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="D26">
         <v>1.3240419999999999</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>103.930025</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
         <v>104</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="D27">
         <v>1.3272569999999999</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>103.946594</v>
       </c>
       <c r="F27">
         <v>467356</v>
       </c>
       <c r="G27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
+      <c r="B28" t="s">
         <v>108</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="D28">
         <v>1.343221</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>103.953366</v>
       </c>
       <c r="F28">
         <v>489480</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s">
         <v>111</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="D29" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>103.945213</v>
       </c>
       <c r="F29">
         <v>529538</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
         <v>115</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="D30">
         <v>1.3725449999999999</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>103.949504</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="D31">
         <v>1.3346929999999999</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>103.96136199999999</v>
       </c>
       <c r="G31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>122</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="D32">
         <v>1.357367</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>103.988905</v>
       </c>
       <c r="G32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="B33" t="s">
         <v>126</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="D33">
         <v>1.334362</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>103.742569</v>
       </c>
       <c r="G33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="18" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="B34" t="s">
         <v>130</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="D34">
         <v>1.3488629999999999</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>103.749522</v>
       </c>
       <c r="G34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="B35" t="s">
         <v>134</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="D35">
         <v>1.358903</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>103.751839</v>
       </c>
       <c r="F35">
         <v>659083</v>
       </c>
       <c r="G35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="18" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="B36" t="s">
         <v>138</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="D36">
         <v>1.3855630000000001</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>103.74480699999999</v>
       </c>
       <c r="F36">
         <v>689810</v>
       </c>
       <c r="G36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="B37" t="s">
         <v>142</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>144</v>
       </c>
       <c r="D37">
         <v>1.3975759999999999</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>103.747339</v>
       </c>
       <c r="F37">
         <v>689715</v>
       </c>
       <c r="G37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="18" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="B38" t="s">
         <v>146</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="D38">
         <v>1.4250560000000001</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>103.76190099999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" t="s">
         <v>149</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="D39">
         <v>1.432607</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>103.774046</v>
       </c>
       <c r="F39">
         <v>739044</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" t="s">
         <v>152</v>
       </c>
-      <c r="B40" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>587</v>
+      <c r="C40" s="15" t="s">
+        <v>586</v>
       </c>
       <c r="D40">
         <v>1.4371970000000001</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>103.786405</v>
       </c>
       <c r="F40">
         <v>738343</v>
       </c>
       <c r="G40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="18" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="B41" t="s">
         <v>155</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="D41">
         <v>1.440715</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>103.800997</v>
       </c>
       <c r="F41">
         <v>738344</v>
       </c>
       <c r="G41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="18" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="B42" t="s">
         <v>159</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="D42">
         <v>1.4490810000000001</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>103.820223</v>
       </c>
       <c r="F42">
         <v>759775</v>
       </c>
       <c r="G42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="18" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="B43" t="s">
         <v>163</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="D43">
         <v>1.4295610000000001</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>103.83524300000001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" t="s">
         <v>166</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="D44">
         <v>1.417548</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="18" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="B45" t="s">
         <v>170</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>172</v>
       </c>
       <c r="D45">
         <v>1.3820790000000001</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>103.844773</v>
       </c>
       <c r="F45">
         <v>569813</v>
       </c>
       <c r="G45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="18" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="B46" t="s">
         <v>174</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="D46">
         <v>1.3700349999999999</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>103.849475</v>
       </c>
       <c r="F46">
         <v>569811</v>
       </c>
       <c r="G46" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="18" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="B47" t="s">
         <v>178</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="D47">
         <v>1.350803</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>103.848316</v>
       </c>
       <c r="F47">
         <v>579827</v>
       </c>
       <c r="G47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="18" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+      <c r="B48" t="s">
         <v>182</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="D48">
         <v>1.340292</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <v>103.845215</v>
       </c>
       <c r="F48">
         <v>319758</v>
       </c>
       <c r="G48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="18" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="B49" t="s">
         <v>186</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="D49">
         <v>1.3327260000000001</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <v>103.84779399999999</v>
       </c>
       <c r="F49">
         <v>310190</v>
       </c>
       <c r="G49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="18" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+      <c r="B50" t="s">
         <v>190</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>192</v>
       </c>
       <c r="D50">
         <v>1.320038</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <v>103.843846</v>
       </c>
       <c r="F50">
         <v>307683</v>
       </c>
       <c r="G50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="18" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="B51" t="s">
         <v>194</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>196</v>
       </c>
       <c r="D51">
         <v>1.312487</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <v>103.837924</v>
       </c>
       <c r="F51">
         <v>228234</v>
       </c>
       <c r="G51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="18" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+      <c r="B52" t="s">
         <v>198</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="D52">
         <v>1.304324</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>103.83248399999999</v>
       </c>
       <c r="F52">
         <v>238801</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+    <row r="53" spans="1:7">
+      <c r="A53" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" t="s">
         <v>201</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>203</v>
       </c>
       <c r="D53">
         <v>1.300125</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <v>103.838588</v>
       </c>
       <c r="F53">
         <v>238162</v>
       </c>
       <c r="G53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="18" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+      <c r="B54" t="s">
         <v>205</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="D54">
         <v>1.2985910000000001</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="6">
         <v>103.846191</v>
       </c>
       <c r="F54">
         <v>238826</v>
       </c>
       <c r="G54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="18" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="B55" t="s">
         <v>209</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>211</v>
       </c>
       <c r="D55">
         <v>1.293239</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>103.85237100000001</v>
       </c>
       <c r="F55">
         <v>179100</v>
       </c>
       <c r="G55" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="18" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+      <c r="B56" t="s">
         <v>213</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>215</v>
       </c>
       <c r="D56">
         <v>1.2839389999999999</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <v>103.851642</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="18" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+      <c r="B57" t="s">
         <v>217</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="D57" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" s="6">
+        <v>103.85480699999999</v>
+      </c>
+      <c r="F57" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="G57" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="E57" s="7">
-        <v>103.85480699999999</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+      <c r="B58" t="s">
         <v>223</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>225</v>
       </c>
       <c r="D58">
         <v>1.2709710000000001</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="s">
+      <c r="B59" t="s">
         <v>229</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="D59">
         <v>1.2652969999999999</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="6">
         <v>103.82118199999999</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G59" s="7" t="s">
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="19" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="20" t="s">
+      <c r="B60" t="s">
         <v>234</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="9" t="s">
         <v>235</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="D60">
         <v>1.281344</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <v>103.839765</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="20" t="s">
+    <row r="61" spans="1:7">
+      <c r="A61" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" t="s">
         <v>237</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>239</v>
       </c>
       <c r="D61">
         <v>1.284446</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="6">
         <v>103.843559</v>
       </c>
-      <c r="F61" s="13"/>
+      <c r="F61" s="12"/>
       <c r="G61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C62" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>242</v>
       </c>
       <c r="D62">
         <v>1.2885009999999999</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="6">
         <v>103.846778</v>
       </c>
       <c r="G62" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="20" t="s">
-        <v>262</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="B63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="D63">
         <v>1.298594</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="6">
         <v>103.845888</v>
       </c>
       <c r="F63">
         <v>238826</v>
       </c>
       <c r="G63" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D64" s="9">
+        <v>1.3072280000000001</v>
+      </c>
+      <c r="E64" s="6">
+        <v>103.849847</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="B64" t="s">
-        <v>244</v>
-      </c>
-      <c r="C64" s="10" t="s">
+      <c r="B65" t="s">
         <v>245</v>
       </c>
-      <c r="D64" s="10">
-        <v>1.3072280000000001</v>
-      </c>
-      <c r="E64" s="7">
-        <v>103.849847</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C65" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D65" s="10">
+      <c r="D65" s="9">
         <v>1.3124089999999999</v>
       </c>
-      <c r="E65" s="15" t="s">
-        <v>249</v>
+      <c r="E65" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="F65">
         <v>217562</v>
       </c>
       <c r="G65" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="20" t="s">
-        <v>265</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="19" t="s">
+        <v>264</v>
       </c>
       <c r="B66" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="D66" s="10">
+      <c r="D66" s="9">
         <v>1.319596</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="6">
         <v>103.861949</v>
       </c>
       <c r="F66">
         <v>328260</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="20" t="s">
-        <v>266</v>
+    <row r="67" spans="1:7">
+      <c r="A67" s="19" t="s">
+        <v>265</v>
       </c>
       <c r="B67" t="s">
-        <v>254</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="D67" s="10">
+        <v>253</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D67" s="9">
         <v>1.3313619999999999</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="6">
         <v>103.869276</v>
       </c>
       <c r="F67">
         <v>347663</v>
       </c>
       <c r="G67" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D68" s="9">
+        <v>1.3393630000000001</v>
+      </c>
+      <c r="E68" s="6">
+        <v>103.870757</v>
+      </c>
+      <c r="G68" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="B68" t="s">
-        <v>255</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="D68" s="10">
-        <v>1.3393630000000001</v>
-      </c>
-      <c r="E68" s="7">
-        <v>103.870757</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="B69" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C69" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D69" s="10">
+      <c r="D69" s="9">
         <v>1.3492420000000001</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="6">
         <v>103.873632</v>
       </c>
       <c r="F69">
         <v>534801</v>
       </c>
       <c r="G69" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B70" t="s">
         <v>269</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="D70" s="9">
+        <v>1.3605149999999999</v>
+      </c>
+      <c r="E70" s="6">
+        <v>103.885209</v>
+      </c>
+      <c r="G70" t="s">
         <v>271</v>
       </c>
-      <c r="D70" s="10">
-        <v>1.3605149999999999</v>
-      </c>
-      <c r="E70" s="7">
-        <v>103.885209</v>
-      </c>
-      <c r="G70" t="s">
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="19" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="20" t="s">
+      <c r="B71" t="s">
         <v>273</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D71" s="10">
+      <c r="D71" s="9">
         <v>1.370919</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="6">
         <v>103.892472</v>
       </c>
       <c r="F71">
         <v>538757</v>
       </c>
       <c r="G71" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="19" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="20" t="s">
+      <c r="B72" t="s">
         <v>277</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D72" s="10">
+      <c r="D72" s="9">
         <v>1.382449</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="6">
         <v>103.892719</v>
       </c>
       <c r="F72">
         <v>549927</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="20" t="s">
+    <row r="73" spans="1:7">
+      <c r="A73" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" t="s">
+        <v>281</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B73" t="s">
-        <v>282</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D73" s="10">
+      <c r="D73" s="9">
         <v>1.3912659999999999</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="6">
         <v>103.895369</v>
       </c>
       <c r="F73">
         <v>545062</v>
       </c>
       <c r="G73" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="19" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="20" t="s">
+      <c r="B74" t="s">
         <v>284</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C74" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="D74" s="10">
+      <c r="D74" s="9">
         <v>1.4045449999999999</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="6">
         <v>103.902023</v>
       </c>
       <c r="F74">
         <v>828868</v>
       </c>
       <c r="G74" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="20" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="21" t="s">
+      <c r="B75" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" s="9">
+        <v>1.298746</v>
+      </c>
+      <c r="E75" s="6">
+        <v>103.844688</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="B75" t="s">
-        <v>206</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75" s="10">
-        <v>1.298746</v>
-      </c>
-      <c r="E75" s="7">
-        <v>103.844688</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="21" t="s">
+      <c r="B76" t="s">
         <v>289</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="D76" s="10">
+      <c r="D76" s="9">
         <v>1.2969440000000001</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="6">
         <v>103.850739</v>
       </c>
       <c r="F76">
         <v>189561</v>
       </c>
       <c r="G76" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="20" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="21" t="s">
+      <c r="B77" t="s">
         <v>293</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="D77" s="9">
+        <v>1.2934680000000001</v>
+      </c>
+      <c r="E77" s="6">
+        <v>103.855352</v>
+      </c>
+      <c r="F77" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="D77" s="10">
-        <v>1.2934680000000001</v>
-      </c>
-      <c r="E77" s="7">
-        <v>103.855352</v>
-      </c>
-      <c r="F77" s="13" t="s">
+      <c r="G77" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="G77" s="7" t="s">
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="20" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="21" t="s">
+      <c r="B78" t="s">
         <v>298</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="D78" s="9">
+        <v>1.293147</v>
+      </c>
+      <c r="E78" s="6">
+        <v>103.86082399999999</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D78" s="10">
-        <v>1.293147</v>
-      </c>
-      <c r="E78" s="7">
-        <v>103.86082399999999</v>
-      </c>
-      <c r="F78" s="13" t="s">
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="G78" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="21" t="s">
+      <c r="B79" t="s">
         <v>303</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="D79" s="9">
+        <v>1.2997540000000001</v>
+      </c>
+      <c r="E79" s="6">
+        <v>103.863699</v>
+      </c>
+      <c r="F79" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="D79" s="10">
-        <v>1.2997540000000001</v>
-      </c>
-      <c r="E79" s="7">
-        <v>103.863699</v>
-      </c>
-      <c r="F79" s="13" t="s">
+      <c r="G79" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="G79" s="7" t="s">
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="20" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="21" t="s">
+      <c r="B80" t="s">
         <v>308</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D80" s="10">
+      <c r="D80" s="9">
         <v>1.302929</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="6">
         <v>103.875286</v>
       </c>
       <c r="F80">
         <v>397692</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G80" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="20" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="21" t="s">
+      <c r="B81" t="s">
         <v>312</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="D81" s="9">
+        <v>1.3064039999999999</v>
+      </c>
+      <c r="E81" s="6">
+        <v>103.882582</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="D81" s="10">
-        <v>1.3064039999999999</v>
-      </c>
-      <c r="E81" s="7">
-        <v>103.882582</v>
-      </c>
-      <c r="G81" s="7" t="s">
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="20" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="21" t="s">
+      <c r="B82" t="s">
         <v>316</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="D82" s="9">
+        <v>1.308292</v>
+      </c>
+      <c r="E82" s="6">
+        <v>103.88824700000001</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D82" s="10">
-        <v>1.308292</v>
-      </c>
-      <c r="E82" s="7">
-        <v>103.88824700000001</v>
-      </c>
-      <c r="G82" s="7" t="s">
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="20" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="21" t="s">
+      <c r="B83" t="s">
         <v>320</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="D83" s="9">
+        <v>1.318074</v>
+      </c>
+      <c r="E83" s="6">
+        <v>103.89245200000001</v>
+      </c>
+      <c r="G83" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D83" s="10">
-        <v>1.318074</v>
-      </c>
-      <c r="E83" s="7">
-        <v>103.89245200000001</v>
-      </c>
-      <c r="G83" s="7" t="s">
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="20" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="21" t="s">
+      <c r="B84" t="s">
         <v>324</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="D84" s="10">
+      <c r="D84" s="9">
         <v>1.3265690000000001</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="6">
         <v>103.890049</v>
       </c>
       <c r="F84">
         <v>378961</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G84" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="20" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="21" t="s">
+      <c r="B85" t="s">
         <v>328</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="D85" s="10">
+      <c r="D85" s="9">
         <v>1.335836</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="6">
         <v>103.887861</v>
       </c>
       <c r="F85">
         <v>369522</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G85" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="20" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="21" t="s">
+      <c r="B86" t="s">
         <v>332</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="D86" s="10">
+      <c r="D86" s="9">
         <v>1.3427009999999999</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="6">
         <v>103.879964</v>
       </c>
       <c r="F86">
         <v>539788</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="G86" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="20" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="21" t="s">
-        <v>336</v>
-      </c>
       <c r="B87" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D87" s="10">
+      <c r="D87" s="9">
         <v>1.3491789999999999</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="6">
         <v>103.87279700000001</v>
       </c>
       <c r="F87">
         <v>534801</v>
       </c>
-      <c r="G87" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="21" t="s">
+      <c r="G87" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="B88" t="s">
         <v>337</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="D88" s="10">
+      <c r="D88" s="9">
         <v>1.352182</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="6">
         <v>103.863528</v>
       </c>
       <c r="F88">
         <v>556743</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G88" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="20" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="21" t="s">
-        <v>341</v>
-      </c>
       <c r="B89" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D89" s="10">
+      <c r="D89" s="9">
         <v>1.3507670000000001</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="6">
         <v>103.847477</v>
       </c>
       <c r="F89">
         <v>579827</v>
       </c>
-      <c r="G89" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="21" t="s">
+      <c r="G89" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B90" t="s">
         <v>342</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="D90" s="10">
+      <c r="D90" s="9">
         <v>1.3490869999999999</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="6">
         <v>103.839516</v>
       </c>
       <c r="F90">
         <v>573993</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="G90" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="20" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="21" t="s">
+      <c r="B91" t="s">
         <v>346</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="D91" s="10">
+      <c r="D91" s="9">
         <v>1.337804</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="6">
         <v>103.839473</v>
       </c>
       <c r="F91">
         <v>298113</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G91" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="20" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="21" t="s">
+      <c r="B92" t="s">
         <v>350</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="D92" s="9">
+        <v>1.3225089999999999</v>
+      </c>
+      <c r="E92" s="6">
+        <v>103.815376</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="D92" s="10">
-        <v>1.3225089999999999</v>
-      </c>
-      <c r="E92" s="7">
-        <v>103.815376</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="21" t="s">
+      <c r="B93" t="s">
         <v>353</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D93" s="10">
+      <c r="D93" s="9">
         <v>1.3173170000000001</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="6">
         <v>103.80743699999999</v>
       </c>
       <c r="F93">
         <v>268857</v>
       </c>
       <c r="G93" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="20" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="21" t="s">
+      <c r="B94" t="s">
         <v>357</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D94" s="10">
+      <c r="D94" s="9">
         <v>1.3121259999999999</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="6">
         <v>103.796193</v>
       </c>
       <c r="F94">
         <v>268585</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="21" t="s">
+    <row r="95" spans="1:7">
+      <c r="A95" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="B95" t="s">
         <v>360</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D95" s="10">
+      <c r="D95" s="9">
         <v>1.3074490000000001</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="6">
         <v>103.788983</v>
       </c>
       <c r="F95">
         <v>139237</v>
       </c>
       <c r="G95" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="20" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="21" t="s">
+      <c r="B96" t="s">
         <v>364</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="D96" s="9">
+        <v>1.2992969999999999</v>
+      </c>
+      <c r="E96" s="6">
+        <v>103.78709499999999</v>
+      </c>
+      <c r="G96" t="s">
         <v>366</v>
       </c>
-      <c r="D96" s="10">
-        <v>1.2992969999999999</v>
-      </c>
-      <c r="E96" s="7">
-        <v>103.78709499999999</v>
-      </c>
-      <c r="G96" t="s">
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="20" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="21" t="s">
+      <c r="B97" t="s">
         <v>368</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="D97" s="9">
+        <v>1.293377</v>
+      </c>
+      <c r="E97" s="6">
+        <v>103.78434799999999</v>
+      </c>
+      <c r="G97" t="s">
         <v>370</v>
       </c>
-      <c r="D97" s="10">
-        <v>1.293377</v>
-      </c>
-      <c r="E97" s="7">
-        <v>103.78434799999999</v>
-      </c>
-      <c r="G97" t="s">
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="20" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="21" t="s">
+      <c r="B98" t="s">
         <v>372</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="D98" s="9">
+        <v>1.2823770000000001</v>
+      </c>
+      <c r="E98" s="6">
+        <v>103.78187699999999</v>
+      </c>
+      <c r="G98" t="s">
         <v>374</v>
       </c>
-      <c r="D98" s="10">
-        <v>1.2823770000000001</v>
-      </c>
-      <c r="E98" s="7">
-        <v>103.78187699999999</v>
-      </c>
-      <c r="G98" t="s">
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="20" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="21" t="s">
+      <c r="B99" t="s">
         <v>376</v>
       </c>
-      <c r="B99" t="s">
-        <v>377</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="D99" s="10">
+      <c r="C99" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D99" s="9">
         <v>1.2760640000000001</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="6">
         <v>103.791138</v>
       </c>
       <c r="F99">
         <v>118543</v>
       </c>
       <c r="G99" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="20" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="21" t="s">
+      <c r="B100" t="s">
         <v>379</v>
       </c>
-      <c r="B100" t="s">
-        <v>380</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D100" s="10">
+      <c r="C100" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D100" s="9">
         <v>1.272289</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="6">
         <v>103.80281100000001</v>
       </c>
       <c r="F100">
         <v>109029</v>
       </c>
       <c r="G100" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="20" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="21" t="s">
+      <c r="B101" t="s">
         <v>384</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="D101" s="9">
+        <v>1.2705630000000001</v>
+      </c>
+      <c r="E101" s="6">
+        <v>103.809577</v>
+      </c>
+      <c r="F101" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="D101" s="10">
-        <v>1.2705630000000001</v>
-      </c>
-      <c r="E101" s="7">
-        <v>103.809577</v>
-      </c>
-      <c r="F101" s="13" t="s">
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="20" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="21" t="s">
+      <c r="B102" t="s">
         <v>388</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="D102" s="9">
+        <v>1.2653719999999999</v>
+      </c>
+      <c r="E102" s="6">
+        <v>103.82032700000001</v>
+      </c>
+      <c r="F102" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="D102" s="10">
-        <v>1.2653719999999999</v>
-      </c>
-      <c r="E102" s="7">
-        <v>103.82032700000001</v>
-      </c>
-      <c r="F102" s="13" t="s">
+      <c r="G102" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="G102" s="7" t="s">
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
         <v>393</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="D103" s="9">
+        <v>1.282362</v>
+      </c>
+      <c r="E103" s="6">
+        <v>103.858994</v>
+      </c>
+      <c r="F103" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="D103" s="10">
-        <v>1.282362</v>
-      </c>
-      <c r="E103" s="7">
-        <v>103.858994</v>
-      </c>
-      <c r="F103" s="13" t="s">
+      <c r="G103" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="G103" s="7" t="s">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
         <v>398</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="D104" s="9">
+        <v>1.276162</v>
+      </c>
+      <c r="E104" s="6">
+        <v>103.854316</v>
+      </c>
+      <c r="F104" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="D104" s="10">
-        <v>1.276162</v>
-      </c>
-      <c r="E104" s="7">
-        <v>103.854316</v>
-      </c>
-      <c r="F104" s="13" t="s">
+      <c r="G104" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="G104" s="7" t="s">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="21" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="22" t="s">
+      <c r="B105" t="s">
         <v>403</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="D105" s="9">
+        <v>1.300799</v>
+      </c>
+      <c r="E105" s="6">
+        <v>103.85553400000001</v>
+      </c>
+      <c r="G105" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="D105" s="10">
-        <v>1.300799</v>
-      </c>
-      <c r="E105" s="7">
-        <v>103.85553400000001</v>
-      </c>
-      <c r="G105" s="7" t="s">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="21" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="22" t="s">
+      <c r="B106" t="s">
         <v>407</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="D106" s="9">
+        <v>1.2932049999999999</v>
+      </c>
+      <c r="E106" s="6">
+        <v>103.861628</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="G106" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="D106" s="10">
-        <v>1.2932049999999999</v>
-      </c>
-      <c r="E106" s="7">
-        <v>103.861628</v>
-      </c>
-      <c r="F106" s="13" t="s">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="G106" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="22" t="s">
+      <c r="B107" t="s">
         <v>412</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="D107" s="9">
+        <v>1.2824340000000001</v>
+      </c>
+      <c r="E107" s="6">
+        <v>103.859549</v>
+      </c>
+      <c r="F107" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="D107" s="10">
-        <v>1.2824340000000001</v>
-      </c>
-      <c r="E107" s="7">
-        <v>103.859549</v>
-      </c>
-      <c r="F107" s="13" t="s">
+      <c r="G107" t="s">
         <v>415</v>
       </c>
-      <c r="G107" t="s">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="B108" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="22" t="s">
+      <c r="C108" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D108" s="9">
+        <v>1.279401</v>
+      </c>
+      <c r="E108" s="6">
+        <v>103.852964</v>
+      </c>
+      <c r="G108" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="B108" t="s">
-        <v>417</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="D108" s="10">
-        <v>1.279401</v>
-      </c>
-      <c r="E108" s="7">
-        <v>103.852964</v>
-      </c>
-      <c r="G108" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="22" t="s">
+      <c r="B109" t="s">
         <v>421</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="D109" s="9">
+        <v>1.2820450000000001</v>
+      </c>
+      <c r="E109" s="6">
+        <v>103.848457</v>
+      </c>
+      <c r="F109" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="D109" s="10">
-        <v>1.2820450000000001</v>
-      </c>
-      <c r="E109" s="7">
-        <v>103.848457</v>
-      </c>
-      <c r="F109" s="13" t="s">
+      <c r="G109" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="G109" s="7" t="s">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="21" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="22" t="s">
+      <c r="B110" t="s">
         <v>426</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="D110" s="9">
+        <v>1.2844370000000001</v>
+      </c>
+      <c r="E110" s="6">
+        <v>103.843264</v>
+      </c>
+      <c r="F110" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D110" s="10">
-        <v>1.2844370000000001</v>
-      </c>
-      <c r="E110" s="7">
-        <v>103.843264</v>
-      </c>
-      <c r="F110" s="13" t="s">
+      <c r="G110" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="G110" s="7" t="s">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="B111" t="s">
         <v>431</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="D111" s="10">
+      <c r="D111" s="9">
         <v>1.385521</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="6">
         <v>103.743689</v>
       </c>
       <c r="F111">
         <v>689811</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="G111" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="B112" t="s">
         <v>435</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="D112" s="10">
+      <c r="D112" s="9">
         <v>1.3803289999999999</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="6">
         <v>103.745062</v>
       </c>
       <c r="F112">
         <v>688265</v>
       </c>
-      <c r="G112" s="7" t="s">
+      <c r="G112" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="B113" t="s">
         <v>439</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="C113" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="D113" s="10">
+      <c r="D113" s="9">
         <v>1.3786560000000001</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="6">
         <v>103.748881</v>
       </c>
       <c r="F113">
         <v>688266</v>
       </c>
-      <c r="G113" s="7" t="s">
+      <c r="G113" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="B114" t="s">
         <v>443</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="D114" s="10">
+      <c r="D114" s="9">
         <v>1.376811</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="6">
         <v>103.752872</v>
       </c>
       <c r="F114">
         <v>688267</v>
       </c>
-      <c r="G114" s="7" t="s">
+      <c r="G114" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="B115" t="s">
         <v>447</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="C115" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="D115" s="10">
+      <c r="D115" s="9">
         <v>1.3784419999999999</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="6">
         <v>103.75763600000001</v>
       </c>
       <c r="F115">
         <v>689483</v>
       </c>
-      <c r="G115" s="7" t="s">
+      <c r="G115" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="B116" t="s">
         <v>451</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="D116" s="10">
+      <c r="D116" s="9">
         <v>1.3781969999999999</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="6">
         <v>103.76354499999999</v>
       </c>
       <c r="F116">
         <v>678270</v>
       </c>
-      <c r="G116" s="7" t="s">
+      <c r="G116" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="B117" t="s">
         <v>455</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="D117" s="9">
+        <v>1.377291</v>
+      </c>
+      <c r="E117" s="6">
+        <v>103.767376</v>
+      </c>
+      <c r="G117" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D117" s="10">
-        <v>1.377291</v>
-      </c>
-      <c r="E117" s="7">
-        <v>103.767376</v>
-      </c>
-      <c r="G117" s="7" t="s">
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
         <v>459</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="D118" s="9">
+        <v>1.376261</v>
+      </c>
+      <c r="E118" s="6">
+        <v>103.77131300000001</v>
+      </c>
+      <c r="G118" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="D118" s="10">
-        <v>1.376261</v>
-      </c>
-      <c r="E118" s="7">
-        <v>103.77131300000001</v>
-      </c>
-      <c r="G118" s="7" t="s">
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="B119" t="s">
         <v>463</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="C119" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="D119" s="10">
+      <c r="D119" s="9">
         <v>1.3803909999999999</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="6">
         <v>103.772622</v>
       </c>
       <c r="F119">
         <v>679939</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="G119" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="B120" t="s">
         <v>467</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="C120" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="D120" s="10">
+      <c r="D120" s="9">
         <v>1.3847449999999999</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120" s="6">
         <v>103.77107700000001</v>
       </c>
       <c r="F120">
         <v>679004</v>
       </c>
-      <c r="G120" s="7" t="s">
+      <c r="G120" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="B121" t="s">
         <v>471</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="D121" s="10">
+      <c r="D121" s="9">
         <v>1.387491</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="6">
         <v>103.77017600000001</v>
       </c>
       <c r="F121">
         <v>679940</v>
       </c>
-      <c r="G121" s="7" t="s">
+      <c r="G121" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="B122" t="s">
         <v>475</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C122" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="D122" s="10">
+      <c r="D122" s="9">
         <v>1.3868050000000001</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="6">
         <v>103.764661</v>
       </c>
       <c r="F122">
         <v>679941</v>
       </c>
-      <c r="G122" s="7" t="s">
+      <c r="G122" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="B123" t="s">
         <v>479</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="D123" s="9">
+        <v>1.383211</v>
+      </c>
+      <c r="E123" s="6">
+        <v>103.76216100000001</v>
+      </c>
+      <c r="G123" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="D123" s="10">
-        <v>1.383211</v>
-      </c>
-      <c r="E123" s="7">
-        <v>103.76216100000001</v>
-      </c>
-      <c r="G123" s="7" t="s">
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="B124" t="s">
         <v>483</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>484</v>
-      </c>
-      <c r="C124" t="s">
-        <v>485</v>
       </c>
       <c r="D124">
         <v>1.4047289999999999</v>
@@ -5538,18 +5529,18 @@
         <v>828868</v>
       </c>
       <c r="G124" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="B125" t="s">
         <v>487</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>488</v>
-      </c>
-      <c r="C125" t="s">
-        <v>489</v>
       </c>
       <c r="D125">
         <v>1.3993370000000001</v>
@@ -5561,18 +5552,18 @@
         <v>820198</v>
       </c>
       <c r="G125" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="B126" t="s">
         <v>491</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>492</v>
-      </c>
-      <c r="C126" t="s">
-        <v>493</v>
       </c>
       <c r="D126">
         <v>1.3969780000000001</v>
@@ -5581,18 +5572,18 @@
         <v>103.909177</v>
       </c>
       <c r="G126" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="B127" t="s">
         <v>495</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>496</v>
-      </c>
-      <c r="C127" t="s">
-        <v>497</v>
       </c>
       <c r="D127">
         <v>1.393448</v>
@@ -5601,18 +5592,18 @@
         <v>103.91209600000001</v>
       </c>
       <c r="G127" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="B128" t="s">
         <v>499</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>500</v>
-      </c>
-      <c r="C128" t="s">
-        <v>501</v>
       </c>
       <c r="D128">
         <v>1.3946190000000001</v>
@@ -5624,18 +5615,18 @@
         <v>828852</v>
       </c>
       <c r="G128" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="B129" t="s">
         <v>503</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>504</v>
-      </c>
-      <c r="C129" t="s">
-        <v>505</v>
       </c>
       <c r="D129">
         <v>1.399338</v>
@@ -5647,18 +5638,18 @@
         <v>828853</v>
       </c>
       <c r="G129" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="B130" t="s">
         <v>507</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>508</v>
-      </c>
-      <c r="C130" t="s">
-        <v>509</v>
       </c>
       <c r="D130">
         <v>1.4016120000000001</v>
@@ -5667,18 +5658,18 @@
         <v>103.913605</v>
       </c>
       <c r="G130" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="B131" t="s">
         <v>511</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>512</v>
-      </c>
-      <c r="C131" t="s">
-        <v>513</v>
       </c>
       <c r="D131">
         <v>1.4053450000000001</v>
@@ -5690,18 +5681,18 @@
         <v>822612</v>
       </c>
       <c r="G131" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="B132" t="s">
         <v>515</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>516</v>
-      </c>
-      <c r="C132" t="s">
-        <v>517</v>
       </c>
       <c r="D132">
         <v>1.391745</v>
@@ -5713,18 +5704,18 @@
         <v>545062</v>
       </c>
       <c r="G132" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="B133" t="s">
         <v>519</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>520</v>
-      </c>
-      <c r="C133" t="s">
-        <v>521</v>
       </c>
       <c r="D133">
         <v>1.3946190000000001</v>
@@ -5736,18 +5727,18 @@
         <v>540250</v>
       </c>
       <c r="G133" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="B134" t="s">
         <v>523</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>524</v>
-      </c>
-      <c r="C134" t="s">
-        <v>525</v>
       </c>
       <c r="D134">
         <v>1.3911009999999999</v>
@@ -5756,18 +5747,18 @@
         <v>103.90622399999999</v>
       </c>
       <c r="G134" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="B135" t="s">
         <v>527</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>528</v>
-      </c>
-      <c r="C135" t="s">
-        <v>529</v>
       </c>
       <c r="D135">
         <v>1.387883</v>
@@ -5779,18 +5770,18 @@
         <v>545053</v>
       </c>
       <c r="G135" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="B136" t="s">
         <v>531</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>532</v>
-      </c>
-      <c r="C136" t="s">
-        <v>533</v>
       </c>
       <c r="D136">
         <v>1.3837219999999999</v>
@@ -5802,18 +5793,18 @@
         <v>545052</v>
       </c>
       <c r="G136" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="B137" t="s">
         <v>535</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>536</v>
-      </c>
-      <c r="C137" t="s">
-        <v>537</v>
       </c>
       <c r="D137">
         <v>1.3836360000000001</v>
@@ -5822,18 +5813,18 @@
         <v>103.89764099999999</v>
       </c>
       <c r="G137" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="B138" t="s">
         <v>539</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>540</v>
-      </c>
-      <c r="C138" t="s">
-        <v>541</v>
       </c>
       <c r="D138">
         <v>1.397295</v>
@@ -5845,18 +5836,18 @@
         <v>545048</v>
       </c>
       <c r="G138" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="B139" t="s">
         <v>543</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>544</v>
-      </c>
-      <c r="C139" t="s">
-        <v>545</v>
       </c>
       <c r="D139">
         <v>1.397348</v>
@@ -5868,18 +5859,18 @@
         <v>797699</v>
       </c>
       <c r="G139" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="B140" t="s">
         <v>547</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>548</v>
-      </c>
-      <c r="C140" t="s">
-        <v>549</v>
       </c>
       <c r="D140">
         <v>1.391921</v>
@@ -5891,18 +5882,18 @@
         <v>797698</v>
       </c>
       <c r="G140" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="B141" t="s">
         <v>551</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>552</v>
-      </c>
-      <c r="C141" t="s">
-        <v>553</v>
       </c>
       <c r="D141">
         <v>1.3921570000000001</v>
@@ -5914,18 +5905,18 @@
         <v>797700</v>
       </c>
       <c r="G141" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="B142" t="s">
         <v>555</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>556</v>
-      </c>
-      <c r="C142" t="s">
-        <v>557</v>
       </c>
       <c r="D142">
         <v>1.3892610000000001</v>
@@ -5937,18 +5928,18 @@
         <v>545050</v>
       </c>
       <c r="G142" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="B143" t="s">
         <v>559</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>560</v>
-      </c>
-      <c r="C143" t="s">
-        <v>561</v>
       </c>
       <c r="D143">
         <v>1.386644</v>
@@ -5960,198 +5951,198 @@
         <v>545049</v>
       </c>
       <c r="G143" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="17" t="s">
-        <v>565</v>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="16" t="s">
+        <v>564</v>
       </c>
       <c r="B144" t="s">
-        <v>575</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="D144" s="10">
+        <v>574</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D144" s="9">
         <v>1.3781969999999999</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E144" s="6">
         <v>103.76354499999999</v>
       </c>
       <c r="F144">
         <v>678270</v>
       </c>
-      <c r="G144" s="7" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="17" t="s">
+      <c r="G144" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="B145" t="s">
+        <v>575</v>
+      </c>
+      <c r="D145" s="15">
+        <v>1.3689750000000001</v>
+      </c>
+      <c r="E145" s="6">
+        <v>103.764803</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>576</v>
       </c>
-      <c r="D145" s="16">
-        <v>1.3689750000000001</v>
-      </c>
-      <c r="E145" s="7">
-        <v>103.764803</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="17" t="s">
+      <c r="D146" s="15">
+        <v>1.3624719999999999</v>
+      </c>
+      <c r="E146" s="6">
+        <v>103.76738899999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>577</v>
       </c>
-      <c r="D146" s="16">
-        <v>1.3624719999999999</v>
-      </c>
-      <c r="E146" s="7">
-        <v>103.76738899999999</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="17" t="s">
+      <c r="D147" s="15">
+        <v>1.3411329999999999</v>
+      </c>
+      <c r="E147" s="6">
+        <v>103.775797</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>578</v>
       </c>
-      <c r="D147" s="16">
-        <v>1.3411329999999999</v>
-      </c>
-      <c r="E147" s="7">
-        <v>103.775797</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="17" t="s">
+      <c r="D148" s="15">
+        <v>1.335628</v>
+      </c>
+      <c r="E148" s="6">
+        <v>103.78398300000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>579</v>
       </c>
-      <c r="D148" s="16">
-        <v>1.335628</v>
-      </c>
-      <c r="E148" s="7">
-        <v>103.78398300000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="17" t="s">
+      <c r="D149" s="15">
+        <v>1.330714</v>
+      </c>
+      <c r="E149" s="6">
+        <v>103.797633</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>580</v>
       </c>
-      <c r="D149" s="16">
-        <v>1.330714</v>
-      </c>
-      <c r="E149" s="7">
-        <v>103.797633</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="17" t="s">
+      <c r="D150" s="15">
+        <v>1.326039</v>
+      </c>
+      <c r="E150" s="6">
+        <v>103.807169</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>581</v>
       </c>
-      <c r="D150" s="16">
-        <v>1.326039</v>
-      </c>
-      <c r="E150" s="7">
-        <v>103.807169</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="17" t="s">
+      <c r="C151" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D151" s="9">
+        <v>1.3225089999999999</v>
+      </c>
+      <c r="E151" s="6">
+        <v>103.815376</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>582</v>
       </c>
-      <c r="C151" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="D151" s="10">
-        <v>1.3225089999999999</v>
-      </c>
-      <c r="E151" s="7">
-        <v>103.815376</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="17" t="s">
+      <c r="D152" s="15">
+        <v>1.3200689999999999</v>
+      </c>
+      <c r="E152" s="6">
+        <v>103.825997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>583</v>
       </c>
-      <c r="D152" s="16">
-        <v>1.3200689999999999</v>
-      </c>
-      <c r="E152" s="7">
-        <v>103.825997</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="17" t="s">
-        <v>574</v>
-      </c>
-      <c r="B153" t="s">
-        <v>584</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>196</v>
+      <c r="C153" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="D153">
         <v>1.312487</v>
       </c>
-      <c r="E153" s="7">
+      <c r="E153" s="6">
         <v>103.837924</v>
       </c>
       <c r="F153">
         <v>228234</v>
       </c>
       <c r="G153" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="17" t="s">
-        <v>564</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="16" t="s">
+        <v>563</v>
       </c>
       <c r="B154" t="s">
+        <v>584</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D154" s="9">
+        <v>1.3072280000000001</v>
+      </c>
+      <c r="E154" s="6">
+        <v>103.849847</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="B155" t="s">
         <v>585</v>
       </c>
-      <c r="C154" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D154" s="10">
-        <v>1.3072280000000001</v>
-      </c>
-      <c r="E154" s="7">
-        <v>103.849847</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="B155" t="s">
-        <v>586</v>
-      </c>
-      <c r="D155" s="16">
+      <c r="D155" s="15">
         <v>1.3037639999999999</v>
       </c>
-      <c r="E155" s="7">
+      <c r="E155" s="6">
         <v>103.852581</v>
       </c>
     </row>
@@ -6168,7 +6159,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6181,7 +6172,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputdata/MRT.xlsx
+++ b/inputdata/MRT.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="596">
   <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 女皇镇站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>301 Commonwealth Ave</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,199 +380,1363 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Bugis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tg Katong Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EW7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eunos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友诺士站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 Eunos Crescent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EW6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kembangan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景万岸站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55 Sims Ave E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EW5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bedok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勿洛站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EW4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanah Merah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹那美拉站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920 New Upper Changi Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EW3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四美站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EW2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tampines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡滨尼站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.353110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EW1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pasir Ris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴西立站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博览站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changi South Avenue 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changi Airport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樟宜机场站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2 Blvd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jurong East</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裕廊东站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gateway Dr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bukit Batok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武吉巴督站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 Bukit Batok Central</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bukit Gombak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武吉甘柏站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>802 Bukit Batok West Avenue 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choa Chu Kang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡厝港站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 Choa Chu Kang Avenue 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yew Tee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油池站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61 Choa Chu Kang Dr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kranji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克兰芝站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marsiling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马西岭站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Woodlands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 Woodlands Avenue 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admiralty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海军部站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 Woodlands Avenue 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sembawang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三巴旺站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 Canberra Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yishun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>义顺站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Khatib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡迪站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103.832840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yio Chu Kang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨厝港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000 Ang Mo Kio Avenue 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ang Mo Kio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏茂桥站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2450 Ang Mo Kio Avenue 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bishan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧山站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 Bishan Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Braddell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布莱德站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>381 Lorong 1 Toa Payoh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toa Payoh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大巴窑站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>190 Lorong  6 Toa Payoh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Novena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺维娜站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238 Thomson Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纽顿站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49 Scotts Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orchard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌节站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somerset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索美塞站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Somerset Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dhoby Ghaut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多美歌站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 Orchard Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>City Hall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府大厦站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150 N Bridge Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raffles Place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱佛士坊站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>048620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marina Bay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨海湾站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>018990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 Marina Station Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.276120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marina South Pier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨海南码头站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31 Marina Coastal Dr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>018988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103.863250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HarbourFront</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港湾站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>098867</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81 Telok Blangah Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outram Park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧南园站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinatown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛车水站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80 Eu Tong Sen St</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clarke Quay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克拉码头站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 Eu Tong Sen St</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Little India</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小印度站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farrer Park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花拉公园站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Farrer Park Station Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103.854320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boon Keng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文庆站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波东巴西站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76 Upper Serangoon Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potong Pasir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Woodleigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400 Upper Serangoon Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serangoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实龙岗站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600 Upper Serangoon Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kovan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高文站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upper Serangoon Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hougang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后港站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>840 Hougang Central</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buangkok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万国站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛港站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sengkang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 Sengkang Square</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Punggol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榜鹅站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 Punggol Central</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bras Basah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百胜站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65 Bras Basah Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Esplanade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨海中心站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>039593</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Raffles Blvd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Promenade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝门廊站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 Temasek Ave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>039190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicoll Highway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼诰大道站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>038970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 Republic Ave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stadium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育场站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 Stadium Walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mountbatten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙巴登站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old Airport Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dakota</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达科达站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201 Old Airport Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paya Lebar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>巴耶利？站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Paya Lebar Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MacPherson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦申波站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10A Circuit Link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tai Seng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 Irving Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bartley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴特礼站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90 Bartley Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lorong Chuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗弄泉站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240 Lorong Chuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marymount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛丽蒙站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 Marymount Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caldecott</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加利谷站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38 Toa Payoh Rise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botanic Gardens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物园站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farrer Road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花拉路站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71 Farrer Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holland Village</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷兰村站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buona Vista</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波那维斯达站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31 Rochester Park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One-North</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬壹站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Fusionopolis Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kent Ridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯特岗站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 Lower Kent Ridge Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haw Par Villa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎豹别墅站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 W Coast Hwy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pasir Panjang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121 Pasir Panjang Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Labrador Park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴西班让站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉柏多公园站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>701 Telok Blangah Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telok Blangah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直落布兰雅站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>098829</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HarbourFront</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港湾站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>098867</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81 Telok Blangah Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bayfront</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海湾舫站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>018956</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 Bayfront Ave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marina Bay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨海湾站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>018990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 Marina Station Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Bugis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tg Katong Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EW7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eunos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>友诺士站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30 Eunos Crescent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EW6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kembangan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景万岸站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55 Sims Ave E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EW5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bedok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勿洛站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EW4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tanah Merah</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丹那美拉站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920 New Upper Changi Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EW3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Simei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四美站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EW2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tampines</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡滨尼站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.353110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EW1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pasir Ris</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴西立站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CG1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博览站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Changi South Avenue 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CG2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Changi Airport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樟宜机场站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2 Blvd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jurong East</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裕廊东站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gateway Dr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bukit Batok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武吉巴督站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 Bukit Batok Central</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bukit Gombak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武吉甘柏站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802 Bukit Batok West Avenue 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS4</t>
+    <t>武吉士站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164 Rochor Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Promenade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝门廊站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 Temasek Ave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>039190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bayfront</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海湾舫站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>018971</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Bayfont Ave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Downtown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市中心站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cental Blvd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telok Ayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直落亚逸站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>068579</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110 Telok Ayer St</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinatown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛车水站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>059108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Park Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -588,1761 +1748,589 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10 Choa Chu Kang Avenue 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yew Tee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油池站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61 Choa Chu Kang Dr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kranji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克兰芝站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marsiling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马西岭站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Woodlands</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30 Woodlands Avenue 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Admiralty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海军部站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70 Woodlands Avenue 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sembawang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三巴旺站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 Canberra Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yishun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>义顺站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Khatib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡迪站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103.832840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yio Chu Kang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨厝港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000 Ang Mo Kio Avenue 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ang Mo Kio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宏茂桥站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2450 Ang Mo Kio Avenue 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bishan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碧山站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200 Bishan Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Braddell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布莱德站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>381 Lorong 1 Toa Payoh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toa Payoh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大巴窑站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>190 Lorong  6 Toa Payoh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Novena</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺维娜站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>238 Thomson Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>301 Choa Chu Kang Avenue 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南景站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 Choa Chu Kang Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keat Hong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉丰站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 Choa Chu Kang Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teck Whye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德惠站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 Choa Chu Kang Way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phoenix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 Choa Chu Kang Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bukit Panjang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武吉班让</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 Petir Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Petir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏提站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31 Petir Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秉定站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>225-226 Pending Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangkit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万吉站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 Bukit Panjang Ring Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fajar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法嘉站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 Fajar Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Segar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实加站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 Bukit Panjang Ring Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jelapang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽拉邦站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 Bukit Panjang Ring Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信加站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>609 Bukit Panjang Ring Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Punggol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榜鹅站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 Punggol Central</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海湾站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>198 Punggol Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meridian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽园站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108 Punggol Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coral Edge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊瑚站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127 Punggol Field Walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Riviera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里维达站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 Punggol E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kadaloor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡达鲁站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 Punggol Dr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oasis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿洲站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>633 Punggol Dr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达迈站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>612B Punggol Dr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sengkang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛港站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 Sengkang Square</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compassvale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康埔桦站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250 Compassvale St</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rumbia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕美站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>143 Rivervale Dr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bakau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码高站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 Rivervale Dr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kangkar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港脚站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 Rivervale Dr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ranggung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰岗站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sengkang E Ave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farmway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农道站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35 Anchorvale St</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thanggam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹甘站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 Fernvale Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fernvale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬微站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 Fernvale Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉雅站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 Sengkang W Ave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tongkang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">同港站 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80 Sengkang E Ave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renjong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁宗站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 Sengkang E Ave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT13</t>
+  </si>
+  <si>
+    <t>DT12</t>
+  </si>
+  <si>
+    <t>DT1</t>
+  </si>
+  <si>
+    <t>DT2</t>
+  </si>
+  <si>
+    <t>DT3</t>
+  </si>
+  <si>
+    <t>DT5</t>
+  </si>
+  <si>
+    <t>DT6</t>
+  </si>
+  <si>
+    <t>DT7</t>
+  </si>
+  <si>
+    <t>DT8</t>
+  </si>
+  <si>
+    <t>DT9</t>
+  </si>
+  <si>
+    <t>DT10</t>
+  </si>
+  <si>
+    <t>DT11</t>
+  </si>
+  <si>
+    <t>Bukit Panjang</t>
+  </si>
+  <si>
+    <t>Cashew</t>
+  </si>
+  <si>
+    <t>Hillview</t>
+  </si>
+  <si>
+    <t>Beauty World</t>
+  </si>
+  <si>
+    <t>King Albert Park</t>
+  </si>
+  <si>
+    <t>Sixth Avenue</t>
+  </si>
+  <si>
+    <t>Tan Kah Kee</t>
+  </si>
+  <si>
+    <t>Botanic Gardens</t>
+  </si>
+  <si>
+    <t>Stevens</t>
   </si>
   <si>
     <t>Newton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纽顿站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49 Scotts Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orchard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌节站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Somerset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索美塞站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Somerset Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dhoby Ghaut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多美歌站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 Orchard Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>City Hall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府大厦站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150 N Bridge Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raffles Place</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱佛士坊站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>048620</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marina Bay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨海湾站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>018990</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21 Marina Station Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.276120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NS28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marina South Pier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨海南码头站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31 Marina Coastal Dr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>018988</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103.863250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HarbourFront</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>港湾站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>098867</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81 Telok Blangah Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Outram Park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧南园站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chinatown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛车水站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80 Eu Tong Sen St</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clarke Quay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克拉码头站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 Eu Tong Sen St</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Little India</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小印度站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Farrer Park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花拉公园站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Farrer Park Station Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103.854320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boon Keng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文庆站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波东巴西站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76 Upper Serangoon Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potong Pasir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Woodleigh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？里站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400 Upper Serangoon Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Serangoon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实龙岗站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600 Upper Serangoon Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kovan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高文站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upper Serangoon Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hougang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后港站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>840 Hougang Central</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buangkok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万国站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛港站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sengkang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 Sengkang Square</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Punggol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榜鹅站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70 Punggol Central</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bras Basah</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百胜站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65 Bras Basah Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Esplanade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨海中心站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>039593</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Raffles Blvd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Promenade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝门廊站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 Temasek Ave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>039190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nicoll Highway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼诰大道站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>038970</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 Republic Ave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stadium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体育场站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 Stadium Walk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mountbatten</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙巴登站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Old Airport Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dakota</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达科达站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201 Old Airport Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paya Lebar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴耶利？站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paya Lebar Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MacPherson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦申波站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10A Circuit Link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tai Seng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大成站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 Irving Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bartley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴特礼站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90 Bartley Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lorong Chuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗弄泉站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>240 Lorong Chuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marymount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玛丽蒙站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60 Marymount Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Caldecott</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加利谷站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38 Toa Payoh Rise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Botanic Gardens</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>植物园站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Farrer Road</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花拉路站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71 Farrer Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Holland Village</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荷兰村站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buona Vista</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波那维斯达站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31 Rochester Park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One-North</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纬壹站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Fusionopolis Way</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kent Ridge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肯特岗站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 Lower Kent Ridge Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haw Par Villa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎豹别墅站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21 W Coast Hwy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pasir Panjang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121 Pasir Panjang Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Labrador Park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴西班让站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉柏多公园站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>701 Telok Blangah Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Telok Blangah</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直落布兰雅站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>098829</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HarbourFront</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>港湾站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>098867</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81 Telok Blangah Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bayfront</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海湾舫站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>018956</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 Bayfront Ave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marina Bay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨海湾站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>018990</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21 Marina Station Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bugis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武吉士站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164 Rochor Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Promenade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝门廊站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 Temasek Ave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>039190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bayfront</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海湾舫站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>018971</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Bayfont Ave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Downtown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市中心站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cental Blvd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Telok Ayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直落亚逸站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>068579</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110 Telok Ayer St</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chinatown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛车水站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>059108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Park Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Choa Chu Kang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡厝港站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301 Choa Chu Kang Avenue 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>South View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南景站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50 Choa Chu Kang Way</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keat Hong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉丰站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30 Choa Chu Kang Way</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teck Whye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德惠站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 Choa Chu Kang Way</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phoenix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凤凰站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40 Choa Chu Kang Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bukit Panjang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武吉班让</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 Petir Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Petir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柏提站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31 Petir Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秉定站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>225-226 Pending Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bangkit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万吉站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 Bukit Panjang Ring Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fajar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法嘉站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40 Fajar Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Segar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实加站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50 Bukit Panjang Ring Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jelapang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泽拉邦站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70 Bukit Panjang Ring Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Senja</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信加站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>609 Bukit Panjang Ring Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Punggol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榜鹅站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70 Punggol Central</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海湾站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>198 Punggol Field</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meridian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丽园站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108 Punggol Field</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coral Edge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珊瑚站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127 Punggol Field Walk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Riviera</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>里维达站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40 Punggol E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kadaloor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡达鲁站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60 Punggol Dr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oasis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿洲站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>633 Punggol Dr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达迈站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>612B Punggol Dr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sengkang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛港站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 Sengkang Square</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SE1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compassvale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康埔桦站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250 Compassvale St</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SE2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rumbia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棕美站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>143 Rivervale Dr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SE3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bakau</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>码高站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50 Rivervale Dr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SE4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kangkar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>港脚站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 Rivervale Dr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SE5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ranggung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰岗站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sengkang E Ave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Farmway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农道站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35 Anchorvale St</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thanggam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丹甘站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40 Fernvale Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fernvale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芬微站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 Fernvale Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Layar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉雅站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 Sengkang W Ave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tongkang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">同港站 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80 Sengkang E Ave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renjong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仁宗站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60 Sengkang E Ave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT13</t>
-  </si>
-  <si>
-    <t>DT12</t>
-  </si>
-  <si>
-    <t>DT1</t>
-  </si>
-  <si>
-    <t>DT2</t>
-  </si>
-  <si>
-    <t>DT3</t>
-  </si>
-  <si>
-    <t>DT5</t>
-  </si>
-  <si>
-    <t>DT6</t>
-  </si>
-  <si>
-    <t>DT7</t>
-  </si>
-  <si>
-    <t>DT8</t>
-  </si>
-  <si>
-    <t>DT9</t>
-  </si>
-  <si>
-    <t>DT10</t>
-  </si>
-  <si>
-    <t>DT11</t>
-  </si>
-  <si>
-    <t>Bukit Panjang</t>
-  </si>
-  <si>
-    <t>Cashew</t>
-  </si>
-  <si>
-    <t>Hillview</t>
-  </si>
-  <si>
-    <t>Beauty World</t>
-  </si>
-  <si>
-    <t>King Albert Park</t>
-  </si>
-  <si>
-    <t>Sixth Avenue</t>
-  </si>
-  <si>
-    <t>Tan Kah Kee</t>
-  </si>
-  <si>
-    <t>Botanic Gardens</t>
-  </si>
-  <si>
-    <t>Stevens</t>
-  </si>
-  <si>
-    <t>Newton</t>
-  </si>
-  <si>
-    <t>Little India</t>
   </si>
   <si>
     <t>Rochor</t>
@@ -2352,6 +2340,39 @@
   </si>
   <si>
     <t>中巴鲁站</t>
+  </si>
+  <si>
+    <t>巴耶利芭站</t>
+  </si>
+  <si>
+    <t>女皇镇站</t>
+  </si>
+  <si>
+    <t>兀里站</t>
+  </si>
+  <si>
+    <t>凯秀站</t>
+  </si>
+  <si>
+    <t>山景站</t>
+  </si>
+  <si>
+    <t>美世界站</t>
+  </si>
+  <si>
+    <t>阿尔柏王园站</t>
+  </si>
+  <si>
+    <t>第六道站</t>
+  </si>
+  <si>
+    <t>陈嘉庚站</t>
+  </si>
+  <si>
+    <t>史蒂芬站</t>
+  </si>
+  <si>
+    <t>梧槽站</t>
   </si>
 </sst>
 </file>
@@ -2830,8 +2851,8 @@
   <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -3104,7 +3125,7 @@
         <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="D12">
         <v>1.294511</v>
@@ -3114,18 +3135,18 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D13">
         <v>1.2897369999999999</v>
@@ -3137,18 +3158,18 @@
         <v>158792</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
       <c r="C14" s="9" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D14">
         <v>1.286133</v>
@@ -3160,18 +3181,18 @@
         <v>168732</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="D15" s="1">
         <v>1.28135</v>
@@ -3183,18 +3204,18 @@
         <v>169037</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
         <v>62</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="D16">
         <v>1.276491</v>
@@ -3203,18 +3224,18 @@
         <v>103.845726</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="D17">
         <v>1.283952</v>
@@ -3223,21 +3244,21 @@
         <v>103.851281</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
         <v>71</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="D18">
         <v>1.2932410000000001</v>
@@ -3249,18 +3270,18 @@
         <v>179100</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="D19">
         <v>1.3007280000000001</v>
@@ -3272,18 +3293,18 @@
         <v>188062</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
         <v>78</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="D20">
         <v>1.307191</v>
@@ -3294,13 +3315,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="D21">
         <v>1.311482</v>
@@ -3311,13 +3332,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
         <v>84</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="D22">
         <v>1.3165119999999999</v>
@@ -3328,13 +3349,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
         <v>87</v>
       </c>
-      <c r="B23" t="s">
-        <v>88</v>
-      </c>
       <c r="C23" s="9" t="s">
-        <v>89</v>
+        <v>585</v>
       </c>
       <c r="D23">
         <v>1.3181210000000001</v>
@@ -3343,18 +3364,18 @@
         <v>103.89313900000001</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="D24">
         <v>1.3197509999999999</v>
@@ -3366,18 +3387,18 @@
         <v>409423</v>
       </c>
       <c r="G24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="D25">
         <v>1.3209630000000001</v>
@@ -3389,18 +3410,18 @@
         <v>416551</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="D26">
         <v>1.3240419999999999</v>
@@ -3411,13 +3432,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="B27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="D27">
         <v>1.3272569999999999</v>
@@ -3429,18 +3450,18 @@
         <v>467356</v>
       </c>
       <c r="G27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="B28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="D28">
         <v>1.343221</v>
@@ -3454,16 +3475,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="E29" s="6">
         <v>103.945213</v>
@@ -3474,13 +3495,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="B30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="D30">
         <v>1.3725449999999999</v>
@@ -3491,13 +3512,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="B31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="D31">
         <v>1.3346929999999999</v>
@@ -3506,18 +3527,18 @@
         <v>103.96136199999999</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="B32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="D32">
         <v>1.357367</v>
@@ -3526,18 +3547,18 @@
         <v>103.988905</v>
       </c>
       <c r="G32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="B33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="D33">
         <v>1.334362</v>
@@ -3546,18 +3567,18 @@
         <v>103.742569</v>
       </c>
       <c r="G33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="B34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="D34">
         <v>1.3488629999999999</v>
@@ -3566,18 +3587,18 @@
         <v>103.749522</v>
       </c>
       <c r="G34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="B35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="D35">
         <v>1.358903</v>
@@ -3589,18 +3610,18 @@
         <v>659083</v>
       </c>
       <c r="G35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="B36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="D36">
         <v>1.3855630000000001</v>
@@ -3612,18 +3633,18 @@
         <v>689810</v>
       </c>
       <c r="G36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="B37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="D37">
         <v>1.3975759999999999</v>
@@ -3635,18 +3656,18 @@
         <v>689715</v>
       </c>
       <c r="G37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="B38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="D38">
         <v>1.4250560000000001</v>
@@ -3657,13 +3678,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="B39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="D39">
         <v>1.432607</v>
@@ -3677,13 +3698,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D40">
         <v>1.4371970000000001</v>
@@ -3695,18 +3716,18 @@
         <v>738343</v>
       </c>
       <c r="G40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="B41" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="D41">
         <v>1.440715</v>
@@ -3718,18 +3739,18 @@
         <v>738344</v>
       </c>
       <c r="G41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="B42" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="D42">
         <v>1.4490810000000001</v>
@@ -3741,18 +3762,18 @@
         <v>759775</v>
       </c>
       <c r="G42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="B43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="D43">
         <v>1.4295610000000001</v>
@@ -3763,30 +3784,30 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="B44" t="s">
-        <v>166</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="D44">
         <v>1.417548</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="B45" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="D45">
         <v>1.3820790000000001</v>
@@ -3798,18 +3819,18 @@
         <v>569813</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="B46" t="s">
-        <v>174</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="D46">
         <v>1.3700349999999999</v>
@@ -3821,18 +3842,18 @@
         <v>569811</v>
       </c>
       <c r="G46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="B47" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="D47">
         <v>1.350803</v>
@@ -3844,18 +3865,18 @@
         <v>579827</v>
       </c>
       <c r="G47" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="B48" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="D48">
         <v>1.340292</v>
@@ -3867,18 +3888,18 @@
         <v>319758</v>
       </c>
       <c r="G48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="B49" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="D49">
         <v>1.3327260000000001</v>
@@ -3890,18 +3911,18 @@
         <v>310190</v>
       </c>
       <c r="G49" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="B50" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="D50">
         <v>1.320038</v>
@@ -3913,18 +3934,18 @@
         <v>307683</v>
       </c>
       <c r="G50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="B51" t="s">
-        <v>194</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="D51">
         <v>1.312487</v>
@@ -3936,18 +3957,18 @@
         <v>228234</v>
       </c>
       <c r="G51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="B52" t="s">
-        <v>198</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="D52">
         <v>1.304324</v>
@@ -3961,13 +3982,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="B53" t="s">
-        <v>201</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>202</v>
       </c>
       <c r="D53">
         <v>1.300125</v>
@@ -3979,18 +4000,18 @@
         <v>238162</v>
       </c>
       <c r="G53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="B54" t="s">
-        <v>205</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="D54">
         <v>1.2985910000000001</v>
@@ -4002,18 +4023,18 @@
         <v>238826</v>
       </c>
       <c r="G54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>208</v>
-      </c>
-      <c r="B55" t="s">
-        <v>209</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="D55">
         <v>1.293239</v>
@@ -4025,18 +4046,18 @@
         <v>179100</v>
       </c>
       <c r="G55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="B56" t="s">
-        <v>213</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="D56">
         <v>1.2839389999999999</v>
@@ -4045,64 +4066,64 @@
         <v>103.851642</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B57" t="s">
-        <v>217</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>218</v>
-      </c>
       <c r="D57" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E57" s="6">
         <v>103.85480699999999</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="B58" t="s">
-        <v>223</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="D58">
         <v>1.2709710000000001</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="B59" t="s">
-        <v>229</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="D59">
         <v>1.2652969999999999</v>
@@ -4111,21 +4132,21 @@
         <v>103.82118199999999</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B60" t="s">
+        <v>232</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>233</v>
-      </c>
-      <c r="B60" t="s">
-        <v>234</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>235</v>
       </c>
       <c r="D60">
         <v>1.281344</v>
@@ -4136,13 +4157,13 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>236</v>
-      </c>
-      <c r="B61" t="s">
-        <v>237</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>238</v>
       </c>
       <c r="D61">
         <v>1.284446</v>
@@ -4152,18 +4173,18 @@
       </c>
       <c r="F61" s="12"/>
       <c r="G61" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B62" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D62">
         <v>1.2885009999999999</v>
@@ -4172,18 +4193,18 @@
         <v>103.846778</v>
       </c>
       <c r="G62" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B63" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D63">
         <v>1.298594</v>
@@ -4195,18 +4216,18 @@
         <v>238826</v>
       </c>
       <c r="G63" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B64" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D64" s="9">
         <v>1.3072280000000001</v>
@@ -4217,36 +4238,36 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B65" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D65" s="9">
         <v>1.3124089999999999</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F65">
         <v>217562</v>
       </c>
       <c r="G65" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D66" s="9">
         <v>1.319596</v>
@@ -4260,13 +4281,13 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B67" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D67" s="9">
         <v>1.3313619999999999</v>
@@ -4278,18 +4299,18 @@
         <v>347663</v>
       </c>
       <c r="G67" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B68" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>255</v>
+        <v>587</v>
       </c>
       <c r="D68" s="9">
         <v>1.3393630000000001</v>
@@ -4298,18 +4319,18 @@
         <v>103.870757</v>
       </c>
       <c r="G68" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B69" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D69" s="9">
         <v>1.3492420000000001</v>
@@ -4321,18 +4342,18 @@
         <v>534801</v>
       </c>
       <c r="G69" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B70" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D70" s="9">
         <v>1.3605149999999999</v>
@@ -4341,18 +4362,18 @@
         <v>103.885209</v>
       </c>
       <c r="G70" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B71" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D71" s="9">
         <v>1.370919</v>
@@ -4364,18 +4385,18 @@
         <v>538757</v>
       </c>
       <c r="G71" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B72" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D72" s="9">
         <v>1.382449</v>
@@ -4389,13 +4410,13 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B73" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D73" s="9">
         <v>1.3912659999999999</v>
@@ -4407,18 +4428,18 @@
         <v>545062</v>
       </c>
       <c r="G73" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B74" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D74" s="9">
         <v>1.4045449999999999</v>
@@ -4430,18 +4451,18 @@
         <v>828868</v>
       </c>
       <c r="G74" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B75" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D75" s="9">
         <v>1.298746</v>
@@ -4452,13 +4473,13 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D76" s="9">
         <v>1.2969440000000001</v>
@@ -4470,18 +4491,18 @@
         <v>189561</v>
       </c>
       <c r="G76" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B77" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D77" s="9">
         <v>1.2934680000000001</v>
@@ -4490,21 +4511,21 @@
         <v>103.855352</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="20" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B78" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D78" s="9">
         <v>1.293147</v>
@@ -4513,21 +4534,21 @@
         <v>103.86082399999999</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="20" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B79" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D79" s="9">
         <v>1.2997540000000001</v>
@@ -4536,21 +4557,21 @@
         <v>103.863699</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="20" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B80" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D80" s="9">
         <v>1.302929</v>
@@ -4562,18 +4583,18 @@
         <v>397692</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="20" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B81" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D81" s="9">
         <v>1.3064039999999999</v>
@@ -4582,18 +4603,18 @@
         <v>103.882582</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B82" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D82" s="9">
         <v>1.308292</v>
@@ -4602,18 +4623,18 @@
         <v>103.88824700000001</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B83" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D83" s="9">
         <v>1.318074</v>
@@ -4622,18 +4643,18 @@
         <v>103.89245200000001</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B84" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D84" s="9">
         <v>1.3265690000000001</v>
@@ -4645,18 +4666,18 @@
         <v>378961</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="20" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B85" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D85" s="9">
         <v>1.335836</v>
@@ -4668,18 +4689,18 @@
         <v>369522</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="20" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B86" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D86" s="9">
         <v>1.3427009999999999</v>
@@ -4691,18 +4712,18 @@
         <v>539788</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="20" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B87" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D87" s="9">
         <v>1.3491789999999999</v>
@@ -4714,18 +4735,18 @@
         <v>534801</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="20" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B88" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D88" s="9">
         <v>1.352182</v>
@@ -4737,18 +4758,18 @@
         <v>556743</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="20" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D89" s="9">
         <v>1.3507670000000001</v>
@@ -4760,18 +4781,18 @@
         <v>579827</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="20" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B90" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D90" s="9">
         <v>1.3490869999999999</v>
@@ -4783,18 +4804,18 @@
         <v>573993</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B91" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D91" s="9">
         <v>1.337804</v>
@@ -4806,18 +4827,18 @@
         <v>298113</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B92" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D92" s="9">
         <v>1.3225089999999999</v>
@@ -4828,13 +4849,13 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B93" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D93" s="9">
         <v>1.3173170000000001</v>
@@ -4846,18 +4867,18 @@
         <v>268857</v>
       </c>
       <c r="G93" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B94" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D94" s="9">
         <v>1.3121259999999999</v>
@@ -4871,13 +4892,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="20" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B95" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D95" s="9">
         <v>1.3074490000000001</v>
@@ -4889,18 +4910,18 @@
         <v>139237</v>
       </c>
       <c r="G95" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="20" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B96" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D96" s="9">
         <v>1.2992969999999999</v>
@@ -4909,18 +4930,18 @@
         <v>103.78709499999999</v>
       </c>
       <c r="G96" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="20" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B97" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D97" s="9">
         <v>1.293377</v>
@@ -4929,18 +4950,18 @@
         <v>103.78434799999999</v>
       </c>
       <c r="G97" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="20" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B98" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D98" s="9">
         <v>1.2823770000000001</v>
@@ -4949,18 +4970,18 @@
         <v>103.78187699999999</v>
       </c>
       <c r="G98" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="20" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B99" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D99" s="9">
         <v>1.2760640000000001</v>
@@ -4972,18 +4993,18 @@
         <v>118543</v>
       </c>
       <c r="G99" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="B100" t="s">
+        <v>376</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="B100" t="s">
-        <v>379</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>381</v>
       </c>
       <c r="D100" s="9">
         <v>1.272289</v>
@@ -4995,18 +5016,18 @@
         <v>109029</v>
       </c>
       <c r="G100" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="20" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B101" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D101" s="9">
         <v>1.2705630000000001</v>
@@ -5015,18 +5036,18 @@
         <v>103.809577</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B102" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D102" s="9">
         <v>1.2653719999999999</v>
@@ -5035,21 +5056,21 @@
         <v>103.82032700000001</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B103" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D103" s="9">
         <v>1.282362</v>
@@ -5058,21 +5079,21 @@
         <v>103.858994</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B104" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D104" s="9">
         <v>1.276162</v>
@@ -5081,21 +5102,21 @@
         <v>103.854316</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="21" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B105" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D105" s="9">
         <v>1.300799</v>
@@ -5104,18 +5125,18 @@
         <v>103.85553400000001</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="21" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B106" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D106" s="9">
         <v>1.2932049999999999</v>
@@ -5124,21 +5145,21 @@
         <v>103.861628</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="21" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B107" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D107" s="9">
         <v>1.2824340000000001</v>
@@ -5147,21 +5168,21 @@
         <v>103.859549</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G107" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="21" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B108" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D108" s="9">
         <v>1.279401</v>
@@ -5170,18 +5191,18 @@
         <v>103.852964</v>
       </c>
       <c r="G108" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="21" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B109" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D109" s="9">
         <v>1.2820450000000001</v>
@@ -5190,21 +5211,21 @@
         <v>103.848457</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B110" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D110" s="9">
         <v>1.2844370000000001</v>
@@ -5213,21 +5234,21 @@
         <v>103.843264</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B111" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D111" s="9">
         <v>1.385521</v>
@@ -5239,18 +5260,18 @@
         <v>689811</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B112" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D112" s="9">
         <v>1.3803289999999999</v>
@@ -5262,18 +5283,18 @@
         <v>688265</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B113" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D113" s="9">
         <v>1.3786560000000001</v>
@@ -5285,18 +5306,18 @@
         <v>688266</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B114" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D114" s="9">
         <v>1.376811</v>
@@ -5308,18 +5329,18 @@
         <v>688267</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B115" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D115" s="9">
         <v>1.3784419999999999</v>
@@ -5331,18 +5352,18 @@
         <v>689483</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B116" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D116" s="9">
         <v>1.3781969999999999</v>
@@ -5354,18 +5375,18 @@
         <v>678270</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B117" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D117" s="9">
         <v>1.377291</v>
@@ -5374,18 +5395,18 @@
         <v>103.767376</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B118" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D118" s="9">
         <v>1.376261</v>
@@ -5394,18 +5415,18 @@
         <v>103.77131300000001</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B119" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D119" s="9">
         <v>1.3803909999999999</v>
@@ -5417,18 +5438,18 @@
         <v>679939</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B120" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D120" s="9">
         <v>1.3847449999999999</v>
@@ -5440,18 +5461,18 @@
         <v>679004</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B121" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D121" s="9">
         <v>1.387491</v>
@@ -5463,18 +5484,18 @@
         <v>679940</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B122" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D122" s="9">
         <v>1.3868050000000001</v>
@@ -5486,18 +5507,18 @@
         <v>679941</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B123" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D123" s="9">
         <v>1.383211</v>
@@ -5506,18 +5527,18 @@
         <v>103.76216100000001</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B124" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C124" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D124">
         <v>1.4047289999999999</v>
@@ -5529,18 +5550,18 @@
         <v>828868</v>
       </c>
       <c r="G124" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B125" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C125" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D125">
         <v>1.3993370000000001</v>
@@ -5552,18 +5573,18 @@
         <v>820198</v>
       </c>
       <c r="G125" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B126" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C126" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D126">
         <v>1.3969780000000001</v>
@@ -5572,18 +5593,18 @@
         <v>103.909177</v>
       </c>
       <c r="G126" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B127" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C127" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D127">
         <v>1.393448</v>
@@ -5592,18 +5613,18 @@
         <v>103.91209600000001</v>
       </c>
       <c r="G127" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B128" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C128" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D128">
         <v>1.3946190000000001</v>
@@ -5615,18 +5636,18 @@
         <v>828852</v>
       </c>
       <c r="G128" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B129" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C129" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D129">
         <v>1.399338</v>
@@ -5638,18 +5659,18 @@
         <v>828853</v>
       </c>
       <c r="G129" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B130" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C130" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D130">
         <v>1.4016120000000001</v>
@@ -5658,18 +5679,18 @@
         <v>103.913605</v>
       </c>
       <c r="G130" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B131" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C131" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D131">
         <v>1.4053450000000001</v>
@@ -5681,18 +5702,18 @@
         <v>822612</v>
       </c>
       <c r="G131" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B132" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C132" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D132">
         <v>1.391745</v>
@@ -5704,18 +5725,18 @@
         <v>545062</v>
       </c>
       <c r="G132" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B133" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C133" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D133">
         <v>1.3946190000000001</v>
@@ -5727,18 +5748,18 @@
         <v>540250</v>
       </c>
       <c r="G133" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B134" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C134" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D134">
         <v>1.3911009999999999</v>
@@ -5747,18 +5768,18 @@
         <v>103.90622399999999</v>
       </c>
       <c r="G134" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B135" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C135" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D135">
         <v>1.387883</v>
@@ -5770,18 +5791,18 @@
         <v>545053</v>
       </c>
       <c r="G135" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B136" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C136" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D136">
         <v>1.3837219999999999</v>
@@ -5793,18 +5814,18 @@
         <v>545052</v>
       </c>
       <c r="G136" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B137" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C137" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D137">
         <v>1.3836360000000001</v>
@@ -5813,18 +5834,18 @@
         <v>103.89764099999999</v>
       </c>
       <c r="G137" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B138" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C138" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D138">
         <v>1.397295</v>
@@ -5836,18 +5857,18 @@
         <v>545048</v>
       </c>
       <c r="G138" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B139" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C139" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D139">
         <v>1.397348</v>
@@ -5859,18 +5880,18 @@
         <v>797699</v>
       </c>
       <c r="G139" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B140" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C140" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D140">
         <v>1.391921</v>
@@ -5882,18 +5903,18 @@
         <v>797698</v>
       </c>
       <c r="G140" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B141" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C141" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D141">
         <v>1.3921570000000001</v>
@@ -5905,18 +5926,18 @@
         <v>797700</v>
       </c>
       <c r="G141" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B142" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C142" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D142">
         <v>1.3892610000000001</v>
@@ -5928,18 +5949,18 @@
         <v>545050</v>
       </c>
       <c r="G142" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B143" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C143" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D143">
         <v>1.386644</v>
@@ -5951,18 +5972,18 @@
         <v>545049</v>
       </c>
       <c r="G143" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="16" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B144" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D144" s="9">
         <v>1.3781969999999999</v>
@@ -5974,15 +5995,18 @@
         <v>678270</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="16" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B145" t="s">
-        <v>575</v>
+        <v>572</v>
+      </c>
+      <c r="C145" t="s">
+        <v>588</v>
       </c>
       <c r="D145" s="15">
         <v>1.3689750000000001</v>
@@ -5993,10 +6017,13 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="16" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B146" t="s">
-        <v>576</v>
+        <v>573</v>
+      </c>
+      <c r="C146" t="s">
+        <v>589</v>
       </c>
       <c r="D146" s="15">
         <v>1.3624719999999999</v>
@@ -6007,10 +6034,13 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="16" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B147" t="s">
-        <v>577</v>
+        <v>574</v>
+      </c>
+      <c r="C147" t="s">
+        <v>590</v>
       </c>
       <c r="D147" s="15">
         <v>1.3411329999999999</v>
@@ -6021,10 +6051,13 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="16" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B148" t="s">
-        <v>578</v>
+        <v>575</v>
+      </c>
+      <c r="C148" t="s">
+        <v>591</v>
       </c>
       <c r="D148" s="15">
         <v>1.335628</v>
@@ -6035,10 +6068,13 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="16" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B149" t="s">
-        <v>579</v>
+        <v>576</v>
+      </c>
+      <c r="C149" t="s">
+        <v>592</v>
       </c>
       <c r="D149" s="15">
         <v>1.330714</v>
@@ -6049,10 +6085,13 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="16" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B150" t="s">
-        <v>580</v>
+        <v>577</v>
+      </c>
+      <c r="C150" t="s">
+        <v>593</v>
       </c>
       <c r="D150" s="15">
         <v>1.326039</v>
@@ -6063,13 +6102,13 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="16" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B151" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D151" s="9">
         <v>1.3225089999999999</v>
@@ -6080,10 +6119,13 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="16" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B152" t="s">
-        <v>582</v>
+        <v>579</v>
+      </c>
+      <c r="C152" t="s">
+        <v>594</v>
       </c>
       <c r="D152" s="15">
         <v>1.3200689999999999</v>
@@ -6094,13 +6136,13 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="16" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B153" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D153">
         <v>1.312487</v>
@@ -6112,18 +6154,18 @@
         <v>228234</v>
       </c>
       <c r="G153" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="16" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B154" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D154" s="9">
         <v>1.3072280000000001</v>
@@ -6134,10 +6176,13 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="16" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B155" t="s">
-        <v>585</v>
+        <v>582</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>595</v>
       </c>
       <c r="D155" s="15">
         <v>1.3037639999999999</v>

--- a/inputdata/MRT.xlsx
+++ b/inputdata/MRT.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -2851,19 +2851,19 @@
   <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="30.625" customWidth="1"/>
-    <col min="8" max="8" width="25.875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4079,7 +4079,7 @@
       <c r="C57" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" t="s">
         <v>219</v>
       </c>
       <c r="E57" s="6">
@@ -6204,7 +6204,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6217,7 +6217,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputdata/MRT.xlsx
+++ b/inputdata/MRT.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="673">
   <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2582,6 +2582,30 @@
   </si>
   <si>
     <t>双溪勿洛</t>
+  </si>
+  <si>
+    <t>CC30</t>
+  </si>
+  <si>
+    <t>CC31</t>
+  </si>
+  <si>
+    <t>CC32</t>
+  </si>
+  <si>
+    <t>Keppel</t>
+  </si>
+  <si>
+    <t>Cantonment</t>
+  </si>
+  <si>
+    <t>Prince Edward</t>
+  </si>
+  <si>
+    <t>MacPherson</t>
+  </si>
+  <si>
+    <t>Bedok North</t>
   </si>
 </sst>
 </file>
@@ -3060,11 +3084,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A143" sqref="A143:XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5624,16 +5648,16 @@
         <v>103.844688</v>
       </c>
       <c r="I77">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="J77">
+        <v>1359</v>
+      </c>
+      <c r="K77">
+        <v>1243</v>
+      </c>
+      <c r="L77">
         <v>1360</v>
-      </c>
-      <c r="K77">
-        <v>1236</v>
-      </c>
-      <c r="L77">
-        <v>1321</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -5659,16 +5683,16 @@
         <v>288</v>
       </c>
       <c r="I78">
-        <v>2957</v>
+        <v>1479</v>
       </c>
       <c r="J78">
-        <v>2939</v>
+        <v>1470</v>
       </c>
       <c r="K78">
-        <v>3113</v>
+        <v>1543</v>
       </c>
       <c r="L78">
-        <v>2881</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5694,16 +5718,16 @@
         <v>293</v>
       </c>
       <c r="I79">
-        <v>3143</v>
+        <v>1567</v>
       </c>
       <c r="J79">
-        <v>3111</v>
+        <v>1557</v>
       </c>
       <c r="K79">
-        <v>3279</v>
+        <v>1635</v>
       </c>
       <c r="L79">
-        <v>3061</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5729,16 +5753,16 @@
         <v>297</v>
       </c>
       <c r="I80">
-        <v>3367</v>
+        <v>1681</v>
       </c>
       <c r="J80">
-        <v>3175</v>
+        <v>1588</v>
       </c>
       <c r="K80">
-        <v>3553</v>
+        <v>1775</v>
       </c>
       <c r="L80">
-        <v>3137</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5764,16 +5788,16 @@
         <v>303</v>
       </c>
       <c r="I81">
-        <v>3481</v>
+        <v>1743</v>
       </c>
       <c r="J81">
-        <v>3033</v>
+        <v>1518</v>
       </c>
       <c r="K81">
-        <v>3653</v>
+        <v>1858</v>
       </c>
       <c r="L81">
-        <v>3037</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5799,16 +5823,16 @@
         <v>307</v>
       </c>
       <c r="I82">
-        <v>3621</v>
+        <v>1807</v>
       </c>
       <c r="J82">
-        <v>2897</v>
+        <v>1445</v>
       </c>
       <c r="K82">
-        <v>3767</v>
+        <v>1882</v>
       </c>
       <c r="L82">
-        <v>2863</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5831,16 +5855,16 @@
         <v>311</v>
       </c>
       <c r="I83">
-        <v>3777</v>
+        <v>1883</v>
       </c>
       <c r="J83">
-        <v>2755</v>
+        <v>1376</v>
       </c>
       <c r="K83">
-        <v>3907</v>
+        <v>1967</v>
       </c>
       <c r="L83">
-        <v>2751</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5863,16 +5887,16 @@
         <v>315</v>
       </c>
       <c r="I84">
-        <v>3847</v>
+        <v>1921</v>
       </c>
       <c r="J84">
-        <v>2599</v>
+        <v>1297</v>
       </c>
       <c r="K84">
-        <v>3971</v>
+        <v>1978</v>
       </c>
       <c r="L84">
-        <v>2551</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5895,16 +5919,16 @@
         <v>318</v>
       </c>
       <c r="I85">
-        <v>1822</v>
+        <v>1765</v>
       </c>
       <c r="J85">
-        <v>1133</v>
+        <v>1190</v>
       </c>
       <c r="K85">
-        <v>1778</v>
+        <v>1869</v>
       </c>
       <c r="L85">
-        <v>1177</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5930,16 +5954,16 @@
         <v>322</v>
       </c>
       <c r="I86">
-        <v>3379</v>
+        <v>1683</v>
       </c>
       <c r="J86">
-        <v>2073</v>
+        <v>1036</v>
       </c>
       <c r="K86">
-        <v>3513</v>
+        <v>1764</v>
       </c>
       <c r="L86">
-        <v>2013</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5965,16 +5989,16 @@
         <v>326</v>
       </c>
       <c r="I87">
-        <v>3615</v>
+        <v>1797</v>
       </c>
       <c r="J87">
-        <v>1981</v>
+        <v>985</v>
       </c>
       <c r="K87">
-        <v>3731</v>
+        <v>1863</v>
       </c>
       <c r="L87">
-        <v>1955</v>
+        <v>966</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -6000,16 +6024,16 @@
         <v>330</v>
       </c>
       <c r="I88">
-        <v>3549</v>
+        <v>1762</v>
       </c>
       <c r="J88">
-        <v>1903</v>
+        <v>952</v>
       </c>
       <c r="K88">
-        <v>3643</v>
+        <v>1816</v>
       </c>
       <c r="L88">
-        <v>1873</v>
+        <v>936</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -6035,16 +6059,16 @@
         <v>256</v>
       </c>
       <c r="I89">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="J89">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="K89">
-        <v>1748</v>
+        <v>1707</v>
       </c>
       <c r="L89">
-        <v>890</v>
+        <v>871</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -6070,16 +6094,16 @@
         <v>335</v>
       </c>
       <c r="I90">
-        <v>2977</v>
+        <v>1482</v>
       </c>
       <c r="J90">
-        <v>1764</v>
+        <v>882</v>
       </c>
       <c r="K90">
-        <v>3137</v>
+        <v>1590</v>
       </c>
       <c r="L90">
-        <v>1760</v>
+        <v>895</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -6140,16 +6164,16 @@
         <v>340</v>
       </c>
       <c r="I92">
-        <v>2495</v>
+        <v>1236</v>
       </c>
       <c r="J92">
-        <v>1762</v>
+        <v>883</v>
       </c>
       <c r="K92">
-        <v>2619</v>
+        <v>1328</v>
       </c>
       <c r="L92">
-        <v>1758</v>
+        <v>893</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -6175,16 +6199,16 @@
         <v>344</v>
       </c>
       <c r="I93">
-        <v>2147</v>
+        <v>1079</v>
       </c>
       <c r="J93">
-        <v>1856</v>
+        <v>926</v>
       </c>
       <c r="K93">
-        <v>2281</v>
+        <v>1133</v>
       </c>
       <c r="L93">
-        <v>1792</v>
+        <v>897</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -6204,16 +6228,16 @@
         <v>103.815376</v>
       </c>
       <c r="I94">
-        <v>2081</v>
+        <v>1029</v>
       </c>
       <c r="J94">
-        <v>2200</v>
+        <v>1096</v>
       </c>
       <c r="K94">
-        <v>2205</v>
+        <v>1098</v>
       </c>
       <c r="L94">
-        <v>2118</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -6239,16 +6263,16 @@
         <v>351</v>
       </c>
       <c r="I95">
-        <v>1927</v>
+        <v>958</v>
       </c>
       <c r="J95">
-        <v>2332</v>
+        <v>1164</v>
       </c>
       <c r="K95">
-        <v>2059</v>
+        <v>1039</v>
       </c>
       <c r="L95">
-        <v>2326</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -6271,16 +6295,16 @@
         <v>268585</v>
       </c>
       <c r="I96">
-        <v>1775</v>
+        <v>885</v>
       </c>
       <c r="J96">
-        <v>2486</v>
+        <v>1244</v>
       </c>
       <c r="K96">
-        <v>1909</v>
+        <v>1004</v>
       </c>
       <c r="L96">
-        <v>2484</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -6338,16 +6362,16 @@
         <v>362</v>
       </c>
       <c r="I98">
-        <v>1215</v>
+        <v>606</v>
       </c>
       <c r="J98">
-        <v>2792</v>
+        <v>1389</v>
       </c>
       <c r="K98">
-        <v>1349</v>
+        <v>669</v>
       </c>
       <c r="L98">
-        <v>2710</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -6370,16 +6394,16 @@
         <v>366</v>
       </c>
       <c r="I99">
-        <v>1119</v>
+        <v>537</v>
       </c>
       <c r="J99">
-        <v>2910</v>
+        <v>1451</v>
       </c>
       <c r="K99">
-        <v>1201</v>
+        <v>606</v>
       </c>
       <c r="L99">
-        <v>2842</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -6402,16 +6426,16 @@
         <v>370</v>
       </c>
       <c r="I100">
-        <v>977</v>
+        <v>486</v>
       </c>
       <c r="J100">
-        <v>3096</v>
+        <v>1545</v>
       </c>
       <c r="K100">
-        <v>1135</v>
+        <v>584</v>
       </c>
       <c r="L100">
-        <v>3102</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -6437,16 +6461,16 @@
         <v>373</v>
       </c>
       <c r="I101">
-        <v>995</v>
+        <v>482</v>
       </c>
       <c r="J101">
-        <v>3268</v>
+        <v>1634</v>
       </c>
       <c r="K101">
-        <v>1135</v>
+        <v>576</v>
       </c>
       <c r="L101">
-        <v>3276</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -6472,16 +6496,16 @@
         <v>378</v>
       </c>
       <c r="I102">
-        <v>1001</v>
+        <v>496</v>
       </c>
       <c r="J102">
-        <v>3440</v>
+        <v>1721</v>
       </c>
       <c r="K102">
-        <v>1193</v>
+        <v>592</v>
       </c>
       <c r="L102">
-        <v>3444</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -6504,16 +6528,16 @@
         <v>382</v>
       </c>
       <c r="I103">
-        <v>1163</v>
+        <v>578</v>
       </c>
       <c r="J103">
-        <v>3600</v>
+        <v>1796</v>
       </c>
       <c r="K103">
-        <v>1347</v>
+        <v>666</v>
       </c>
       <c r="L103">
-        <v>3602</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -6539,580 +6563,1015 @@
         <v>387</v>
       </c>
       <c r="I104">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J104">
-        <v>1885</v>
+        <v>1851</v>
       </c>
       <c r="K104">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="L104">
-        <v>1836</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="16" t="s">
-        <v>398</v>
+      <c r="A105" s="20" t="s">
+        <v>665</v>
       </c>
       <c r="B105" t="s">
-        <v>399</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="D105" s="9">
-        <v>1.300799</v>
-      </c>
-      <c r="E105" s="6">
-        <v>103.85553400000001</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>401</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="6"/>
       <c r="I105">
-        <v>1645</v>
+        <v>883</v>
       </c>
       <c r="J105">
-        <v>1395</v>
+        <v>1970</v>
       </c>
       <c r="K105">
-        <v>1652</v>
+        <v>946</v>
       </c>
       <c r="L105">
-        <v>1437</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="16" t="s">
-        <v>402</v>
+      <c r="A106" s="20" t="s">
+        <v>666</v>
       </c>
       <c r="B106" t="s">
-        <v>403</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D106" s="9">
-        <v>1.2932049999999999</v>
-      </c>
-      <c r="E106" s="6">
-        <v>103.861628</v>
-      </c>
-      <c r="F106" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>405</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="6"/>
       <c r="I106">
-        <v>3367</v>
+        <v>1017</v>
       </c>
       <c r="J106">
-        <v>3175</v>
+        <v>1908</v>
       </c>
       <c r="K106">
-        <v>3553</v>
+        <v>1109</v>
       </c>
       <c r="L106">
-        <v>3137</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="16" t="s">
-        <v>407</v>
+      <c r="A107" s="20" t="s">
+        <v>667</v>
       </c>
       <c r="B107" t="s">
-        <v>408</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="D107" s="9">
-        <v>1.2824340000000001</v>
-      </c>
-      <c r="E107" s="6">
-        <v>103.859549</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="G107" t="s">
-        <v>411</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="6"/>
       <c r="I107">
-        <v>3153</v>
+        <v>1142</v>
       </c>
       <c r="J107">
-        <v>3381</v>
+        <v>1970</v>
       </c>
       <c r="K107">
-        <v>3275</v>
+        <v>1256</v>
       </c>
       <c r="L107">
-        <v>3375</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="16" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="B108" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D108" s="9">
-        <v>1.279401</v>
+        <v>1.300799</v>
       </c>
       <c r="E108" s="6">
-        <v>103.852964</v>
-      </c>
-      <c r="G108" t="s">
-        <v>414</v>
+        <v>103.85553400000001</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>401</v>
       </c>
       <c r="I108">
-        <v>2749</v>
+        <v>1645</v>
       </c>
       <c r="J108">
-        <v>3513</v>
+        <v>1395</v>
       </c>
       <c r="K108">
-        <v>2851</v>
+        <v>1652</v>
       </c>
       <c r="L108">
-        <v>3457</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="16" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B109" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="D109" s="9">
-        <v>1.2820450000000001</v>
+        <v>1.2932049999999999</v>
       </c>
       <c r="E109" s="6">
-        <v>103.848457</v>
+        <v>103.861628</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="I109">
-        <v>2407</v>
+        <v>1681</v>
       </c>
       <c r="J109">
-        <v>3197</v>
+        <v>1588</v>
       </c>
       <c r="K109">
-        <v>2553</v>
+        <v>1775</v>
       </c>
       <c r="L109">
-        <v>3175</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="16" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B110" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="D110" s="9">
-        <v>1.2844370000000001</v>
+        <v>1.2824340000000001</v>
       </c>
       <c r="E110" s="6">
-        <v>103.843264</v>
+        <v>103.859549</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="G110" t="s">
+        <v>411</v>
       </c>
       <c r="I110">
-        <v>1165</v>
+        <v>1577</v>
       </c>
       <c r="J110">
-        <v>1552</v>
+        <v>1688</v>
       </c>
       <c r="K110">
-        <v>1251</v>
+        <v>1646</v>
       </c>
       <c r="L110">
-        <v>1533</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="16" t="s">
-        <v>560</v>
+        <v>415</v>
       </c>
       <c r="B111" t="s">
-        <v>570</v>
+        <v>412</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="D111" s="9">
-        <v>1.3781969999999999</v>
+        <v>1.279401</v>
       </c>
       <c r="E111" s="6">
-        <v>103.76354499999999</v>
-      </c>
-      <c r="F111">
-        <v>678270</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>449</v>
+        <v>103.852964</v>
+      </c>
+      <c r="G111" t="s">
+        <v>414</v>
       </c>
       <c r="I111">
-        <v>1705</v>
+        <v>1366</v>
       </c>
       <c r="J111">
-        <v>1233</v>
+        <v>1757</v>
       </c>
       <c r="K111">
-        <v>1751</v>
+        <v>1428</v>
       </c>
       <c r="L111">
-        <v>1307</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="16" t="s">
-        <v>561</v>
+        <v>416</v>
       </c>
       <c r="B112" t="s">
-        <v>571</v>
-      </c>
-      <c r="C112" t="s">
-        <v>587</v>
-      </c>
-      <c r="D112" s="15">
-        <v>1.3689750000000001</v>
+        <v>417</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D112" s="9">
+        <v>1.2820450000000001</v>
       </c>
       <c r="E112" s="6">
-        <v>103.764803</v>
+        <v>103.848457</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>420</v>
       </c>
       <c r="I112">
-        <v>1461</v>
+        <v>1200</v>
       </c>
       <c r="J112">
-        <v>1557</v>
+        <v>1598</v>
       </c>
       <c r="K112">
-        <v>1593</v>
+        <v>1273</v>
       </c>
       <c r="L112">
-        <v>1555</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="16" t="s">
-        <v>562</v>
+        <v>421</v>
       </c>
       <c r="B113" t="s">
-        <v>572</v>
-      </c>
-      <c r="C113" t="s">
-        <v>588</v>
-      </c>
-      <c r="D113" s="15">
-        <v>1.3624719999999999</v>
+        <v>422</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D113" s="9">
+        <v>1.2844370000000001</v>
       </c>
       <c r="E113" s="6">
-        <v>103.76738899999999</v>
+        <v>103.843264</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="I113">
-        <v>1457</v>
+        <v>1165</v>
       </c>
       <c r="J113">
-        <v>1659</v>
+        <v>1552</v>
       </c>
       <c r="K113">
-        <v>1589</v>
+        <v>1251</v>
       </c>
       <c r="L113">
-        <v>1659</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="16" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B114" t="s">
-        <v>573</v>
-      </c>
-      <c r="C114" t="s">
-        <v>589</v>
-      </c>
-      <c r="D114" s="15">
-        <v>1.3411329999999999</v>
+        <v>570</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D114" s="9">
+        <v>1.3781969999999999</v>
       </c>
       <c r="E114" s="6">
-        <v>103.775797</v>
+        <v>103.76354499999999</v>
+      </c>
+      <c r="F114">
+        <v>678270</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>449</v>
       </c>
       <c r="I114">
-        <v>1389</v>
+        <v>876</v>
       </c>
       <c r="J114">
-        <v>1771</v>
+        <v>645</v>
       </c>
       <c r="K114">
-        <v>1573</v>
+        <v>859</v>
       </c>
       <c r="L114">
-        <v>1775</v>
+        <v>616</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="16" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B115" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C115" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D115" s="15">
-        <v>1.335628</v>
+        <v>1.3689750000000001</v>
       </c>
       <c r="E115" s="6">
-        <v>103.78398300000001</v>
+        <v>103.764803</v>
       </c>
       <c r="I115">
-        <v>1337</v>
+        <v>741</v>
       </c>
       <c r="J115">
-        <v>1909</v>
+        <v>779</v>
       </c>
       <c r="K115">
-        <v>1557</v>
+        <v>797</v>
       </c>
       <c r="L115">
-        <v>1905</v>
+        <v>745</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="16" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B116" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C116" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D116" s="15">
-        <v>1.330714</v>
+        <v>1.3624719999999999</v>
       </c>
       <c r="E116" s="6">
-        <v>103.797633</v>
+        <v>103.76738899999999</v>
       </c>
       <c r="I116">
-        <v>1519</v>
+        <v>738</v>
       </c>
       <c r="J116">
-        <v>2009</v>
+        <v>828</v>
       </c>
       <c r="K116">
-        <v>1693</v>
+        <v>790</v>
       </c>
       <c r="L116">
-        <v>2007</v>
+        <v>799</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="16" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B117" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C117" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D117" s="15">
-        <v>1.326039</v>
+        <v>1.3411329999999999</v>
       </c>
       <c r="E117" s="6">
-        <v>103.807169</v>
+        <v>103.775797</v>
       </c>
       <c r="I117">
-        <v>1659</v>
+        <v>691</v>
       </c>
       <c r="J117">
-        <v>2113</v>
+        <v>887</v>
       </c>
       <c r="K117">
-        <v>1831</v>
+        <v>800</v>
       </c>
       <c r="L117">
-        <v>2115</v>
+        <v>886</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="16" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B118" t="s">
-        <v>577</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="D118" s="9">
-        <v>1.3225089999999999</v>
+        <v>574</v>
+      </c>
+      <c r="C118" t="s">
+        <v>590</v>
+      </c>
+      <c r="D118" s="15">
+        <v>1.335628</v>
       </c>
       <c r="E118" s="6">
-        <v>103.815376</v>
+        <v>103.78398300000001</v>
       </c>
       <c r="I118">
-        <v>2081</v>
+        <v>675</v>
       </c>
       <c r="J118">
-        <v>2200</v>
+        <v>947</v>
       </c>
       <c r="K118">
-        <v>2205</v>
+        <v>794</v>
       </c>
       <c r="L118">
-        <v>2118</v>
+        <v>953</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="16" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B119" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C119" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D119" s="15">
-        <v>1.3200689999999999</v>
+        <v>1.330714</v>
       </c>
       <c r="E119" s="6">
-        <v>103.825997</v>
+        <v>103.797633</v>
       </c>
       <c r="I119">
-        <v>2499</v>
+        <v>755</v>
       </c>
       <c r="J119">
-        <v>2121</v>
+        <v>1008</v>
       </c>
       <c r="K119">
-        <v>2601</v>
+        <v>858</v>
       </c>
       <c r="L119">
-        <v>2093</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="16" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B120" t="s">
-        <v>579</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D120">
-        <v>1.312487</v>
+        <v>576</v>
+      </c>
+      <c r="C120" t="s">
+        <v>592</v>
+      </c>
+      <c r="D120" s="15">
+        <v>1.326039</v>
       </c>
       <c r="E120" s="6">
-        <v>103.837924</v>
-      </c>
-      <c r="F120">
-        <v>228234</v>
-      </c>
-      <c r="G120" t="s">
-        <v>194</v>
+        <v>103.807169</v>
       </c>
       <c r="I120">
-        <v>1340</v>
+        <v>826</v>
       </c>
       <c r="J120">
-        <v>1154</v>
+        <v>1062</v>
       </c>
       <c r="K120">
-        <v>1399</v>
+        <v>926</v>
       </c>
       <c r="L120">
-        <v>1137</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="16" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B121" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>242</v>
+        <v>347</v>
       </c>
       <c r="D121" s="9">
-        <v>1.3072280000000001</v>
+        <v>1.3225089999999999</v>
       </c>
       <c r="E121" s="6">
-        <v>103.849847</v>
+        <v>103.815376</v>
       </c>
       <c r="I121">
-        <v>1458</v>
+        <v>1029</v>
       </c>
       <c r="J121">
-        <v>1256</v>
+        <v>1096</v>
       </c>
       <c r="K121">
-        <v>1545</v>
+        <v>1098</v>
       </c>
       <c r="L121">
-        <v>1227</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="B122" t="s">
+        <v>578</v>
+      </c>
+      <c r="C122" t="s">
+        <v>593</v>
+      </c>
+      <c r="D122" s="15">
+        <v>1.3200689999999999</v>
+      </c>
+      <c r="E122" s="6">
+        <v>103.825997</v>
+      </c>
+      <c r="I122">
+        <v>1251</v>
+      </c>
+      <c r="J122">
+        <v>1061</v>
+      </c>
+      <c r="K122">
+        <v>1296</v>
+      </c>
+      <c r="L122">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="B123" t="s">
+        <v>579</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D123">
+        <v>1.312487</v>
+      </c>
+      <c r="E123" s="6">
+        <v>103.837924</v>
+      </c>
+      <c r="F123">
+        <v>228234</v>
+      </c>
+      <c r="G123" t="s">
+        <v>194</v>
+      </c>
+      <c r="I123">
+        <v>1340</v>
+      </c>
+      <c r="J123">
+        <v>1154</v>
+      </c>
+      <c r="K123">
+        <v>1399</v>
+      </c>
+      <c r="L123">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="B124" t="s">
+        <v>580</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D124" s="9">
+        <v>1.3072280000000001</v>
+      </c>
+      <c r="E124" s="6">
+        <v>103.849847</v>
+      </c>
+      <c r="I124">
+        <v>1458</v>
+      </c>
+      <c r="J124">
+        <v>1256</v>
+      </c>
+      <c r="K124">
+        <v>1545</v>
+      </c>
+      <c r="L124">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B125" t="s">
         <v>581</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C125" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="D122" s="15">
+      <c r="D125" s="15">
         <v>1.3037639999999999</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E125" s="6">
         <v>103.852581</v>
       </c>
-      <c r="I122">
-        <v>2777</v>
-      </c>
-      <c r="J122">
-        <v>2620</v>
-      </c>
-      <c r="K122">
-        <v>2883</v>
-      </c>
-      <c r="L122">
-        <v>2616</v>
+      <c r="I125">
+        <v>1390</v>
+      </c>
+      <c r="J125">
+        <v>1311</v>
+      </c>
+      <c r="K125">
+        <v>1426</v>
+      </c>
+      <c r="L125">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="16" t="s">
+        <v>611</v>
+      </c>
+      <c r="B126" t="s">
+        <v>629</v>
+      </c>
+      <c r="I126">
+        <v>1087</v>
+      </c>
+      <c r="J126">
+        <v>1435</v>
+      </c>
+      <c r="K126">
+        <v>1108</v>
+      </c>
+      <c r="L126">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="B127" t="s">
+        <v>630</v>
+      </c>
+      <c r="I127">
+        <v>1466</v>
+      </c>
+      <c r="J127">
+        <v>1416</v>
+      </c>
+      <c r="K127">
+        <v>1517</v>
+      </c>
+      <c r="L127">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="B128" t="s">
+        <v>631</v>
+      </c>
+      <c r="I128">
+        <v>1583</v>
+      </c>
+      <c r="J128">
+        <v>1295</v>
+      </c>
+      <c r="K128">
+        <v>1677</v>
+      </c>
+      <c r="L128">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="B129" t="s">
+        <v>632</v>
+      </c>
+      <c r="I129">
+        <v>1649</v>
+      </c>
+      <c r="J129">
+        <v>1235</v>
+      </c>
+      <c r="K129">
+        <v>1746</v>
+      </c>
+      <c r="L129">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="B130" t="s">
+        <v>633</v>
+      </c>
+      <c r="I130">
+        <v>1709</v>
+      </c>
+      <c r="J130">
+        <v>1171</v>
+      </c>
+      <c r="K130">
+        <v>1802</v>
+      </c>
+      <c r="L130">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="B131" t="s">
+        <v>634</v>
+      </c>
+      <c r="I131">
+        <v>1781</v>
+      </c>
+      <c r="J131">
+        <v>1098</v>
+      </c>
+      <c r="K131">
+        <v>1843</v>
+      </c>
+      <c r="L131">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="B132" t="s">
+        <v>671</v>
+      </c>
+      <c r="I132">
+        <v>1683</v>
+      </c>
+      <c r="J132">
+        <v>1036</v>
+      </c>
+      <c r="K132">
+        <v>1764</v>
+      </c>
+      <c r="L132">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="B133" t="s">
+        <v>636</v>
+      </c>
+      <c r="I133">
+        <v>1896</v>
+      </c>
+      <c r="J133">
+        <v>1036</v>
+      </c>
+      <c r="K133">
+        <v>1907</v>
+      </c>
+      <c r="L133">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="B134" t="s">
+        <v>637</v>
+      </c>
+      <c r="I134">
+        <v>1978</v>
+      </c>
+      <c r="J134">
+        <v>1077</v>
+      </c>
+      <c r="K134">
+        <v>1991</v>
+      </c>
+      <c r="L134">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="B135" t="s">
+        <v>672</v>
+      </c>
+      <c r="I135">
+        <v>2069</v>
+      </c>
+      <c r="J135">
+        <v>1042</v>
+      </c>
+      <c r="K135">
+        <v>2081</v>
+      </c>
+      <c r="L135">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="B136" t="s">
+        <v>638</v>
+      </c>
+      <c r="I136">
+        <v>2133</v>
+      </c>
+      <c r="J136">
+        <v>1077</v>
+      </c>
+      <c r="K136">
+        <v>2157</v>
+      </c>
+      <c r="L136">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="B137" t="s">
+        <v>640</v>
+      </c>
+      <c r="I137">
+        <v>2238</v>
+      </c>
+      <c r="J137">
+        <v>1035</v>
+      </c>
+      <c r="K137">
+        <v>2245</v>
+      </c>
+      <c r="L137">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="B138" t="s">
+        <v>641</v>
+      </c>
+      <c r="I138">
+        <v>2369</v>
+      </c>
+      <c r="J138">
+        <v>1014</v>
+      </c>
+      <c r="K138">
+        <v>2357</v>
+      </c>
+      <c r="L138">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="B139" t="s">
+        <v>642</v>
+      </c>
+      <c r="I139">
+        <v>2375</v>
+      </c>
+      <c r="J139">
+        <v>1142</v>
+      </c>
+      <c r="K139">
+        <v>2487</v>
+      </c>
+      <c r="L139">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="B140" t="s">
+        <v>643</v>
+      </c>
+      <c r="I140">
+        <v>2373</v>
+      </c>
+      <c r="J140">
+        <v>1208</v>
+      </c>
+      <c r="K140">
+        <v>2490</v>
+      </c>
+      <c r="L140">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="B141" t="s">
+        <v>644</v>
+      </c>
+      <c r="I141">
+        <v>2345</v>
+      </c>
+      <c r="J141">
+        <v>1330</v>
+      </c>
+      <c r="K141">
+        <v>2379</v>
+      </c>
+      <c r="L141">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="B142" t="s">
+        <v>645</v>
+      </c>
+      <c r="I142">
+        <v>2315</v>
+      </c>
+      <c r="J142">
+        <v>1376</v>
+      </c>
+      <c r="K142">
+        <v>2349</v>
+      </c>
+      <c r="L142">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="B143" t="s">
+        <v>646</v>
+      </c>
+      <c r="I143">
+        <v>2280</v>
+      </c>
+      <c r="J143">
+        <v>1438</v>
+      </c>
+      <c r="K143">
+        <v>2399</v>
+      </c>
+      <c r="L143">
+        <v>1436</v>
       </c>
     </row>
   </sheetData>

--- a/inputdata/MRT.xlsx
+++ b/inputdata/MRT.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiang\Dropbox\project\busstoppy\inputdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangnanqing/Dropbox/project/busstoppy/inputdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19660"/>
   </bookViews>
   <sheets>
     <sheet name="MRT" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="665">
   <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2582,40 +2582,16 @@
   </si>
   <si>
     <t>双溪勿洛</t>
-  </si>
-  <si>
-    <t>CC30</t>
-  </si>
-  <si>
-    <t>CC31</t>
-  </si>
-  <si>
-    <t>CC32</t>
-  </si>
-  <si>
-    <t>Keppel</t>
-  </si>
-  <si>
-    <t>Cantonment</t>
-  </si>
-  <si>
-    <t>Prince Edward</t>
-  </si>
-  <si>
-    <t>MacPherson</t>
-  </si>
-  <si>
-    <t>Bedok North</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3083,27 +3059,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A143" sqref="A143:XFD143"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" hidden="1" customWidth="1"/>
-    <col min="9" max="12" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" hidden="1" customWidth="1"/>
+    <col min="9" max="12" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3141,7 +3117,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>598</v>
       </c>
@@ -3170,7 +3146,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>597</v>
       </c>
@@ -3199,7 +3175,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>596</v>
       </c>
@@ -3228,7 +3204,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>595</v>
       </c>
@@ -3257,7 +3233,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
@@ -3292,7 +3268,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
@@ -3327,7 +3303,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
@@ -3359,7 +3335,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>10</v>
       </c>
@@ -3394,7 +3370,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>16</v>
       </c>
@@ -3429,7 +3405,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>18</v>
       </c>
@@ -3464,7 +3440,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>20</v>
       </c>
@@ -3499,7 +3475,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>22</v>
       </c>
@@ -3532,7 +3508,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>24</v>
       </c>
@@ -3567,7 +3543,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>26</v>
       </c>
@@ -3602,7 +3578,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>47</v>
       </c>
@@ -3635,7 +3611,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>50</v>
       </c>
@@ -3670,7 +3646,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>54</v>
       </c>
@@ -3705,7 +3681,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>57</v>
       </c>
@@ -3740,7 +3716,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>61</v>
       </c>
@@ -3772,7 +3748,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>65</v>
       </c>
@@ -3807,7 +3783,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>70</v>
       </c>
@@ -3842,7 +3818,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>74</v>
       </c>
@@ -3877,7 +3853,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>77</v>
       </c>
@@ -3906,7 +3882,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>80</v>
       </c>
@@ -3935,7 +3911,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>83</v>
       </c>
@@ -3964,7 +3940,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>86</v>
       </c>
@@ -3996,7 +3972,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>90</v>
       </c>
@@ -4031,7 +4007,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>94</v>
       </c>
@@ -4066,7 +4042,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>98</v>
       </c>
@@ -4095,7 +4071,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>101</v>
       </c>
@@ -4130,7 +4106,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>105</v>
       </c>
@@ -4162,7 +4138,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>108</v>
       </c>
@@ -4194,7 +4170,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>112</v>
       </c>
@@ -4223,7 +4199,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>123</v>
       </c>
@@ -4255,7 +4231,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>127</v>
       </c>
@@ -4287,7 +4263,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>131</v>
       </c>
@@ -4322,7 +4298,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>135</v>
       </c>
@@ -4357,7 +4333,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>139</v>
       </c>
@@ -4392,7 +4368,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>143</v>
       </c>
@@ -4421,7 +4397,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>146</v>
       </c>
@@ -4453,7 +4429,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>149</v>
       </c>
@@ -4488,7 +4464,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>152</v>
       </c>
@@ -4523,7 +4499,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>156</v>
       </c>
@@ -4558,7 +4534,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>160</v>
       </c>
@@ -4587,7 +4563,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>163</v>
       </c>
@@ -4616,7 +4592,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>167</v>
       </c>
@@ -4651,7 +4627,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>171</v>
       </c>
@@ -4686,7 +4662,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>175</v>
       </c>
@@ -4721,7 +4697,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>179</v>
       </c>
@@ -4756,7 +4732,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>183</v>
       </c>
@@ -4791,7 +4767,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>187</v>
       </c>
@@ -4826,7 +4802,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
         <v>191</v>
       </c>
@@ -4861,7 +4837,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>195</v>
       </c>
@@ -4893,7 +4869,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>198</v>
       </c>
@@ -4928,7 +4904,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>202</v>
       </c>
@@ -4963,7 +4939,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>206</v>
       </c>
@@ -4998,7 +4974,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
         <v>210</v>
       </c>
@@ -5030,7 +5006,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>214</v>
       </c>
@@ -5065,7 +5041,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>220</v>
       </c>
@@ -5100,7 +5076,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>226</v>
       </c>
@@ -5135,7 +5111,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>231</v>
       </c>
@@ -5164,7 +5140,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>234</v>
       </c>
@@ -5197,7 +5173,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>257</v>
       </c>
@@ -5229,7 +5205,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
         <v>258</v>
       </c>
@@ -5264,7 +5240,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>259</v>
       </c>
@@ -5293,7 +5269,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>260</v>
       </c>
@@ -5328,7 +5304,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
         <v>261</v>
       </c>
@@ -5360,7 +5336,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
         <v>262</v>
       </c>
@@ -5395,7 +5371,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
         <v>263</v>
       </c>
@@ -5427,7 +5403,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
         <v>264</v>
       </c>
@@ -5462,7 +5438,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
         <v>265</v>
       </c>
@@ -5494,7 +5470,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
         <v>269</v>
       </c>
@@ -5529,7 +5505,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
         <v>273</v>
       </c>
@@ -5561,7 +5537,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>276</v>
       </c>
@@ -5596,7 +5572,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>280</v>
       </c>
@@ -5631,7 +5607,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>284</v>
       </c>
@@ -5660,7 +5636,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>285</v>
       </c>
@@ -5695,7 +5671,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>289</v>
       </c>
@@ -5730,7 +5706,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>294</v>
       </c>
@@ -5765,7 +5741,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>299</v>
       </c>
@@ -5800,7 +5776,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
         <v>304</v>
       </c>
@@ -5835,7 +5811,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>308</v>
       </c>
@@ -5867,7 +5843,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>312</v>
       </c>
@@ -5899,7 +5875,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>316</v>
       </c>
@@ -5931,7 +5907,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>319</v>
       </c>
@@ -5966,7 +5942,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>323</v>
       </c>
@@ -6001,7 +5977,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>327</v>
       </c>
@@ -6036,7 +6012,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>331</v>
       </c>
@@ -6071,7 +6047,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>332</v>
       </c>
@@ -6106,7 +6082,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
         <v>336</v>
       </c>
@@ -6141,7 +6117,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
         <v>337</v>
       </c>
@@ -6176,7 +6152,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>341</v>
       </c>
@@ -6211,7 +6187,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>345</v>
       </c>
@@ -6240,7 +6216,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
         <v>348</v>
       </c>
@@ -6275,7 +6251,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
         <v>352</v>
       </c>
@@ -6307,7 +6283,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>355</v>
       </c>
@@ -6342,7 +6318,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>359</v>
       </c>
@@ -6374,7 +6350,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>363</v>
       </c>
@@ -6406,7 +6382,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>367</v>
       </c>
@@ -6438,7 +6414,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>371</v>
       </c>
@@ -6473,7 +6449,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
         <v>374</v>
       </c>
@@ -6508,7 +6484,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>379</v>
       </c>
@@ -6540,7 +6516,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>383</v>
       </c>
@@ -6575,1003 +6551,568 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
-      <c r="A105" s="20" t="s">
-        <v>665</v>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" s="16" t="s">
+        <v>398</v>
       </c>
       <c r="B105" t="s">
-        <v>668</v>
-      </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="6"/>
+        <v>399</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D105" s="9">
+        <v>1.300799</v>
+      </c>
+      <c r="E105" s="6">
+        <v>103.85553400000001</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>401</v>
+      </c>
       <c r="I105">
-        <v>883</v>
+        <v>1645</v>
       </c>
       <c r="J105">
-        <v>1970</v>
+        <v>1395</v>
       </c>
       <c r="K105">
-        <v>946</v>
+        <v>1652</v>
       </c>
       <c r="L105">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="A106" s="20" t="s">
-        <v>666</v>
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" s="16" t="s">
+        <v>402</v>
       </c>
       <c r="B106" t="s">
-        <v>669</v>
-      </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="6"/>
+        <v>403</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D106" s="9">
+        <v>1.2932049999999999</v>
+      </c>
+      <c r="E106" s="6">
+        <v>103.861628</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="I106">
-        <v>1017</v>
+        <v>1681</v>
       </c>
       <c r="J106">
-        <v>1908</v>
+        <v>1588</v>
       </c>
       <c r="K106">
-        <v>1109</v>
+        <v>1775</v>
       </c>
       <c r="L106">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
-      <c r="A107" s="20" t="s">
-        <v>667</v>
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" s="16" t="s">
+        <v>407</v>
       </c>
       <c r="B107" t="s">
-        <v>670</v>
-      </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="6"/>
+        <v>408</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D107" s="9">
+        <v>1.2824340000000001</v>
+      </c>
+      <c r="E107" s="6">
+        <v>103.859549</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="G107" t="s">
+        <v>411</v>
+      </c>
       <c r="I107">
-        <v>1142</v>
+        <v>1577</v>
       </c>
       <c r="J107">
-        <v>1970</v>
+        <v>1688</v>
       </c>
       <c r="K107">
+        <v>1646</v>
+      </c>
+      <c r="L107">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="B108" t="s">
+        <v>412</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D108" s="9">
+        <v>1.279401</v>
+      </c>
+      <c r="E108" s="6">
+        <v>103.852964</v>
+      </c>
+      <c r="G108" t="s">
+        <v>414</v>
+      </c>
+      <c r="I108">
+        <v>1366</v>
+      </c>
+      <c r="J108">
+        <v>1757</v>
+      </c>
+      <c r="K108">
+        <v>1428</v>
+      </c>
+      <c r="L108">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="B109" t="s">
+        <v>417</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D109" s="9">
+        <v>1.2820450000000001</v>
+      </c>
+      <c r="E109" s="6">
+        <v>103.848457</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="I109">
+        <v>1200</v>
+      </c>
+      <c r="J109">
+        <v>1598</v>
+      </c>
+      <c r="K109">
+        <v>1273</v>
+      </c>
+      <c r="L109">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="B110" t="s">
+        <v>422</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D110" s="9">
+        <v>1.2844370000000001</v>
+      </c>
+      <c r="E110" s="6">
+        <v>103.843264</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="I110">
+        <v>1165</v>
+      </c>
+      <c r="J110">
+        <v>1552</v>
+      </c>
+      <c r="K110">
+        <v>1251</v>
+      </c>
+      <c r="L110">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="B111" t="s">
+        <v>570</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D111" s="9">
+        <v>1.3781969999999999</v>
+      </c>
+      <c r="E111" s="6">
+        <v>103.76354499999999</v>
+      </c>
+      <c r="F111">
+        <v>678270</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="I111">
+        <v>876</v>
+      </c>
+      <c r="J111">
+        <v>645</v>
+      </c>
+      <c r="K111">
+        <v>859</v>
+      </c>
+      <c r="L111">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="B112" t="s">
+        <v>571</v>
+      </c>
+      <c r="C112" t="s">
+        <v>587</v>
+      </c>
+      <c r="D112" s="15">
+        <v>1.3689750000000001</v>
+      </c>
+      <c r="E112" s="6">
+        <v>103.764803</v>
+      </c>
+      <c r="I112">
+        <v>741</v>
+      </c>
+      <c r="J112">
+        <v>779</v>
+      </c>
+      <c r="K112">
+        <v>797</v>
+      </c>
+      <c r="L112">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="B113" t="s">
+        <v>572</v>
+      </c>
+      <c r="C113" t="s">
+        <v>588</v>
+      </c>
+      <c r="D113" s="15">
+        <v>1.3624719999999999</v>
+      </c>
+      <c r="E113" s="6">
+        <v>103.76738899999999</v>
+      </c>
+      <c r="I113">
+        <v>738</v>
+      </c>
+      <c r="J113">
+        <v>828</v>
+      </c>
+      <c r="K113">
+        <v>790</v>
+      </c>
+      <c r="L113">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="B114" t="s">
+        <v>573</v>
+      </c>
+      <c r="C114" t="s">
+        <v>589</v>
+      </c>
+      <c r="D114" s="15">
+        <v>1.3411329999999999</v>
+      </c>
+      <c r="E114" s="6">
+        <v>103.775797</v>
+      </c>
+      <c r="I114">
+        <v>691</v>
+      </c>
+      <c r="J114">
+        <v>887</v>
+      </c>
+      <c r="K114">
+        <v>800</v>
+      </c>
+      <c r="L114">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="B115" t="s">
+        <v>574</v>
+      </c>
+      <c r="C115" t="s">
+        <v>590</v>
+      </c>
+      <c r="D115" s="15">
+        <v>1.335628</v>
+      </c>
+      <c r="E115" s="6">
+        <v>103.78398300000001</v>
+      </c>
+      <c r="I115">
+        <v>675</v>
+      </c>
+      <c r="J115">
+        <v>947</v>
+      </c>
+      <c r="K115">
+        <v>794</v>
+      </c>
+      <c r="L115">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="B116" t="s">
+        <v>575</v>
+      </c>
+      <c r="C116" t="s">
+        <v>591</v>
+      </c>
+      <c r="D116" s="15">
+        <v>1.330714</v>
+      </c>
+      <c r="E116" s="6">
+        <v>103.797633</v>
+      </c>
+      <c r="I116">
+        <v>755</v>
+      </c>
+      <c r="J116">
+        <v>1008</v>
+      </c>
+      <c r="K116">
+        <v>858</v>
+      </c>
+      <c r="L116">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="B117" t="s">
+        <v>576</v>
+      </c>
+      <c r="C117" t="s">
+        <v>592</v>
+      </c>
+      <c r="D117" s="15">
+        <v>1.326039</v>
+      </c>
+      <c r="E117" s="6">
+        <v>103.807169</v>
+      </c>
+      <c r="I117">
+        <v>826</v>
+      </c>
+      <c r="J117">
+        <v>1062</v>
+      </c>
+      <c r="K117">
+        <v>926</v>
+      </c>
+      <c r="L117">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="B118" t="s">
+        <v>577</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D118" s="9">
+        <v>1.3225089999999999</v>
+      </c>
+      <c r="E118" s="6">
+        <v>103.815376</v>
+      </c>
+      <c r="I118">
+        <v>1029</v>
+      </c>
+      <c r="J118">
+        <v>1096</v>
+      </c>
+      <c r="K118">
+        <v>1098</v>
+      </c>
+      <c r="L118">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="B119" t="s">
+        <v>578</v>
+      </c>
+      <c r="C119" t="s">
+        <v>593</v>
+      </c>
+      <c r="D119" s="15">
+        <v>1.3200689999999999</v>
+      </c>
+      <c r="E119" s="6">
+        <v>103.825997</v>
+      </c>
+      <c r="I119">
+        <v>1251</v>
+      </c>
+      <c r="J119">
+        <v>1061</v>
+      </c>
+      <c r="K119">
+        <v>1296</v>
+      </c>
+      <c r="L119">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="B120" t="s">
+        <v>579</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D120">
+        <v>1.312487</v>
+      </c>
+      <c r="E120" s="6">
+        <v>103.837924</v>
+      </c>
+      <c r="F120">
+        <v>228234</v>
+      </c>
+      <c r="G120" t="s">
+        <v>194</v>
+      </c>
+      <c r="I120">
+        <v>1340</v>
+      </c>
+      <c r="J120">
+        <v>1154</v>
+      </c>
+      <c r="K120">
+        <v>1399</v>
+      </c>
+      <c r="L120">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="B121" t="s">
+        <v>580</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D121" s="9">
+        <v>1.3072280000000001</v>
+      </c>
+      <c r="E121" s="6">
+        <v>103.849847</v>
+      </c>
+      <c r="I121">
+        <v>1458</v>
+      </c>
+      <c r="J121">
         <v>1256</v>
       </c>
-      <c r="L107">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
-      <c r="A108" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="B108" t="s">
-        <v>399</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="D108" s="9">
-        <v>1.300799</v>
-      </c>
-      <c r="E108" s="6">
-        <v>103.85553400000001</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I108">
-        <v>1645</v>
-      </c>
-      <c r="J108">
-        <v>1395</v>
-      </c>
-      <c r="K108">
-        <v>1652</v>
-      </c>
-      <c r="L108">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
-      <c r="A109" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="B109" t="s">
-        <v>403</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D109" s="9">
-        <v>1.2932049999999999</v>
-      </c>
-      <c r="E109" s="6">
-        <v>103.861628</v>
-      </c>
-      <c r="F109" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="I109">
-        <v>1681</v>
-      </c>
-      <c r="J109">
-        <v>1588</v>
-      </c>
-      <c r="K109">
-        <v>1775</v>
-      </c>
-      <c r="L109">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
-      <c r="A110" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="B110" t="s">
-        <v>408</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="D110" s="9">
-        <v>1.2824340000000001</v>
-      </c>
-      <c r="E110" s="6">
-        <v>103.859549</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="G110" t="s">
-        <v>411</v>
-      </c>
-      <c r="I110">
-        <v>1577</v>
-      </c>
-      <c r="J110">
-        <v>1688</v>
-      </c>
-      <c r="K110">
-        <v>1646</v>
-      </c>
-      <c r="L110">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
-      <c r="A111" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="B111" t="s">
-        <v>412</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D111" s="9">
-        <v>1.279401</v>
-      </c>
-      <c r="E111" s="6">
-        <v>103.852964</v>
-      </c>
-      <c r="G111" t="s">
-        <v>414</v>
-      </c>
-      <c r="I111">
-        <v>1366</v>
-      </c>
-      <c r="J111">
-        <v>1757</v>
-      </c>
-      <c r="K111">
-        <v>1428</v>
-      </c>
-      <c r="L111">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
-      <c r="A112" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="B112" t="s">
-        <v>417</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="D112" s="9">
-        <v>1.2820450000000001</v>
-      </c>
-      <c r="E112" s="6">
-        <v>103.848457</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="I112">
-        <v>1200</v>
-      </c>
-      <c r="J112">
-        <v>1598</v>
-      </c>
-      <c r="K112">
-        <v>1273</v>
-      </c>
-      <c r="L112">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
-      <c r="A113" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="B113" t="s">
-        <v>422</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="D113" s="9">
-        <v>1.2844370000000001</v>
-      </c>
-      <c r="E113" s="6">
-        <v>103.843264</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="I113">
-        <v>1165</v>
-      </c>
-      <c r="J113">
-        <v>1552</v>
-      </c>
-      <c r="K113">
-        <v>1251</v>
-      </c>
-      <c r="L113">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
-      <c r="A114" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="B114" t="s">
-        <v>570</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="D114" s="9">
-        <v>1.3781969999999999</v>
-      </c>
-      <c r="E114" s="6">
-        <v>103.76354499999999</v>
-      </c>
-      <c r="F114">
-        <v>678270</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="I114">
-        <v>876</v>
-      </c>
-      <c r="J114">
-        <v>645</v>
-      </c>
-      <c r="K114">
-        <v>859</v>
-      </c>
-      <c r="L114">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="B115" t="s">
-        <v>571</v>
-      </c>
-      <c r="C115" t="s">
-        <v>587</v>
-      </c>
-      <c r="D115" s="15">
-        <v>1.3689750000000001</v>
-      </c>
-      <c r="E115" s="6">
-        <v>103.764803</v>
-      </c>
-      <c r="I115">
-        <v>741</v>
-      </c>
-      <c r="J115">
-        <v>779</v>
-      </c>
-      <c r="K115">
-        <v>797</v>
-      </c>
-      <c r="L115">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
-      <c r="A116" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="B116" t="s">
-        <v>572</v>
-      </c>
-      <c r="C116" t="s">
-        <v>588</v>
-      </c>
-      <c r="D116" s="15">
-        <v>1.3624719999999999</v>
-      </c>
-      <c r="E116" s="6">
-        <v>103.76738899999999</v>
-      </c>
-      <c r="I116">
-        <v>738</v>
-      </c>
-      <c r="J116">
-        <v>828</v>
-      </c>
-      <c r="K116">
-        <v>790</v>
-      </c>
-      <c r="L116">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
-      <c r="A117" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="B117" t="s">
-        <v>573</v>
-      </c>
-      <c r="C117" t="s">
-        <v>589</v>
-      </c>
-      <c r="D117" s="15">
-        <v>1.3411329999999999</v>
-      </c>
-      <c r="E117" s="6">
-        <v>103.775797</v>
-      </c>
-      <c r="I117">
-        <v>691</v>
-      </c>
-      <c r="J117">
-        <v>887</v>
-      </c>
-      <c r="K117">
-        <v>800</v>
-      </c>
-      <c r="L117">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="A118" s="16" t="s">
-        <v>564</v>
-      </c>
-      <c r="B118" t="s">
-        <v>574</v>
-      </c>
-      <c r="C118" t="s">
-        <v>590</v>
-      </c>
-      <c r="D118" s="15">
-        <v>1.335628</v>
-      </c>
-      <c r="E118" s="6">
-        <v>103.78398300000001</v>
-      </c>
-      <c r="I118">
-        <v>675</v>
-      </c>
-      <c r="J118">
-        <v>947</v>
-      </c>
-      <c r="K118">
-        <v>794</v>
-      </c>
-      <c r="L118">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
-      <c r="A119" s="16" t="s">
-        <v>565</v>
-      </c>
-      <c r="B119" t="s">
-        <v>575</v>
-      </c>
-      <c r="C119" t="s">
-        <v>591</v>
-      </c>
-      <c r="D119" s="15">
-        <v>1.330714</v>
-      </c>
-      <c r="E119" s="6">
-        <v>103.797633</v>
-      </c>
-      <c r="I119">
-        <v>755</v>
-      </c>
-      <c r="J119">
-        <v>1008</v>
-      </c>
-      <c r="K119">
-        <v>858</v>
-      </c>
-      <c r="L119">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
-      <c r="A120" s="16" t="s">
-        <v>566</v>
-      </c>
-      <c r="B120" t="s">
-        <v>576</v>
-      </c>
-      <c r="C120" t="s">
-        <v>592</v>
-      </c>
-      <c r="D120" s="15">
-        <v>1.326039</v>
-      </c>
-      <c r="E120" s="6">
-        <v>103.807169</v>
-      </c>
-      <c r="I120">
-        <v>826</v>
-      </c>
-      <c r="J120">
-        <v>1062</v>
-      </c>
-      <c r="K120">
-        <v>926</v>
-      </c>
-      <c r="L120">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
-      <c r="A121" s="16" t="s">
-        <v>567</v>
-      </c>
-      <c r="B121" t="s">
-        <v>577</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="D121" s="9">
-        <v>1.3225089999999999</v>
-      </c>
-      <c r="E121" s="6">
-        <v>103.815376</v>
-      </c>
-      <c r="I121">
-        <v>1029</v>
-      </c>
-      <c r="J121">
-        <v>1096</v>
-      </c>
       <c r="K121">
-        <v>1098</v>
+        <v>1545</v>
       </c>
       <c r="L121">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="16" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B122" t="s">
-        <v>578</v>
-      </c>
-      <c r="C122" t="s">
-        <v>593</v>
+        <v>581</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>594</v>
       </c>
       <c r="D122" s="15">
-        <v>1.3200689999999999</v>
+        <v>1.3037639999999999</v>
       </c>
       <c r="E122" s="6">
-        <v>103.825997</v>
+        <v>103.852581</v>
       </c>
       <c r="I122">
-        <v>1251</v>
+        <v>1390</v>
       </c>
       <c r="J122">
-        <v>1061</v>
+        <v>1311</v>
       </c>
       <c r="K122">
-        <v>1296</v>
+        <v>1426</v>
       </c>
       <c r="L122">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
-      <c r="A123" s="16" t="s">
-        <v>569</v>
-      </c>
-      <c r="B123" t="s">
-        <v>579</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D123">
-        <v>1.312487</v>
-      </c>
-      <c r="E123" s="6">
-        <v>103.837924</v>
-      </c>
-      <c r="F123">
-        <v>228234</v>
-      </c>
-      <c r="G123" t="s">
-        <v>194</v>
-      </c>
-      <c r="I123">
-        <v>1340</v>
-      </c>
-      <c r="J123">
-        <v>1154</v>
-      </c>
-      <c r="K123">
-        <v>1399</v>
-      </c>
-      <c r="L123">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
-      <c r="A124" s="16" t="s">
-        <v>559</v>
-      </c>
-      <c r="B124" t="s">
-        <v>580</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D124" s="9">
-        <v>1.3072280000000001</v>
-      </c>
-      <c r="E124" s="6">
-        <v>103.849847</v>
-      </c>
-      <c r="I124">
-        <v>1458</v>
-      </c>
-      <c r="J124">
-        <v>1256</v>
-      </c>
-      <c r="K124">
-        <v>1545</v>
-      </c>
-      <c r="L124">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="A125" s="16" t="s">
-        <v>558</v>
-      </c>
-      <c r="B125" t="s">
-        <v>581</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="D125" s="15">
-        <v>1.3037639999999999</v>
-      </c>
-      <c r="E125" s="6">
-        <v>103.852581</v>
-      </c>
-      <c r="I125">
-        <v>1390</v>
-      </c>
-      <c r="J125">
-        <v>1311</v>
-      </c>
-      <c r="K125">
-        <v>1426</v>
-      </c>
-      <c r="L125">
         <v>1282</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
-      <c r="A126" s="16" t="s">
-        <v>611</v>
-      </c>
-      <c r="B126" t="s">
-        <v>629</v>
-      </c>
-      <c r="I126">
-        <v>1087</v>
-      </c>
-      <c r="J126">
-        <v>1435</v>
-      </c>
-      <c r="K126">
-        <v>1108</v>
-      </c>
-      <c r="L126">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
-      <c r="A127" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="B127" t="s">
-        <v>630</v>
-      </c>
-      <c r="I127">
-        <v>1466</v>
-      </c>
-      <c r="J127">
-        <v>1416</v>
-      </c>
-      <c r="K127">
-        <v>1517</v>
-      </c>
-      <c r="L127">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
-      <c r="A128" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="B128" t="s">
-        <v>631</v>
-      </c>
-      <c r="I128">
-        <v>1583</v>
-      </c>
-      <c r="J128">
-        <v>1295</v>
-      </c>
-      <c r="K128">
-        <v>1677</v>
-      </c>
-      <c r="L128">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
-      <c r="A129" s="16" t="s">
-        <v>614</v>
-      </c>
-      <c r="B129" t="s">
-        <v>632</v>
-      </c>
-      <c r="I129">
-        <v>1649</v>
-      </c>
-      <c r="J129">
-        <v>1235</v>
-      </c>
-      <c r="K129">
-        <v>1746</v>
-      </c>
-      <c r="L129">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130" s="16" t="s">
-        <v>615</v>
-      </c>
-      <c r="B130" t="s">
-        <v>633</v>
-      </c>
-      <c r="I130">
-        <v>1709</v>
-      </c>
-      <c r="J130">
-        <v>1171</v>
-      </c>
-      <c r="K130">
-        <v>1802</v>
-      </c>
-      <c r="L130">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
-      <c r="A131" s="16" t="s">
-        <v>616</v>
-      </c>
-      <c r="B131" t="s">
-        <v>634</v>
-      </c>
-      <c r="I131">
-        <v>1781</v>
-      </c>
-      <c r="J131">
-        <v>1098</v>
-      </c>
-      <c r="K131">
-        <v>1843</v>
-      </c>
-      <c r="L131">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
-      <c r="A132" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="B132" t="s">
-        <v>671</v>
-      </c>
-      <c r="I132">
-        <v>1683</v>
-      </c>
-      <c r="J132">
-        <v>1036</v>
-      </c>
-      <c r="K132">
-        <v>1764</v>
-      </c>
-      <c r="L132">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
-      <c r="A133" s="16" t="s">
-        <v>618</v>
-      </c>
-      <c r="B133" t="s">
-        <v>636</v>
-      </c>
-      <c r="I133">
-        <v>1896</v>
-      </c>
-      <c r="J133">
-        <v>1036</v>
-      </c>
-      <c r="K133">
-        <v>1907</v>
-      </c>
-      <c r="L133">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
-      <c r="A134" s="16" t="s">
-        <v>619</v>
-      </c>
-      <c r="B134" t="s">
-        <v>637</v>
-      </c>
-      <c r="I134">
-        <v>1978</v>
-      </c>
-      <c r="J134">
-        <v>1077</v>
-      </c>
-      <c r="K134">
-        <v>1991</v>
-      </c>
-      <c r="L134">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
-      <c r="A135" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="B135" t="s">
-        <v>672</v>
-      </c>
-      <c r="I135">
-        <v>2069</v>
-      </c>
-      <c r="J135">
-        <v>1042</v>
-      </c>
-      <c r="K135">
-        <v>2081</v>
-      </c>
-      <c r="L135">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
-      <c r="A136" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="B136" t="s">
-        <v>638</v>
-      </c>
-      <c r="I136">
-        <v>2133</v>
-      </c>
-      <c r="J136">
-        <v>1077</v>
-      </c>
-      <c r="K136">
-        <v>2157</v>
-      </c>
-      <c r="L136">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
-      <c r="A137" s="16" t="s">
-        <v>622</v>
-      </c>
-      <c r="B137" t="s">
-        <v>640</v>
-      </c>
-      <c r="I137">
-        <v>2238</v>
-      </c>
-      <c r="J137">
-        <v>1035</v>
-      </c>
-      <c r="K137">
-        <v>2245</v>
-      </c>
-      <c r="L137">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
-      <c r="A138" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="B138" t="s">
-        <v>641</v>
-      </c>
-      <c r="I138">
-        <v>2369</v>
-      </c>
-      <c r="J138">
-        <v>1014</v>
-      </c>
-      <c r="K138">
-        <v>2357</v>
-      </c>
-      <c r="L138">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
-      <c r="A139" s="16" t="s">
-        <v>624</v>
-      </c>
-      <c r="B139" t="s">
-        <v>642</v>
-      </c>
-      <c r="I139">
-        <v>2375</v>
-      </c>
-      <c r="J139">
-        <v>1142</v>
-      </c>
-      <c r="K139">
-        <v>2487</v>
-      </c>
-      <c r="L139">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
-      <c r="A140" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="B140" t="s">
-        <v>643</v>
-      </c>
-      <c r="I140">
-        <v>2373</v>
-      </c>
-      <c r="J140">
-        <v>1208</v>
-      </c>
-      <c r="K140">
-        <v>2490</v>
-      </c>
-      <c r="L140">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
-      <c r="A141" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="B141" t="s">
-        <v>644</v>
-      </c>
-      <c r="I141">
-        <v>2345</v>
-      </c>
-      <c r="J141">
-        <v>1330</v>
-      </c>
-      <c r="K141">
-        <v>2379</v>
-      </c>
-      <c r="L141">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
-      <c r="A142" s="16" t="s">
-        <v>627</v>
-      </c>
-      <c r="B142" t="s">
-        <v>645</v>
-      </c>
-      <c r="I142">
-        <v>2315</v>
-      </c>
-      <c r="J142">
-        <v>1376</v>
-      </c>
-      <c r="K142">
-        <v>2349</v>
-      </c>
-      <c r="L142">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
-      <c r="A143" s="16" t="s">
-        <v>628</v>
-      </c>
-      <c r="B143" t="s">
-        <v>646</v>
-      </c>
-      <c r="I143">
-        <v>2280</v>
-      </c>
-      <c r="J143">
-        <v>1438</v>
-      </c>
-      <c r="K143">
-        <v>2399</v>
-      </c>
-      <c r="L143">
-        <v>1436</v>
       </c>
     </row>
   </sheetData>
@@ -7582,26 +7123,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView zoomScale="249" zoomScaleNormal="249" zoomScalePageLayoutView="249" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7627,7 +7168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -7647,7 +7188,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -7667,7 +7208,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>426</v>
       </c>
@@ -7690,7 +7231,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>430</v>
       </c>
@@ -7713,7 +7254,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>434</v>
       </c>
@@ -7736,7 +7277,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>438</v>
       </c>
@@ -7759,7 +7300,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>442</v>
       </c>
@@ -7782,7 +7323,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>446</v>
       </c>
@@ -7805,7 +7346,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>450</v>
       </c>
@@ -7825,7 +7366,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>454</v>
       </c>
@@ -7845,7 +7386,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>458</v>
       </c>
@@ -7868,7 +7409,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>462</v>
       </c>
@@ -7891,7 +7432,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>466</v>
       </c>
@@ -7914,7 +7455,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>470</v>
       </c>
@@ -7937,7 +7478,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>474</v>
       </c>
@@ -7957,7 +7498,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>478</v>
       </c>
@@ -7980,7 +7521,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>482</v>
       </c>
@@ -8003,7 +7544,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>486</v>
       </c>
@@ -8023,7 +7564,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>490</v>
       </c>
@@ -8043,7 +7584,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>494</v>
       </c>
@@ -8066,7 +7607,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>498</v>
       </c>
@@ -8089,7 +7630,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>502</v>
       </c>
@@ -8109,7 +7650,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>506</v>
       </c>
@@ -8132,7 +7673,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>510</v>
       </c>
@@ -8155,7 +7696,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>514</v>
       </c>
@@ -8178,7 +7719,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>518</v>
       </c>
@@ -8198,7 +7739,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>522</v>
       </c>
@@ -8221,7 +7762,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>526</v>
       </c>
@@ -8244,7 +7785,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>530</v>
       </c>
@@ -8264,7 +7805,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>534</v>
       </c>
@@ -8287,7 +7828,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>538</v>
       </c>
@@ -8310,7 +7851,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>542</v>
       </c>
@@ -8333,7 +7874,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>546</v>
       </c>
@@ -8356,7 +7897,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>550</v>
       </c>
@@ -8379,7 +7920,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>554</v>
       </c>
@@ -8402,7 +7943,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>388</v>
       </c>
@@ -8425,7 +7966,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>393</v>
       </c>
@@ -8455,16 +7996,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>611</v>
       </c>
@@ -8493,7 +8034,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>612</v>
       </c>
@@ -8522,7 +8063,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>613</v>
       </c>
@@ -8545,7 +8086,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>614</v>
       </c>
@@ -8568,7 +8109,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>615</v>
       </c>
@@ -8591,7 +8132,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>616</v>
       </c>
@@ -8614,7 +8155,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>617</v>
       </c>
@@ -8637,7 +8178,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>618</v>
       </c>
@@ -8660,7 +8201,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>619</v>
       </c>
@@ -8683,7 +8224,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>620</v>
       </c>
@@ -8706,7 +8247,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>621</v>
       </c>
@@ -8729,7 +8270,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>622</v>
       </c>
@@ -8752,7 +8293,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>623</v>
       </c>
@@ -8784,7 +8325,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>624</v>
       </c>
@@ -8807,7 +8348,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>625</v>
       </c>
@@ -8830,7 +8371,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>626</v>
       </c>
@@ -8859,7 +8400,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>627</v>
       </c>
@@ -8882,7 +8423,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>628</v>
       </c>

--- a/inputdata/MRT.xlsx
+++ b/inputdata/MRT.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620"/>
   </bookViews>
   <sheets>
     <sheet name="MRT" sheetId="1" r:id="rId1"/>
     <sheet name="LRT" sheetId="2" r:id="rId2"/>
-    <sheet name="dt 3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MRT!$A$1:$L$140</definedName>
+  </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="660">
   <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,10 +477,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.353110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EW1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,10 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>103.832840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NS15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -907,10 +901,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.276120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NS28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -931,10 +921,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>103.863250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NE1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1012,10 +998,6 @@
   </si>
   <si>
     <t>1 Farrer Park Station Rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103.854320</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2589,7 +2571,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000_ "/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -2690,9 +2672,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2726,12 +2705,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2750,10 +2723,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3060,11 +3042,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3105,32 +3087,32 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="J1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="K1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="L1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B2" t="s">
         <v>598</v>
       </c>
-      <c r="B2" t="s">
-        <v>603</v>
-      </c>
       <c r="C2" t="s">
-        <v>604</v>
-      </c>
-      <c r="D2">
+        <v>599</v>
+      </c>
+      <c r="D2" s="19">
         <v>1.3469</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="19">
         <v>103.6375</v>
       </c>
       <c r="I2">
@@ -3147,19 +3129,19 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3" t="s">
         <v>597</v>
       </c>
-      <c r="B3" t="s">
-        <v>602</v>
-      </c>
       <c r="C3" t="s">
-        <v>605</v>
-      </c>
-      <c r="D3">
+        <v>600</v>
+      </c>
+      <c r="D3" s="19">
         <v>1.3388</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="19">
         <v>103.6467</v>
       </c>
       <c r="I3">
@@ -3176,19 +3158,19 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B4" t="s">
         <v>596</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>601</v>
       </c>
-      <c r="C4" t="s">
-        <v>606</v>
-      </c>
-      <c r="D4">
+      <c r="D4" s="19">
         <v>1.331</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>103.65470000000001</v>
       </c>
       <c r="I4">
@@ -3205,19 +3187,19 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="B5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C5" t="s">
         <v>595</v>
       </c>
-      <c r="B5" t="s">
-        <v>599</v>
-      </c>
-      <c r="C5" t="s">
-        <v>600</v>
-      </c>
-      <c r="D5">
+      <c r="D5" s="19">
         <v>1.3211999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="19">
         <v>103.6657</v>
       </c>
       <c r="I5">
@@ -3234,7 +3216,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -3243,10 +3225,10 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="19">
         <v>1.3277060000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="19">
         <v>103.678489</v>
       </c>
       <c r="F6">
@@ -3269,7 +3251,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -3278,10 +3260,10 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="19">
         <v>1.337402</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="19">
         <v>103.697157</v>
       </c>
       <c r="F7">
@@ -3304,7 +3286,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
@@ -3313,10 +3295,10 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="19">
         <v>1.338854</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="19">
         <v>103.70553200000001</v>
       </c>
       <c r="F8">
@@ -3336,7 +3318,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
@@ -3345,10 +3327,10 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="19">
         <v>1.344212</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="19">
         <v>103.720403</v>
       </c>
       <c r="F9">
@@ -3371,7 +3353,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
@@ -3380,10 +3362,10 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="19">
         <v>1.3425389999999999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="19">
         <v>103.732505</v>
       </c>
       <c r="F10">
@@ -3406,7 +3388,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
@@ -3415,10 +3397,10 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="19">
         <v>1.334387</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="19">
         <v>103.741388</v>
       </c>
       <c r="F11">
@@ -3441,7 +3423,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
@@ -3450,10 +3432,10 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="19">
         <v>1.3154239999999999</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="19">
         <v>103.76520600000001</v>
       </c>
       <c r="F12">
@@ -3476,7 +3458,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
@@ -3485,13 +3467,13 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="19">
         <v>1.31134</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="19">
         <v>103.77868100000001</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="2"/>
       <c r="G13" t="s">
         <v>44</v>
       </c>
@@ -3509,22 +3491,22 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="19">
         <v>1.3074349999999999</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="19">
         <v>103.789861</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>139345</v>
       </c>
       <c r="G14" t="s">
@@ -3544,22 +3526,22 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="19">
         <v>1.3025659999999999</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="19">
         <v>103.79822900000001</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>149735</v>
       </c>
       <c r="G15" t="s">
@@ -3579,22 +3561,22 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D16" s="19">
         <v>1.294511</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="19">
         <v>103.80611500000001</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="3"/>
       <c r="G16" t="s">
         <v>49</v>
       </c>
@@ -3612,22 +3594,22 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="19">
         <v>1.2897369999999999</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="19">
         <v>103.816715</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>158792</v>
       </c>
       <c r="G17" t="s">
@@ -3647,22 +3629,22 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D18" s="19">
         <v>1.286133</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="21">
         <v>103.827079</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>168732</v>
       </c>
       <c r="G18" t="s">
@@ -3682,22 +3664,22 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="19">
         <v>1.28135</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="21">
         <v>103.838838</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>169037</v>
       </c>
       <c r="G19" t="s">
@@ -3717,22 +3699,22 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="19">
         <v>1.276491</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="21">
         <v>103.845726</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>64</v>
       </c>
       <c r="I20">
@@ -3749,25 +3731,25 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B21" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="19">
         <v>1.283952</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="21">
         <v>103.851281</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I21">
@@ -3784,25 +3766,25 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="19">
         <v>1.2932410000000001</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="21">
         <v>103.852054</v>
       </c>
       <c r="F22">
         <v>179100</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I22">
@@ -3819,25 +3801,25 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B23" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="19">
         <v>1.3007280000000001</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="21">
         <v>103.856409</v>
       </c>
       <c r="F23">
         <v>188062</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I23">
@@ -3854,19 +3836,19 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B24" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="19">
         <v>1.307191</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="21">
         <v>103.86299099999999</v>
       </c>
       <c r="I24">
@@ -3883,19 +3865,19 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B25" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="19">
         <v>1.311482</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="21">
         <v>103.871392</v>
       </c>
       <c r="I25">
@@ -3912,19 +3894,19 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B26" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="19">
         <v>1.3165119999999999</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="21">
         <v>103.882893</v>
       </c>
       <c r="I26">
@@ -3941,19 +3923,19 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B27" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="D27" s="19">
         <v>1.3181210000000001</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="21">
         <v>103.89313900000001</v>
       </c>
       <c r="G27" t="s">
@@ -3973,19 +3955,19 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B28" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="19">
         <v>1.3197509999999999</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="21">
         <v>103.90310599999999</v>
       </c>
       <c r="F28">
@@ -4008,19 +3990,19 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B29" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="19">
         <v>1.3209630000000001</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="21">
         <v>103.912826</v>
       </c>
       <c r="F29">
@@ -4043,19 +4025,19 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B30" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="19">
         <v>1.3240419999999999</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="21">
         <v>103.930025</v>
       </c>
       <c r="I30">
@@ -4072,19 +4054,19 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B31" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="19">
         <v>1.3272569999999999</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="21">
         <v>103.946594</v>
       </c>
       <c r="F31">
@@ -4107,19 +4089,19 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B32" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="19">
         <v>1.343221</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="21">
         <v>103.953366</v>
       </c>
       <c r="F32">
@@ -4139,20 +4121,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B33" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="6">
-        <v>103.945213</v>
+      <c r="D33" s="19">
+        <v>1.354759</v>
+      </c>
+      <c r="E33" s="21">
+        <v>103.94353099999999</v>
       </c>
       <c r="F33">
         <v>529538</v>
@@ -4171,19 +4153,19 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
         <v>112</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34">
+      <c r="D34" s="19">
         <v>1.3725449999999999</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="21">
         <v>103.949504</v>
       </c>
       <c r="I34">
@@ -4200,23 +4182,23 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" t="s">
         <v>123</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="19">
+        <v>1.334362</v>
+      </c>
+      <c r="E35" s="21">
+        <v>103.742569</v>
+      </c>
+      <c r="G35" t="s">
         <v>125</v>
-      </c>
-      <c r="D35">
-        <v>1.334362</v>
-      </c>
-      <c r="E35" s="6">
-        <v>103.742569</v>
-      </c>
-      <c r="G35" t="s">
-        <v>126</v>
       </c>
       <c r="I35">
         <v>525</v>
@@ -4232,23 +4214,23 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
         <v>127</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="19">
+        <v>1.3488629999999999</v>
+      </c>
+      <c r="E36" s="21">
+        <v>103.749522</v>
+      </c>
+      <c r="G36" t="s">
         <v>129</v>
-      </c>
-      <c r="D36">
-        <v>1.3488629999999999</v>
-      </c>
-      <c r="E36" s="6">
-        <v>103.749522</v>
-      </c>
-      <c r="G36" t="s">
-        <v>130</v>
       </c>
       <c r="I36">
         <v>390</v>
@@ -4264,26 +4246,26 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
         <v>131</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37">
+      <c r="D37" s="19">
         <v>1.358903</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="21">
         <v>103.751839</v>
       </c>
       <c r="F37">
         <v>659083</v>
       </c>
       <c r="G37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I37">
         <v>372</v>
@@ -4299,26 +4281,26 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" t="s">
         <v>135</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38">
+      <c r="D38" s="19">
         <v>1.3855630000000001</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="21">
         <v>103.74480699999999</v>
       </c>
       <c r="F38">
         <v>689810</v>
       </c>
       <c r="G38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I38">
         <v>348</v>
@@ -4334,26 +4316,26 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
         <v>139</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39">
+      <c r="D39" s="19">
         <v>1.3975759999999999</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="21">
         <v>103.747339</v>
       </c>
       <c r="F39">
         <v>689715</v>
       </c>
       <c r="G39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I39">
         <v>423</v>
@@ -4369,19 +4351,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" t="s">
         <v>143</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40">
+      <c r="D40" s="19">
         <v>1.4250560000000001</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="21">
         <v>103.76190099999999</v>
       </c>
       <c r="I40">
@@ -4398,19 +4380,19 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" t="s">
         <v>146</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41">
+      <c r="D41" s="19">
         <v>1.432607</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="21">
         <v>103.774046</v>
       </c>
       <c r="F41">
@@ -4430,26 +4412,26 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" t="s">
         <v>149</v>
       </c>
-      <c r="B42" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="D42" s="19">
         <v>1.4371970000000001</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="21">
         <v>103.786405</v>
       </c>
       <c r="F42">
         <v>738343</v>
       </c>
       <c r="G42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I42">
         <v>897</v>
@@ -4465,26 +4447,26 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" t="s">
         <v>152</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43">
+      <c r="D43" s="19">
         <v>1.440715</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="21">
         <v>103.800997</v>
       </c>
       <c r="F43">
         <v>738344</v>
       </c>
       <c r="G43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I43">
         <v>1074</v>
@@ -4500,26 +4482,26 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" t="s">
         <v>156</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44">
+      <c r="D44" s="19">
         <v>1.4490810000000001</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="21">
         <v>103.820223</v>
       </c>
       <c r="F44">
         <v>759775</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I44">
         <v>1199</v>
@@ -4535,19 +4517,19 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" t="s">
         <v>160</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D45">
+      <c r="D45" s="19">
         <v>1.4295610000000001</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="21">
         <v>103.83524300000001</v>
       </c>
       <c r="I45">
@@ -4564,20 +4546,20 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" t="s">
         <v>163</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D46">
+      <c r="D46" s="19">
         <v>1.417548</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>166</v>
+      <c r="E46" s="19">
+        <v>103.83284</v>
       </c>
       <c r="I46">
         <v>1460</v>
@@ -4593,26 +4575,26 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B47" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47">
+      <c r="D47" s="19">
         <v>1.3820790000000001</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="21">
         <v>103.844773</v>
       </c>
       <c r="F47">
         <v>569813</v>
       </c>
       <c r="G47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I47">
         <v>1461</v>
@@ -4628,26 +4610,26 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B48" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D48">
+      <c r="D48" s="19">
         <v>1.3700349999999999</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="21">
         <v>103.849475</v>
       </c>
       <c r="F48">
         <v>569811</v>
       </c>
       <c r="G48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I48">
         <v>1458</v>
@@ -4663,26 +4645,26 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B49" t="s">
-        <v>176</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49">
+      <c r="D49" s="19">
         <v>1.350803</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="21">
         <v>103.848316</v>
       </c>
       <c r="F49">
         <v>579827</v>
       </c>
       <c r="G49" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I49">
         <v>1369</v>
@@ -4698,26 +4680,26 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B50" t="s">
-        <v>180</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D50">
+      <c r="D50" s="19">
         <v>1.340292</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="21">
         <v>103.845215</v>
       </c>
       <c r="F50">
         <v>319758</v>
       </c>
       <c r="G50" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I50">
         <v>1346</v>
@@ -4733,26 +4715,26 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B51" t="s">
-        <v>184</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D51">
+      <c r="D51" s="19">
         <v>1.3327260000000001</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="21">
         <v>103.84779399999999</v>
       </c>
       <c r="F51">
         <v>310190</v>
       </c>
       <c r="G51" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I51">
         <v>1419</v>
@@ -4768,26 +4750,26 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B52" t="s">
-        <v>188</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D52">
+      <c r="D52" s="19">
         <v>1.320038</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="21">
         <v>103.843846</v>
       </c>
       <c r="F52">
         <v>307683</v>
       </c>
       <c r="G52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I52">
         <v>1364</v>
@@ -4803,26 +4785,26 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B53" t="s">
-        <v>192</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D53">
+      <c r="D53" s="19">
         <v>1.312487</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="21">
         <v>103.837924</v>
       </c>
       <c r="F53">
         <v>228234</v>
       </c>
       <c r="G53" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I53">
         <v>1340</v>
@@ -4838,19 +4820,19 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B54" t="s">
-        <v>196</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D54">
+      <c r="D54" s="19">
         <v>1.304324</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="21">
         <v>103.83248399999999</v>
       </c>
       <c r="F54">
@@ -4870,26 +4852,26 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B55" t="s">
-        <v>199</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D55">
+      <c r="D55" s="19">
         <v>1.300125</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="21">
         <v>103.838588</v>
       </c>
       <c r="F55">
         <v>238162</v>
       </c>
       <c r="G55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I55">
         <v>1245</v>
@@ -4905,26 +4887,26 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B56" t="s">
-        <v>203</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D56">
+      <c r="D56" s="19">
         <v>1.2985910000000001</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="21">
         <v>103.846191</v>
       </c>
       <c r="F56">
         <v>238826</v>
       </c>
       <c r="G56" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I56">
         <v>1116</v>
@@ -4940,26 +4922,26 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B57" t="s">
-        <v>207</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D57">
+      <c r="D57" s="19">
         <v>1.293239</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="21">
         <v>103.85237100000001</v>
       </c>
       <c r="F57">
         <v>179100</v>
       </c>
       <c r="G57" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I57">
         <v>1346</v>
@@ -4975,23 +4957,23 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" s="19">
+        <v>1.2839389999999999</v>
+      </c>
+      <c r="E58" s="21">
+        <v>103.851642</v>
+      </c>
+      <c r="F58" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D58">
-        <v>1.2839389999999999</v>
-      </c>
-      <c r="E58" s="6">
-        <v>103.851642</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="I58">
         <v>1266</v>
@@ -5007,26 +4989,26 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" s="19">
+        <v>1.2761199999999999</v>
+      </c>
+      <c r="E59" s="21">
+        <v>103.85480699999999</v>
+      </c>
+      <c r="F59" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="G59" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="D59" t="s">
-        <v>219</v>
-      </c>
-      <c r="E59" s="6">
-        <v>103.85480699999999</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="I59">
         <v>1193</v>
@@ -5042,26 +5024,26 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B60" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" s="19">
+        <v>1.2709710000000001</v>
+      </c>
+      <c r="E60" s="21">
+        <v>103.86324999999999</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="B60" t="s">
-        <v>221</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D60">
-        <v>1.2709710000000001</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="I60">
         <v>1453</v>
@@ -5077,26 +5059,26 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61" s="19">
+        <v>1.2652969999999999</v>
+      </c>
+      <c r="E61" s="21">
+        <v>103.82118199999999</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="B61" t="s">
-        <v>227</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D61">
-        <v>1.2652969999999999</v>
-      </c>
-      <c r="E61" s="6">
-        <v>103.82118199999999</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="I61">
         <v>606</v>
@@ -5112,19 +5094,19 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
-        <v>231</v>
+      <c r="A62" s="16" t="s">
+        <v>227</v>
       </c>
       <c r="B62" t="s">
-        <v>232</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D62">
+        <v>228</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="19">
         <v>1.281344</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="21">
         <v>103.839765</v>
       </c>
       <c r="I62">
@@ -5141,24 +5123,24 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
-        <v>234</v>
+      <c r="A63" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="B63" t="s">
-        <v>235</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D63">
+        <v>231</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" s="19">
         <v>1.284446</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="21">
         <v>103.843559</v>
       </c>
-      <c r="F63" s="12"/>
+      <c r="F63" s="11"/>
       <c r="G63" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I63">
         <v>1165</v>
@@ -5174,23 +5156,23 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
-        <v>257</v>
+      <c r="A64" s="16" t="s">
+        <v>252</v>
       </c>
       <c r="B64" t="s">
-        <v>238</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D64">
+        <v>234</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D64" s="19">
         <v>1.2885009999999999</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="21">
         <v>103.846778</v>
       </c>
       <c r="G64" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I64">
         <v>1206</v>
@@ -5206,26 +5188,26 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
-        <v>258</v>
+      <c r="A65" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D65">
+        <v>201</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="19">
         <v>1.298594</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="21">
         <v>103.845888</v>
       </c>
       <c r="F65">
         <v>238826</v>
       </c>
       <c r="G65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I65">
         <v>1116</v>
@@ -5241,19 +5223,19 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
-        <v>259</v>
+      <c r="A66" s="16" t="s">
+        <v>254</v>
       </c>
       <c r="B66" t="s">
-        <v>241</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D66" s="9">
+        <v>237</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" s="22">
         <v>1.3072280000000001</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="21">
         <v>103.849847</v>
       </c>
       <c r="I66">
@@ -5270,26 +5252,26 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
-        <v>260</v>
+      <c r="A67" s="16" t="s">
+        <v>255</v>
       </c>
       <c r="B67" t="s">
-        <v>243</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D67" s="9">
+        <v>239</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67" s="22">
         <v>1.3124089999999999</v>
       </c>
-      <c r="E67" s="14" t="s">
-        <v>246</v>
+      <c r="E67" s="21">
+        <v>103.85432</v>
       </c>
       <c r="F67">
         <v>217562</v>
       </c>
       <c r="G67" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I67">
         <v>1498</v>
@@ -5305,19 +5287,19 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
-        <v>261</v>
+      <c r="A68" s="16" t="s">
+        <v>256</v>
       </c>
       <c r="B68" t="s">
-        <v>247</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D68" s="9">
+        <v>242</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" s="22">
         <v>1.319596</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="21">
         <v>103.861949</v>
       </c>
       <c r="F68">
@@ -5337,26 +5319,26 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
-        <v>262</v>
+      <c r="A69" s="16" t="s">
+        <v>257</v>
       </c>
       <c r="B69" t="s">
-        <v>251</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D69" s="9">
+        <v>246</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D69" s="22">
         <v>1.3313619999999999</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="21">
         <v>103.869276</v>
       </c>
       <c r="F69">
         <v>347663</v>
       </c>
       <c r="G69" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I69">
         <v>1611</v>
@@ -5372,23 +5354,23 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
-        <v>263</v>
+      <c r="A70" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="B70" t="s">
-        <v>252</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="D70" s="9">
+        <v>247</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D70" s="22">
         <v>1.3393630000000001</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="21">
         <v>103.870757</v>
       </c>
       <c r="G70" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I70">
         <v>1525</v>
@@ -5404,26 +5386,26 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
-        <v>264</v>
+      <c r="A71" s="16" t="s">
+        <v>259</v>
       </c>
       <c r="B71" t="s">
-        <v>254</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D71" s="9">
+        <v>249</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D71" s="22">
         <v>1.3492420000000001</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="21">
         <v>103.873632</v>
       </c>
       <c r="F71">
         <v>534801</v>
       </c>
       <c r="G71" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I71">
         <v>1643</v>
@@ -5439,23 +5421,23 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
-        <v>265</v>
+      <c r="A72" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="B72" t="s">
-        <v>266</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D72" s="9">
+        <v>261</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D72" s="22">
         <v>1.3605149999999999</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="21">
         <v>103.885209</v>
       </c>
       <c r="G72" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I72">
         <v>1587</v>
@@ -5471,26 +5453,26 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
-        <v>269</v>
+      <c r="A73" s="16" t="s">
+        <v>264</v>
       </c>
       <c r="B73" t="s">
-        <v>270</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D73" s="9">
+        <v>265</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D73" s="22">
         <v>1.370919</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="21">
         <v>103.892472</v>
       </c>
       <c r="F73">
         <v>538757</v>
       </c>
       <c r="G73" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I73">
         <v>1623</v>
@@ -5506,19 +5488,19 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
-        <v>273</v>
+      <c r="A74" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="B74" t="s">
-        <v>274</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="D74" s="9">
+        <v>269</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" s="22">
         <v>1.382449</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="21">
         <v>103.892719</v>
       </c>
       <c r="F74">
@@ -5538,26 +5520,26 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
-        <v>276</v>
+      <c r="A75" s="16" t="s">
+        <v>271</v>
       </c>
       <c r="B75" t="s">
-        <v>278</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D75" s="9">
+        <v>273</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D75" s="22">
         <v>1.3912659999999999</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="21">
         <v>103.895369</v>
       </c>
       <c r="F75">
         <v>545062</v>
       </c>
       <c r="G75" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I75">
         <v>1687</v>
@@ -5573,26 +5555,26 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
-        <v>280</v>
+      <c r="A76" s="16" t="s">
+        <v>275</v>
       </c>
       <c r="B76" t="s">
-        <v>281</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D76" s="9">
+        <v>276</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D76" s="22">
         <v>1.4045449999999999</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="21">
         <v>103.902023</v>
       </c>
       <c r="F76">
         <v>828868</v>
       </c>
       <c r="G76" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I76">
         <v>2107</v>
@@ -5608,19 +5590,19 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="20" t="s">
-        <v>284</v>
+      <c r="A77" s="17" t="s">
+        <v>279</v>
       </c>
       <c r="B77" t="s">
-        <v>203</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D77" s="9">
+        <v>201</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D77" s="22">
         <v>1.298746</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="21">
         <v>103.844688</v>
       </c>
       <c r="I77">
@@ -5637,26 +5619,26 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="20" t="s">
-        <v>285</v>
+      <c r="A78" s="17" t="s">
+        <v>280</v>
       </c>
       <c r="B78" t="s">
-        <v>286</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D78" s="9">
+        <v>281</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D78" s="22">
         <v>1.2969440000000001</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="21">
         <v>103.850739</v>
       </c>
       <c r="F78">
         <v>189561</v>
       </c>
       <c r="G78" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I78">
         <v>1479</v>
@@ -5672,26 +5654,26 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="20" t="s">
-        <v>289</v>
+      <c r="A79" s="17" t="s">
+        <v>284</v>
       </c>
       <c r="B79" t="s">
-        <v>290</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D79" s="9">
+        <v>285</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D79" s="22">
         <v>1.2934680000000001</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="21">
         <v>103.855352</v>
       </c>
-      <c r="F79" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>293</v>
+      <c r="F79" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="I79">
         <v>1567</v>
@@ -5707,26 +5689,26 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="20" t="s">
-        <v>294</v>
+      <c r="A80" s="17" t="s">
+        <v>289</v>
       </c>
       <c r="B80" t="s">
-        <v>295</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D80" s="9">
+        <v>290</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D80" s="22">
         <v>1.293147</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="21">
         <v>103.86082399999999</v>
       </c>
-      <c r="F80" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>297</v>
+      <c r="F80" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="I80">
         <v>1681</v>
@@ -5742,26 +5724,26 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
-        <v>299</v>
+      <c r="A81" s="17" t="s">
+        <v>294</v>
       </c>
       <c r="B81" t="s">
-        <v>300</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="D81" s="9">
+        <v>295</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D81" s="22">
         <v>1.2997540000000001</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="21">
         <v>103.863699</v>
       </c>
-      <c r="F81" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>303</v>
+      <c r="F81" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="I81">
         <v>1743</v>
@@ -5777,26 +5759,26 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="20" t="s">
-        <v>304</v>
+      <c r="A82" s="17" t="s">
+        <v>299</v>
       </c>
       <c r="B82" t="s">
-        <v>305</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D82" s="9">
+        <v>300</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D82" s="22">
         <v>1.302929</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="21">
         <v>103.875286</v>
       </c>
       <c r="F82">
         <v>397692</v>
       </c>
-      <c r="G82" s="6" t="s">
-        <v>307</v>
+      <c r="G82" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="I82">
         <v>1807</v>
@@ -5812,23 +5794,23 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="20" t="s">
-        <v>308</v>
+      <c r="A83" s="17" t="s">
+        <v>303</v>
       </c>
       <c r="B83" t="s">
-        <v>309</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="D83" s="9">
+        <v>304</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D83" s="22">
         <v>1.3064039999999999</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="21">
         <v>103.882582</v>
       </c>
-      <c r="G83" s="6" t="s">
-        <v>311</v>
+      <c r="G83" s="5" t="s">
+        <v>306</v>
       </c>
       <c r="I83">
         <v>1883</v>
@@ -5844,23 +5826,23 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="20" t="s">
-        <v>312</v>
+      <c r="A84" s="17" t="s">
+        <v>307</v>
       </c>
       <c r="B84" t="s">
-        <v>313</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D84" s="9">
+        <v>308</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D84" s="22">
         <v>1.308292</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="21">
         <v>103.88824700000001</v>
       </c>
-      <c r="G84" s="6" t="s">
-        <v>315</v>
+      <c r="G84" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="I84">
         <v>1921</v>
@@ -5876,23 +5858,23 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="20" t="s">
-        <v>316</v>
+      <c r="A85" s="17" t="s">
+        <v>311</v>
       </c>
       <c r="B85" t="s">
-        <v>317</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="D85" s="9">
+        <v>312</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="D85" s="22">
         <v>1.318074</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="21">
         <v>103.89245200000001</v>
       </c>
-      <c r="G85" s="6" t="s">
-        <v>318</v>
+      <c r="G85" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="I85">
         <v>1765</v>
@@ -5908,26 +5890,26 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="20" t="s">
-        <v>319</v>
+      <c r="A86" s="17" t="s">
+        <v>314</v>
       </c>
       <c r="B86" t="s">
-        <v>320</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="D86" s="9">
+        <v>315</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D86" s="22">
         <v>1.3265690000000001</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="21">
         <v>103.890049</v>
       </c>
       <c r="F86">
         <v>378961</v>
       </c>
-      <c r="G86" s="6" t="s">
-        <v>322</v>
+      <c r="G86" s="5" t="s">
+        <v>317</v>
       </c>
       <c r="I86">
         <v>1683</v>
@@ -5943,26 +5925,26 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="20" t="s">
-        <v>323</v>
+      <c r="A87" s="17" t="s">
+        <v>318</v>
       </c>
       <c r="B87" t="s">
-        <v>324</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="D87" s="9">
+        <v>319</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D87" s="22">
         <v>1.335836</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="21">
         <v>103.887861</v>
       </c>
       <c r="F87">
         <v>369522</v>
       </c>
-      <c r="G87" s="6" t="s">
-        <v>326</v>
+      <c r="G87" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="I87">
         <v>1797</v>
@@ -5978,26 +5960,26 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="20" t="s">
-        <v>327</v>
+      <c r="A88" s="17" t="s">
+        <v>322</v>
       </c>
       <c r="B88" t="s">
-        <v>328</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D88" s="9">
+        <v>323</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D88" s="22">
         <v>1.3427009999999999</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="21">
         <v>103.879964</v>
       </c>
       <c r="F88">
         <v>539788</v>
       </c>
-      <c r="G88" s="6" t="s">
-        <v>330</v>
+      <c r="G88" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="I88">
         <v>1762</v>
@@ -6013,26 +5995,26 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="20" t="s">
-        <v>331</v>
+      <c r="A89" s="17" t="s">
+        <v>326</v>
       </c>
       <c r="B89" t="s">
-        <v>254</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D89" s="9">
+        <v>249</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D89" s="22">
         <v>1.3491789999999999</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="21">
         <v>103.87279700000001</v>
       </c>
       <c r="F89">
         <v>534801</v>
       </c>
-      <c r="G89" s="6" t="s">
-        <v>256</v>
+      <c r="G89" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="I89">
         <v>1638</v>
@@ -6048,26 +6030,26 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="20" t="s">
-        <v>332</v>
+      <c r="A90" s="17" t="s">
+        <v>327</v>
       </c>
       <c r="B90" t="s">
-        <v>333</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="D90" s="9">
+        <v>328</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D90" s="22">
         <v>1.352182</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="21">
         <v>103.863528</v>
       </c>
       <c r="F90">
         <v>556743</v>
       </c>
-      <c r="G90" s="6" t="s">
-        <v>335</v>
+      <c r="G90" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="I90">
         <v>1482</v>
@@ -6083,26 +6065,26 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="20" t="s">
-        <v>336</v>
+      <c r="A91" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D91" s="9">
+        <v>174</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" s="22">
         <v>1.3507670000000001</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="21">
         <v>103.847477</v>
       </c>
       <c r="F91">
         <v>579827</v>
       </c>
-      <c r="G91" s="6" t="s">
-        <v>178</v>
+      <c r="G91" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="I91">
         <v>1369</v>
@@ -6118,26 +6100,26 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="20" t="s">
-        <v>337</v>
+      <c r="A92" s="17" t="s">
+        <v>332</v>
       </c>
       <c r="B92" t="s">
-        <v>338</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="D92" s="9">
+        <v>333</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D92" s="22">
         <v>1.3490869999999999</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="21">
         <v>103.839516</v>
       </c>
       <c r="F92">
         <v>573993</v>
       </c>
-      <c r="G92" s="6" t="s">
-        <v>340</v>
+      <c r="G92" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="I92">
         <v>1236</v>
@@ -6153,26 +6135,26 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="20" t="s">
-        <v>341</v>
+      <c r="A93" s="17" t="s">
+        <v>336</v>
       </c>
       <c r="B93" t="s">
-        <v>342</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="D93" s="9">
+        <v>337</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D93" s="22">
         <v>1.337804</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="21">
         <v>103.839473</v>
       </c>
       <c r="F93">
         <v>298113</v>
       </c>
-      <c r="G93" s="6" t="s">
-        <v>344</v>
+      <c r="G93" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="I93">
         <v>1079</v>
@@ -6188,19 +6170,19 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="20" t="s">
-        <v>345</v>
+      <c r="A94" s="17" t="s">
+        <v>340</v>
       </c>
       <c r="B94" t="s">
-        <v>346</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="D94" s="9">
+        <v>341</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D94" s="22">
         <v>1.3225089999999999</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="21">
         <v>103.815376</v>
       </c>
       <c r="I94">
@@ -6217,26 +6199,26 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="20" t="s">
-        <v>348</v>
+      <c r="A95" s="17" t="s">
+        <v>343</v>
       </c>
       <c r="B95" t="s">
-        <v>349</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="D95" s="9">
+        <v>344</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D95" s="22">
         <v>1.3173170000000001</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="21">
         <v>103.80743699999999</v>
       </c>
       <c r="F95">
         <v>268857</v>
       </c>
       <c r="G95" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I95">
         <v>958</v>
@@ -6252,19 +6234,19 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="20" t="s">
-        <v>352</v>
+      <c r="A96" s="17" t="s">
+        <v>347</v>
       </c>
       <c r="B96" t="s">
-        <v>353</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D96" s="9">
+        <v>348</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D96" s="22">
         <v>1.3121259999999999</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="21">
         <v>103.796193</v>
       </c>
       <c r="F96">
@@ -6284,26 +6266,26 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" s="20" t="s">
-        <v>355</v>
+      <c r="A97" s="17" t="s">
+        <v>350</v>
       </c>
       <c r="B97" t="s">
-        <v>356</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="D97" s="9">
+        <v>351</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D97" s="22">
         <v>1.3074490000000001</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="21">
         <v>103.788983</v>
       </c>
       <c r="F97">
         <v>139237</v>
       </c>
       <c r="G97" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I97">
         <v>640</v>
@@ -6319,23 +6301,23 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="20" t="s">
-        <v>359</v>
+      <c r="A98" s="17" t="s">
+        <v>354</v>
       </c>
       <c r="B98" t="s">
-        <v>360</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D98" s="9">
+        <v>355</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D98" s="22">
         <v>1.2992969999999999</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="21">
         <v>103.78709499999999</v>
       </c>
       <c r="G98" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I98">
         <v>606</v>
@@ -6351,23 +6333,23 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" s="20" t="s">
-        <v>363</v>
+      <c r="A99" s="17" t="s">
+        <v>358</v>
       </c>
       <c r="B99" t="s">
-        <v>364</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="D99" s="9">
+        <v>359</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D99" s="22">
         <v>1.293377</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="21">
         <v>103.78434799999999</v>
       </c>
       <c r="G99" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I99">
         <v>537</v>
@@ -6383,23 +6365,23 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" s="20" t="s">
-        <v>367</v>
+      <c r="A100" s="17" t="s">
+        <v>362</v>
       </c>
       <c r="B100" t="s">
-        <v>368</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="D100" s="9">
+        <v>363</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D100" s="22">
         <v>1.2823770000000001</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="21">
         <v>103.78187699999999</v>
       </c>
       <c r="G100" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I100">
         <v>486</v>
@@ -6415,26 +6397,26 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B101" t="s">
+        <v>367</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="B101" t="s">
-        <v>372</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="D101" s="9">
+      <c r="D101" s="22">
         <v>1.2760640000000001</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="21">
         <v>103.791138</v>
       </c>
       <c r="F101">
         <v>118543</v>
       </c>
       <c r="G101" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I101">
         <v>482</v>
@@ -6450,26 +6432,26 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" s="20" t="s">
-        <v>374</v>
+      <c r="A102" s="17" t="s">
+        <v>369</v>
       </c>
       <c r="B102" t="s">
-        <v>375</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D102" s="9">
+        <v>370</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D102" s="22">
         <v>1.272289</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="21">
         <v>103.80281100000001</v>
       </c>
       <c r="F102">
         <v>109029</v>
       </c>
       <c r="G102" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I102">
         <v>496</v>
@@ -6485,23 +6467,23 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" s="20" t="s">
-        <v>379</v>
+      <c r="A103" s="17" t="s">
+        <v>374</v>
       </c>
       <c r="B103" t="s">
-        <v>380</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="D103" s="9">
+        <v>375</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D103" s="22">
         <v>1.2705630000000001</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="21">
         <v>103.809577</v>
       </c>
-      <c r="F103" s="12" t="s">
-        <v>382</v>
+      <c r="F103" s="11" t="s">
+        <v>377</v>
       </c>
       <c r="I103">
         <v>578</v>
@@ -6517,26 +6499,26 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" s="20" t="s">
-        <v>383</v>
+      <c r="A104" s="17" t="s">
+        <v>378</v>
       </c>
       <c r="B104" t="s">
-        <v>384</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="D104" s="9">
+        <v>379</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D104" s="22">
         <v>1.2653719999999999</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="21">
         <v>103.82032700000001</v>
       </c>
-      <c r="F104" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>387</v>
+      <c r="F104" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="I104">
         <v>605</v>
@@ -6552,23 +6534,23 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" s="16" t="s">
-        <v>398</v>
+      <c r="A105" s="13" t="s">
+        <v>393</v>
       </c>
       <c r="B105" t="s">
-        <v>399</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="D105" s="9">
+        <v>394</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D105" s="22">
         <v>1.300799</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="21">
         <v>103.85553400000001</v>
       </c>
-      <c r="G105" s="6" t="s">
-        <v>401</v>
+      <c r="G105" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="I105">
         <v>1645</v>
@@ -6584,26 +6566,26 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" s="16" t="s">
-        <v>402</v>
+      <c r="A106" s="13" t="s">
+        <v>397</v>
       </c>
       <c r="B106" t="s">
-        <v>403</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D106" s="9">
+        <v>398</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D106" s="22">
         <v>1.2932049999999999</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="21">
         <v>103.861628</v>
       </c>
-      <c r="F106" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>405</v>
+      <c r="F106" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="I106">
         <v>1681</v>
@@ -6619,26 +6601,26 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A107" s="16" t="s">
-        <v>407</v>
+      <c r="A107" s="13" t="s">
+        <v>402</v>
       </c>
       <c r="B107" t="s">
-        <v>408</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="D107" s="9">
+        <v>403</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D107" s="22">
         <v>1.2824340000000001</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107" s="21">
         <v>103.859549</v>
       </c>
-      <c r="F107" s="12" t="s">
-        <v>410</v>
+      <c r="F107" s="11" t="s">
+        <v>405</v>
       </c>
       <c r="G107" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="I107">
         <v>1577</v>
@@ -6654,23 +6636,23 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="16" t="s">
-        <v>415</v>
+      <c r="A108" s="13" t="s">
+        <v>410</v>
       </c>
       <c r="B108" t="s">
-        <v>412</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D108" s="9">
+        <v>407</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D108" s="22">
         <v>1.279401</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E108" s="21">
         <v>103.852964</v>
       </c>
       <c r="G108" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="I108">
         <v>1366</v>
@@ -6686,26 +6668,26 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" s="16" t="s">
-        <v>416</v>
+      <c r="A109" s="13" t="s">
+        <v>411</v>
       </c>
       <c r="B109" t="s">
-        <v>417</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="D109" s="9">
+        <v>412</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D109" s="22">
         <v>1.2820450000000001</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="21">
         <v>103.848457</v>
       </c>
-      <c r="F109" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>420</v>
+      <c r="F109" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>415</v>
       </c>
       <c r="I109">
         <v>1200</v>
@@ -6721,26 +6703,26 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="16" t="s">
-        <v>421</v>
+      <c r="A110" s="13" t="s">
+        <v>416</v>
       </c>
       <c r="B110" t="s">
-        <v>422</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="D110" s="9">
+        <v>417</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D110" s="22">
         <v>1.2844370000000001</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110" s="21">
         <v>103.843264</v>
       </c>
-      <c r="F110" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>425</v>
+      <c r="F110" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="I110">
         <v>1165</v>
@@ -6756,26 +6738,26 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" s="16" t="s">
-        <v>560</v>
+      <c r="A111" s="13" t="s">
+        <v>555</v>
       </c>
       <c r="B111" t="s">
-        <v>570</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="D111" s="9">
+        <v>565</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D111" s="22">
         <v>1.3781969999999999</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111" s="21">
         <v>103.76354499999999</v>
       </c>
       <c r="F111">
         <v>678270</v>
       </c>
-      <c r="G111" s="6" t="s">
-        <v>449</v>
+      <c r="G111" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="I111">
         <v>876</v>
@@ -6791,19 +6773,19 @@
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" s="16" t="s">
-        <v>561</v>
+      <c r="A112" s="13" t="s">
+        <v>556</v>
       </c>
       <c r="B112" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C112" t="s">
-        <v>587</v>
-      </c>
-      <c r="D112" s="15">
+        <v>582</v>
+      </c>
+      <c r="D112" s="21">
         <v>1.3689750000000001</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="21">
         <v>103.764803</v>
       </c>
       <c r="I112">
@@ -6820,19 +6802,19 @@
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="16" t="s">
-        <v>562</v>
+      <c r="A113" s="13" t="s">
+        <v>557</v>
       </c>
       <c r="B113" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C113" t="s">
-        <v>588</v>
-      </c>
-      <c r="D113" s="15">
+        <v>583</v>
+      </c>
+      <c r="D113" s="21">
         <v>1.3624719999999999</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113" s="21">
         <v>103.76738899999999</v>
       </c>
       <c r="I113">
@@ -6849,19 +6831,19 @@
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="16" t="s">
-        <v>563</v>
+      <c r="A114" s="13" t="s">
+        <v>558</v>
       </c>
       <c r="B114" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C114" t="s">
-        <v>589</v>
-      </c>
-      <c r="D114" s="15">
+        <v>584</v>
+      </c>
+      <c r="D114" s="21">
         <v>1.3411329999999999</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="21">
         <v>103.775797</v>
       </c>
       <c r="I114">
@@ -6878,19 +6860,19 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="16" t="s">
-        <v>564</v>
+      <c r="A115" s="13" t="s">
+        <v>559</v>
       </c>
       <c r="B115" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C115" t="s">
-        <v>590</v>
-      </c>
-      <c r="D115" s="15">
+        <v>585</v>
+      </c>
+      <c r="D115" s="21">
         <v>1.335628</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="21">
         <v>103.78398300000001</v>
       </c>
       <c r="I115">
@@ -6907,19 +6889,19 @@
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="16" t="s">
-        <v>565</v>
+      <c r="A116" s="13" t="s">
+        <v>560</v>
       </c>
       <c r="B116" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C116" t="s">
-        <v>591</v>
-      </c>
-      <c r="D116" s="15">
+        <v>586</v>
+      </c>
+      <c r="D116" s="21">
         <v>1.330714</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116" s="21">
         <v>103.797633</v>
       </c>
       <c r="I116">
@@ -6936,19 +6918,19 @@
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="16" t="s">
-        <v>566</v>
+      <c r="A117" s="13" t="s">
+        <v>561</v>
       </c>
       <c r="B117" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C117" t="s">
-        <v>592</v>
-      </c>
-      <c r="D117" s="15">
+        <v>587</v>
+      </c>
+      <c r="D117" s="21">
         <v>1.326039</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="21">
         <v>103.807169</v>
       </c>
       <c r="I117">
@@ -6965,19 +6947,19 @@
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" s="16" t="s">
-        <v>567</v>
+      <c r="A118" s="13" t="s">
+        <v>562</v>
       </c>
       <c r="B118" t="s">
-        <v>577</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="D118" s="9">
+        <v>572</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D118" s="22">
         <v>1.3225089999999999</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="21">
         <v>103.815376</v>
       </c>
       <c r="I118">
@@ -6994,19 +6976,19 @@
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" s="16" t="s">
-        <v>568</v>
+      <c r="A119" s="13" t="s">
+        <v>563</v>
       </c>
       <c r="B119" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C119" t="s">
-        <v>593</v>
-      </c>
-      <c r="D119" s="15">
+        <v>588</v>
+      </c>
+      <c r="D119" s="21">
         <v>1.3200689999999999</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="21">
         <v>103.825997</v>
       </c>
       <c r="I119">
@@ -7023,26 +7005,26 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="16" t="s">
-        <v>569</v>
+      <c r="A120" s="13" t="s">
+        <v>564</v>
       </c>
       <c r="B120" t="s">
-        <v>579</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D120">
+        <v>574</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D120" s="19">
         <v>1.312487</v>
       </c>
-      <c r="E120" s="6">
+      <c r="E120" s="21">
         <v>103.837924</v>
       </c>
       <c r="F120">
         <v>228234</v>
       </c>
       <c r="G120" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I120">
         <v>1340</v>
@@ -7058,19 +7040,19 @@
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="16" t="s">
-        <v>559</v>
+      <c r="A121" s="13" t="s">
+        <v>554</v>
       </c>
       <c r="B121" t="s">
-        <v>580</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D121" s="9">
+        <v>575</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D121" s="22">
         <v>1.3072280000000001</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E121" s="21">
         <v>103.849847</v>
       </c>
       <c r="I121">
@@ -7087,19 +7069,19 @@
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="16" t="s">
-        <v>558</v>
+      <c r="A122" s="13" t="s">
+        <v>553</v>
       </c>
       <c r="B122" t="s">
-        <v>581</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="D122" s="15">
+        <v>576</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="D122" s="21">
         <v>1.3037639999999999</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E122" s="21">
         <v>103.852581</v>
       </c>
       <c r="I122">
@@ -7114,6 +7096,535 @@
       <c r="L122">
         <v>1282</v>
       </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="B123" t="s">
+        <v>624</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="D123" s="21">
+        <v>1.2920990000000001</v>
+      </c>
+      <c r="E123" s="21">
+        <v>103.84477</v>
+      </c>
+      <c r="I123">
+        <v>2179</v>
+      </c>
+      <c r="J123">
+        <v>2863</v>
+      </c>
+      <c r="K123">
+        <v>2211</v>
+      </c>
+      <c r="L123">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="B124" t="s">
+        <v>625</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="D124" s="21">
+        <v>1.298864</v>
+      </c>
+      <c r="E124" s="21">
+        <v>103.850387</v>
+      </c>
+      <c r="I124">
+        <v>2929</v>
+      </c>
+      <c r="J124">
+        <v>2821</v>
+      </c>
+      <c r="K124">
+        <v>3047</v>
+      </c>
+      <c r="L124">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="B125" t="s">
+        <v>626</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="D125" s="19">
+        <v>1.3054060000000001</v>
+      </c>
+      <c r="E125" s="19">
+        <v>103.855481</v>
+      </c>
+      <c r="I125">
+        <v>3171</v>
+      </c>
+      <c r="J125">
+        <v>2587</v>
+      </c>
+      <c r="K125">
+        <v>3337</v>
+      </c>
+      <c r="L125">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="B126" t="s">
+        <v>627</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="D126" s="19">
+        <v>1.3136680000000001</v>
+      </c>
+      <c r="E126" s="19">
+        <v>103.862999</v>
+      </c>
+      <c r="I126">
+        <v>3291</v>
+      </c>
+      <c r="J126">
+        <v>2460</v>
+      </c>
+      <c r="K126">
+        <v>3465</v>
+      </c>
+      <c r="L126">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="B127" t="s">
+        <v>628</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="D127" s="19">
+        <v>1.321502</v>
+      </c>
+      <c r="E127" s="19">
+        <v>103.871905</v>
+      </c>
+      <c r="I127">
+        <v>3421</v>
+      </c>
+      <c r="J127">
+        <v>2332</v>
+      </c>
+      <c r="K127">
+        <v>3615</v>
+      </c>
+      <c r="L127">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="B128" t="s">
+        <v>629</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="D128" s="19">
+        <v>1.3268800000000001</v>
+      </c>
+      <c r="E128" s="19">
+        <v>103.88325</v>
+      </c>
+      <c r="I128">
+        <v>3563</v>
+      </c>
+      <c r="J128">
+        <v>2202</v>
+      </c>
+      <c r="K128">
+        <v>3665</v>
+      </c>
+      <c r="L128">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="B129" t="s">
+        <v>630</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="D129" s="19">
+        <v>1.3267420000000001</v>
+      </c>
+      <c r="E129" s="19">
+        <v>103.889883</v>
+      </c>
+      <c r="I129">
+        <v>3379</v>
+      </c>
+      <c r="J129">
+        <v>2073</v>
+      </c>
+      <c r="K129">
+        <v>3513</v>
+      </c>
+      <c r="L129">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="B130" t="s">
+        <v>631</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="D130" s="19">
+        <v>1.3299719999999999</v>
+      </c>
+      <c r="E130" s="19">
+        <v>103.899258</v>
+      </c>
+      <c r="I130">
+        <v>3789</v>
+      </c>
+      <c r="J130">
+        <v>2070</v>
+      </c>
+      <c r="K130">
+        <v>3867</v>
+      </c>
+      <c r="L130">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="B131" t="s">
+        <v>632</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="D131" s="19">
+        <v>1.3349709999999999</v>
+      </c>
+      <c r="E131" s="19">
+        <v>103.90846500000001</v>
+      </c>
+      <c r="I131">
+        <v>3954</v>
+      </c>
+      <c r="J131">
+        <v>2152</v>
+      </c>
+      <c r="K131">
+        <v>4034</v>
+      </c>
+      <c r="L131">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="B132" t="s">
+        <v>634</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="D132" s="19">
+        <v>1.3347370000000001</v>
+      </c>
+      <c r="E132" s="19">
+        <v>103.91803400000001</v>
+      </c>
+      <c r="I132">
+        <v>4126</v>
+      </c>
+      <c r="J132">
+        <v>2068</v>
+      </c>
+      <c r="K132">
+        <v>4214</v>
+      </c>
+      <c r="L132">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A133" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="B133" t="s">
+        <v>633</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="D133" s="19">
+        <v>1.3366</v>
+      </c>
+      <c r="E133" s="19">
+        <v>103.93223500000001</v>
+      </c>
+      <c r="I133">
+        <v>4270</v>
+      </c>
+      <c r="J133">
+        <v>2150</v>
+      </c>
+      <c r="K133">
+        <v>4406</v>
+      </c>
+      <c r="L133">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A134" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="B134" t="s">
+        <v>635</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="D134" s="19">
+        <v>1.345512</v>
+      </c>
+      <c r="E134" s="19">
+        <v>103.938438</v>
+      </c>
+      <c r="I134">
+        <v>4436</v>
+      </c>
+      <c r="J134">
+        <v>2068</v>
+      </c>
+      <c r="K134">
+        <v>4554</v>
+      </c>
+      <c r="L134">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="B135" t="s">
+        <v>636</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="D135" s="19">
+        <v>1.354759</v>
+      </c>
+      <c r="E135" s="21">
+        <v>103.94353099999999</v>
+      </c>
+      <c r="F135">
+        <v>529538</v>
+      </c>
+      <c r="I135">
+        <v>2369</v>
+      </c>
+      <c r="J135">
+        <v>1014</v>
+      </c>
+      <c r="K135">
+        <v>2357</v>
+      </c>
+      <c r="L135">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="B136" t="s">
+        <v>637</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="D136" s="19">
+        <v>1.3562080000000001</v>
+      </c>
+      <c r="E136" s="21">
+        <v>103.954645</v>
+      </c>
+      <c r="I136">
+        <v>4746</v>
+      </c>
+      <c r="J136">
+        <v>2274</v>
+      </c>
+      <c r="K136">
+        <v>4918</v>
+      </c>
+      <c r="L136">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="B137" t="s">
+        <v>638</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="D137" s="19">
+        <v>1.341712</v>
+      </c>
+      <c r="E137" s="21">
+        <v>103.96158800000001</v>
+      </c>
+      <c r="I137">
+        <v>4793</v>
+      </c>
+      <c r="J137">
+        <v>2410</v>
+      </c>
+      <c r="K137">
+        <v>4923</v>
+      </c>
+      <c r="L137">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="B138" t="s">
+        <v>639</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="D138" s="19">
+        <v>1.3346929999999999</v>
+      </c>
+      <c r="E138" s="21">
+        <v>103.96136199999999</v>
+      </c>
+      <c r="I138">
+        <v>4707</v>
+      </c>
+      <c r="J138">
+        <v>2654</v>
+      </c>
+      <c r="K138">
+        <v>4813</v>
+      </c>
+      <c r="L138">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A139" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="B139" t="s">
+        <v>640</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="D139" s="19">
+        <v>1.3288789999999999</v>
+      </c>
+      <c r="E139" s="21">
+        <v>103.964905</v>
+      </c>
+      <c r="I139">
+        <v>4637</v>
+      </c>
+      <c r="J139">
+        <v>2756</v>
+      </c>
+      <c r="K139">
+        <v>4719</v>
+      </c>
+      <c r="L139">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A140" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="B140" t="s">
+        <v>641</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="D140" s="19">
+        <v>1.3201510000000001</v>
+      </c>
+      <c r="E140" s="21">
+        <v>103.95679800000001</v>
+      </c>
+      <c r="I140">
+        <v>4561</v>
+      </c>
+      <c r="J140">
+        <v>2858</v>
+      </c>
+      <c r="K140">
+        <v>4799</v>
+      </c>
+      <c r="L140">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D142" s="11"/>
+      <c r="E142" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7127,7 +7638,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView zoomScale="249" zoomScaleNormal="249" zoomScalePageLayoutView="249" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7170,343 +7681,343 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="D2">
         <v>1.3346929999999999</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>103.96136199999999</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
         <v>119</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="D3">
         <v>1.357367</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>103.988905</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B4" t="s">
-        <v>427</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="D4" s="9">
+        <v>422</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="8">
         <v>1.385521</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>103.743689</v>
       </c>
       <c r="F4">
         <v>689811</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>429</v>
+      <c r="G4" s="5" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="D5" s="9">
+        <v>426</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D5" s="8">
         <v>1.3803289999999999</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>103.745062</v>
       </c>
       <c r="F5">
         <v>688265</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>433</v>
+      <c r="G5" s="5" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="D6" s="9">
+        <v>430</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6" s="8">
         <v>1.3786560000000001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>103.748881</v>
       </c>
       <c r="F6">
         <v>688266</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>437</v>
+      <c r="G6" s="5" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B7" t="s">
-        <v>439</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="D7" s="9">
+        <v>434</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D7" s="8">
         <v>1.376811</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>103.752872</v>
       </c>
       <c r="F7">
         <v>688267</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>441</v>
+      <c r="G7" s="5" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B8" t="s">
-        <v>443</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="D8" s="9">
+        <v>438</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D8" s="8">
         <v>1.3784419999999999</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>103.75763600000001</v>
       </c>
       <c r="F8">
         <v>689483</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>445</v>
+      <c r="G8" s="5" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="D9" s="9">
+        <v>442</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D9" s="8">
         <v>1.3781969999999999</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>103.76354499999999</v>
       </c>
       <c r="F9">
         <v>678270</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>449</v>
+      <c r="G9" s="5" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B10" t="s">
-        <v>451</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="D10" s="9">
+        <v>446</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D10" s="8">
         <v>1.377291</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>103.767376</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>453</v>
+      <c r="G10" s="5" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B11" t="s">
-        <v>455</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="D11" s="9">
+        <v>450</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="D11" s="8">
         <v>1.376261</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>103.77131300000001</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>457</v>
+      <c r="G11" s="5" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B12" t="s">
-        <v>459</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="D12" s="9">
+        <v>454</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D12" s="8">
         <v>1.3803909999999999</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>103.772622</v>
       </c>
       <c r="F12">
         <v>679939</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>461</v>
+      <c r="G12" s="5" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B13" t="s">
-        <v>463</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="D13" s="9">
+        <v>458</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D13" s="8">
         <v>1.3847449999999999</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>103.77107700000001</v>
       </c>
       <c r="F13">
         <v>679004</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>465</v>
+      <c r="G13" s="5" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B14" t="s">
-        <v>467</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="D14" s="9">
+        <v>462</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D14" s="8">
         <v>1.387491</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>103.77017600000001</v>
       </c>
       <c r="F14">
         <v>679940</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>469</v>
+      <c r="G14" s="5" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B15" t="s">
-        <v>471</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="D15" s="9">
+        <v>466</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D15" s="8">
         <v>1.3868050000000001</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>103.764661</v>
       </c>
       <c r="F15">
         <v>679941</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>473</v>
+      <c r="G15" s="5" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B16" t="s">
-        <v>475</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="D16" s="9">
+        <v>470</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D16" s="8">
         <v>1.383211</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>103.76216100000001</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>477</v>
+      <c r="G16" s="5" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B17" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C17" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D17">
         <v>1.4047289999999999</v>
@@ -7518,18 +8029,18 @@
         <v>828868</v>
       </c>
       <c r="G17" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B18" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C18" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D18">
         <v>1.3993370000000001</v>
@@ -7541,18 +8052,18 @@
         <v>820198</v>
       </c>
       <c r="G18" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B19" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C19" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D19">
         <v>1.3969780000000001</v>
@@ -7561,18 +8072,18 @@
         <v>103.909177</v>
       </c>
       <c r="G19" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B20" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C20" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D20">
         <v>1.393448</v>
@@ -7581,18 +8092,18 @@
         <v>103.91209600000001</v>
       </c>
       <c r="G20" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B21" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C21" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D21">
         <v>1.3946190000000001</v>
@@ -7604,18 +8115,18 @@
         <v>828852</v>
       </c>
       <c r="G21" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B22" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C22" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D22">
         <v>1.399338</v>
@@ -7627,18 +8138,18 @@
         <v>828853</v>
       </c>
       <c r="G22" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B23" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C23" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D23">
         <v>1.4016120000000001</v>
@@ -7647,18 +8158,18 @@
         <v>103.913605</v>
       </c>
       <c r="G23" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B24" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C24" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D24">
         <v>1.4053450000000001</v>
@@ -7670,18 +8181,18 @@
         <v>822612</v>
       </c>
       <c r="G24" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B25" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C25" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D25">
         <v>1.391745</v>
@@ -7693,18 +8204,18 @@
         <v>545062</v>
       </c>
       <c r="G25" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B26" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C26" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D26">
         <v>1.3946190000000001</v>
@@ -7716,18 +8227,18 @@
         <v>540250</v>
       </c>
       <c r="G26" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B27" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C27" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D27">
         <v>1.3911009999999999</v>
@@ -7736,18 +8247,18 @@
         <v>103.90622399999999</v>
       </c>
       <c r="G27" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B28" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C28" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D28">
         <v>1.387883</v>
@@ -7759,18 +8270,18 @@
         <v>545053</v>
       </c>
       <c r="G28" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B29" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C29" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D29">
         <v>1.3837219999999999</v>
@@ -7782,18 +8293,18 @@
         <v>545052</v>
       </c>
       <c r="G29" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B30" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C30" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D30">
         <v>1.3836360000000001</v>
@@ -7802,18 +8313,18 @@
         <v>103.89764099999999</v>
       </c>
       <c r="G30" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B31" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C31" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D31">
         <v>1.397295</v>
@@ -7825,18 +8336,18 @@
         <v>545048</v>
       </c>
       <c r="G31" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B32" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C32" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D32">
         <v>1.397348</v>
@@ -7848,18 +8359,18 @@
         <v>797699</v>
       </c>
       <c r="G32" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B33" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C33" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D33">
         <v>1.391921</v>
@@ -7871,18 +8382,18 @@
         <v>797698</v>
       </c>
       <c r="G33" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B34" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C34" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D34">
         <v>1.3921570000000001</v>
@@ -7894,18 +8405,18 @@
         <v>797700</v>
       </c>
       <c r="G34" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B35" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C35" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D35">
         <v>1.3892610000000001</v>
@@ -7917,18 +8428,18 @@
         <v>545050</v>
       </c>
       <c r="G35" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B36" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C36" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D36">
         <v>1.386644</v>
@@ -7940,510 +8451,53 @@
         <v>545049</v>
       </c>
       <c r="G36" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B37" t="s">
-        <v>389</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="D37" s="9">
+        <v>384</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D37" s="8">
         <v>1.282362</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>103.858994</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>392</v>
+      <c r="F37" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B38" t="s">
-        <v>394</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="D38" s="9">
+        <v>389</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D38" s="8">
         <v>1.276162</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>103.854316</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>611</v>
-      </c>
-      <c r="B1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>647</v>
-      </c>
-      <c r="D1" s="15">
-        <v>1.2919</v>
-      </c>
-      <c r="E1" s="6">
-        <v>103.8352</v>
-      </c>
-      <c r="I1">
-        <v>2179</v>
-      </c>
-      <c r="J1">
-        <v>2863</v>
-      </c>
-      <c r="K1">
-        <v>2211</v>
-      </c>
-      <c r="L1">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="B2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="D2" s="15">
-        <v>1.298889</v>
-      </c>
-      <c r="E2" s="6">
-        <v>103.850278</v>
-      </c>
-      <c r="I2">
-        <v>2929</v>
-      </c>
-      <c r="J2">
-        <v>2821</v>
-      </c>
-      <c r="K2">
-        <v>3047</v>
-      </c>
-      <c r="L2">
-        <v>2823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="B3" t="s">
-        <v>631</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="I3">
-        <v>3171</v>
-      </c>
-      <c r="J3">
-        <v>2587</v>
-      </c>
-      <c r="K3">
-        <v>3337</v>
-      </c>
-      <c r="L3">
-        <v>2589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>614</v>
-      </c>
-      <c r="B4" t="s">
-        <v>632</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="I4">
-        <v>3291</v>
-      </c>
-      <c r="J4">
-        <v>2460</v>
-      </c>
-      <c r="K4">
-        <v>3465</v>
-      </c>
-      <c r="L4">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>615</v>
-      </c>
-      <c r="B5" t="s">
-        <v>633</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="I5">
-        <v>3421</v>
-      </c>
-      <c r="J5">
-        <v>2332</v>
-      </c>
-      <c r="K5">
-        <v>3615</v>
-      </c>
-      <c r="L5">
-        <v>2332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>616</v>
-      </c>
-      <c r="B6" t="s">
-        <v>634</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="I6">
-        <v>3563</v>
-      </c>
-      <c r="J6">
-        <v>2202</v>
-      </c>
-      <c r="K6">
-        <v>3665</v>
-      </c>
-      <c r="L6">
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="B7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="I7">
-        <v>3379</v>
-      </c>
-      <c r="J7">
-        <v>2073</v>
-      </c>
-      <c r="K7">
-        <v>3513</v>
-      </c>
-      <c r="L7">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>618</v>
-      </c>
-      <c r="B8" t="s">
-        <v>636</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="I8">
-        <v>3789</v>
-      </c>
-      <c r="J8">
-        <v>2070</v>
-      </c>
-      <c r="K8">
-        <v>3867</v>
-      </c>
-      <c r="L8">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>619</v>
-      </c>
-      <c r="B9" t="s">
-        <v>637</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="I9">
-        <v>3954</v>
-      </c>
-      <c r="J9">
-        <v>2152</v>
-      </c>
-      <c r="K9">
-        <v>4034</v>
-      </c>
-      <c r="L9">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="B10" t="s">
-        <v>639</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="I10">
-        <v>4126</v>
-      </c>
-      <c r="J10">
-        <v>2068</v>
-      </c>
-      <c r="K10">
-        <v>4214</v>
-      </c>
-      <c r="L10">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="B11" t="s">
-        <v>638</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>657</v>
-      </c>
-      <c r="I11">
-        <v>4270</v>
-      </c>
-      <c r="J11">
-        <v>2150</v>
-      </c>
-      <c r="K11">
-        <v>4406</v>
-      </c>
-      <c r="L11">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>622</v>
-      </c>
-      <c r="B12" t="s">
-        <v>640</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>658</v>
-      </c>
-      <c r="I12">
-        <v>4436</v>
-      </c>
-      <c r="J12">
-        <v>2068</v>
-      </c>
-      <c r="K12">
-        <v>4554</v>
-      </c>
-      <c r="L12">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="B13" t="s">
-        <v>641</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>659</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="6">
-        <v>103.945213</v>
-      </c>
-      <c r="F13">
-        <v>529538</v>
-      </c>
-      <c r="I13">
-        <v>2369</v>
-      </c>
-      <c r="J13">
-        <v>1014</v>
-      </c>
-      <c r="K13">
-        <v>2357</v>
-      </c>
-      <c r="L13">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>624</v>
-      </c>
-      <c r="B14" t="s">
-        <v>642</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="I14">
-        <v>4746</v>
-      </c>
-      <c r="J14">
-        <v>2274</v>
-      </c>
-      <c r="K14">
-        <v>4918</v>
-      </c>
-      <c r="L14">
-        <v>2274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="B15" t="s">
-        <v>643</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="I15">
-        <v>4793</v>
-      </c>
-      <c r="J15">
-        <v>2410</v>
-      </c>
-      <c r="K15">
-        <v>4923</v>
-      </c>
-      <c r="L15">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="B16" t="s">
-        <v>644</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>662</v>
-      </c>
-      <c r="D16">
-        <v>1.3346929999999999</v>
-      </c>
-      <c r="E16" s="6">
-        <v>103.96136199999999</v>
-      </c>
-      <c r="I16">
-        <v>4707</v>
-      </c>
-      <c r="J16">
-        <v>2654</v>
-      </c>
-      <c r="K16">
-        <v>4813</v>
-      </c>
-      <c r="L16">
-        <v>2606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>627</v>
-      </c>
-      <c r="B17" t="s">
-        <v>645</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="I17">
-        <v>4637</v>
-      </c>
-      <c r="J17">
-        <v>2756</v>
-      </c>
-      <c r="K17">
-        <v>4719</v>
-      </c>
-      <c r="L17">
-        <v>2732</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>628</v>
-      </c>
-      <c r="B18" t="s">
-        <v>646</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>664</v>
-      </c>
-      <c r="I18">
-        <v>4561</v>
-      </c>
-      <c r="J18">
-        <v>2858</v>
-      </c>
-      <c r="K18">
-        <v>4799</v>
-      </c>
-      <c r="L18">
-        <v>2878</v>
+      <c r="F38" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
